--- a/2.スケジュール/スケジュール.xlsx
+++ b/2.スケジュール/スケジュール.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1\OneDrive\Máy tính\Spacecool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\GitHub\Rootstock_SC\2.スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221A90B5-621B-421B-93A0-103347AA8510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E760874-3195-4E51-8DE1-058AC89D7C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC3888E-2072-4F01-B82D-11B88CE59715}"/>
   </bookViews>
@@ -3761,48 +3761,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3815,10 +3782,43 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4214,10 +4214,10 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -4290,10 +4290,10 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>711</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="73" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="48" t="s">
@@ -4328,8 +4328,8 @@
         <f t="shared" ref="A3:A52" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="48" t="s">
         <v>717</v>
       </c>
@@ -4362,8 +4362,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="48" t="s">
         <v>718</v>
       </c>
@@ -4396,8 +4396,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="48" t="s">
         <v>719</v>
       </c>
@@ -4430,7 +4430,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="74"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="57" t="s">
         <v>713</v>
       </c>
@@ -4464,8 +4464,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74" t="s">
+      <c r="B7" s="73"/>
+      <c r="C7" s="73" t="s">
         <v>715</v>
       </c>
       <c r="D7" s="58" t="s">
@@ -4500,8 +4500,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="59" t="s">
         <v>721</v>
       </c>
@@ -4534,7 +4534,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="74"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="57" t="s">
         <v>714</v>
       </c>
@@ -4568,8 +4568,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74" t="s">
+      <c r="B10" s="73"/>
+      <c r="C10" s="73" t="s">
         <v>712</v>
       </c>
       <c r="D10" s="48" t="s">
@@ -4604,8 +4604,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="59" t="s">
         <v>722</v>
       </c>
@@ -4638,8 +4638,8 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="59" t="s">
         <v>723</v>
       </c>
@@ -4672,8 +4672,8 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74" t="s">
+      <c r="B13" s="73"/>
+      <c r="C13" s="73" t="s">
         <v>724</v>
       </c>
       <c r="D13" s="48" t="s">
@@ -4708,8 +4708,8 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="48" t="s">
         <v>726</v>
       </c>
@@ -4742,17 +4742,17 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="73" t="s">
         <v>727</v>
       </c>
       <c r="C15" s="57" t="s">
         <v>716</v>
       </c>
       <c r="D15" s="48"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
       <c r="I15" s="51" t="s">
         <v>762</v>
       </c>
@@ -4772,15 +4772,15 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="74"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="57" t="s">
         <v>729</v>
       </c>
       <c r="D16" s="48"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="51" t="s">
         <v>762</v>
       </c>
@@ -4800,15 +4800,15 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="74"/>
+      <c r="B17" s="73"/>
       <c r="C17" s="57" t="s">
         <v>730</v>
       </c>
       <c r="D17" s="48"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
       <c r="I17" s="51" t="s">
         <v>762</v>
       </c>
@@ -4828,15 +4828,15 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="74"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="57" t="s">
         <v>731</v>
       </c>
       <c r="D18" s="48"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="51" t="s">
         <v>762</v>
       </c>
@@ -4856,15 +4856,15 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="74"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="57" t="s">
         <v>750</v>
       </c>
       <c r="D19" s="48"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
       <c r="I19" s="51" t="s">
         <v>762</v>
       </c>
@@ -4889,10 +4889,10 @@
       </c>
       <c r="C20" s="57"/>
       <c r="D20" s="48"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="51" t="s">
         <v>762</v>
       </c>
@@ -4940,7 +4940,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="75" t="s">
         <v>732</v>
       </c>
       <c r="C22" s="57" t="s">
@@ -4974,7 +4974,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="73"/>
+      <c r="B23" s="75"/>
       <c r="C23" s="57" t="s">
         <v>735</v>
       </c>
@@ -5006,7 +5006,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="73"/>
+      <c r="B24" s="75"/>
       <c r="C24" s="57" t="s">
         <v>736</v>
       </c>
@@ -5038,7 +5038,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="73"/>
+      <c r="B25" s="75"/>
       <c r="C25" s="57" t="s">
         <v>733</v>
       </c>
@@ -5068,10 +5068,10 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="73" t="s">
         <v>737</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="74" t="s">
         <v>738</v>
       </c>
       <c r="D26" s="48" t="s">
@@ -5102,8 +5102,8 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="76"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="48" t="s">
         <v>744</v>
       </c>
@@ -5138,8 +5138,8 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="74"/>
-      <c r="C28" s="76" t="s">
+      <c r="B28" s="73"/>
+      <c r="C28" s="74" t="s">
         <v>739</v>
       </c>
       <c r="D28" s="48" t="s">
@@ -5170,8 +5170,8 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="74"/>
-      <c r="C29" s="76"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="48" t="s">
         <v>744</v>
       </c>
@@ -5208,8 +5208,8 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="74"/>
-      <c r="C30" s="76" t="s">
+      <c r="B30" s="73"/>
+      <c r="C30" s="74" t="s">
         <v>740</v>
       </c>
       <c r="D30" s="48" t="s">
@@ -5240,8 +5240,8 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="74"/>
-      <c r="C31" s="76"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="48" t="s">
         <v>744</v>
       </c>
@@ -5278,8 +5278,8 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="76" t="s">
+      <c r="B32" s="73"/>
+      <c r="C32" s="74" t="s">
         <v>741</v>
       </c>
       <c r="D32" s="48" t="s">
@@ -5310,8 +5310,8 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="76"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="48" t="s">
         <v>744</v>
       </c>
@@ -5344,8 +5344,8 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74" t="s">
+      <c r="B34" s="73"/>
+      <c r="C34" s="73" t="s">
         <v>742</v>
       </c>
       <c r="D34" s="48" t="s">
@@ -5372,8 +5372,8 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
       <c r="D35" s="48" t="s">
         <v>744</v>
       </c>
@@ -5398,7 +5398,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="74"/>
+      <c r="B36" s="73"/>
       <c r="C36" s="48" t="s">
         <v>787</v>
       </c>
@@ -5432,7 +5432,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="73" t="s">
         <v>745</v>
       </c>
       <c r="C37" s="57" t="s">
@@ -5464,7 +5464,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="74"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="57" t="s">
         <v>746</v>
       </c>
@@ -5490,7 +5490,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="74"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="57" t="s">
         <v>747</v>
       </c>
@@ -5516,7 +5516,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="74"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="57" t="s">
         <v>748</v>
       </c>
@@ -5550,7 +5550,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="73" t="s">
         <v>751</v>
       </c>
       <c r="C41" s="57" t="s">
@@ -5586,7 +5586,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="74"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="57" t="s">
         <v>753</v>
       </c>
@@ -5614,7 +5614,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="74"/>
+      <c r="B43" s="73"/>
       <c r="C43" s="57" t="s">
         <v>754</v>
       </c>
@@ -5644,7 +5644,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="74"/>
+      <c r="B44" s="73"/>
       <c r="C44" s="57" t="s">
         <v>755</v>
       </c>
@@ -5678,7 +5678,7 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="74"/>
+      <c r="B45" s="73"/>
       <c r="C45" s="57" t="s">
         <v>756</v>
       </c>
@@ -5706,7 +5706,7 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="74"/>
+      <c r="B46" s="73"/>
       <c r="C46" s="57" t="s">
         <v>757</v>
       </c>
@@ -5734,7 +5734,7 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="74"/>
+      <c r="B47" s="73"/>
       <c r="C47" s="57" t="s">
         <v>758</v>
       </c>
@@ -5774,7 +5774,7 @@
       <c r="E48" s="50"/>
       <c r="F48" s="50"/>
       <c r="G48" s="49">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H48" s="49"/>
       <c r="I48" s="51" t="s">
@@ -5798,7 +5798,7 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="73" t="s">
+      <c r="B49" s="75" t="s">
         <v>779</v>
       </c>
       <c r="C49" s="57" t="s">
@@ -5828,7 +5828,7 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="73"/>
+      <c r="B50" s="75"/>
       <c r="C50" s="57" t="s">
         <v>780</v>
       </c>
@@ -6088,16 +6088,6 @@
   </sheetData>
   <autoFilter ref="B1:O51" xr:uid="{8E7929DC-B531-419A-8BB3-4B492C6A9455}"/>
   <mergeCells count="22">
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B26:B36"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B2:B14"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B15:B19"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B41:B47"/>
     <mergeCell ref="E15:H15"/>
@@ -6110,6 +6100,16 @@
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B26:B36"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B15:B19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="J2:J63">
@@ -6216,7 +6216,7 @@
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="80" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -6240,7 +6240,7 @@
       <c r="O3" s="14"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B4" s="84"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -6266,7 +6266,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B5" s="84"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -6292,7 +6292,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B6" s="84"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -6318,7 +6318,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B7" s="84"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
@@ -6340,7 +6340,7 @@
       <c r="O7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="93" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="85"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
@@ -6372,7 +6372,7 @@
       <c r="O8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="80" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -6406,7 +6406,7 @@
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="84"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="1" t="s">
         <v>62</v>
       </c>
@@ -6438,7 +6438,7 @@
       <c r="O10" s="14"/>
     </row>
     <row r="11" spans="2:18" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="91" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -6472,7 +6472,7 @@
       <c r="O11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="87"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
@@ -6504,7 +6504,7 @@
       <c r="O12" s="14"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B13" s="87"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
@@ -6534,7 +6534,7 @@
       <c r="O13" s="14"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="80" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -6566,7 +6566,7 @@
       <c r="O14" s="14"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B15" s="84"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="1" t="s">
         <v>66</v>
       </c>
@@ -6596,7 +6596,7 @@
       <c r="O15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B16" s="84"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
@@ -6628,7 +6628,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B17" s="84"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -6660,8 +6660,8 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="84"/>
-      <c r="C18" s="77" t="s">
+      <c r="B18" s="81"/>
+      <c r="C18" s="83" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -6692,8 +6692,8 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="84"/>
-      <c r="C19" s="78"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="14" t="s">
         <v>47</v>
       </c>
@@ -6722,8 +6722,8 @@
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B20" s="84"/>
-      <c r="C20" s="78"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="14" t="s">
         <v>48</v>
       </c>
@@ -6752,8 +6752,8 @@
       <c r="O20" s="14"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="84"/>
-      <c r="C21" s="78"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="14" t="s">
         <v>49</v>
       </c>
@@ -6782,8 +6782,8 @@
       <c r="O21" s="14"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="84"/>
-      <c r="C22" s="78"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="22" t="s">
         <v>50</v>
       </c>
@@ -6812,8 +6812,8 @@
       <c r="O22" s="14"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="84"/>
-      <c r="C23" s="78"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="14" t="s">
         <v>51</v>
       </c>
@@ -6842,8 +6842,8 @@
       <c r="O23" s="14"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="84"/>
-      <c r="C24" s="78"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="14" t="s">
         <v>52</v>
       </c>
@@ -6872,8 +6872,8 @@
       <c r="O24" s="14"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B25" s="84"/>
-      <c r="C25" s="79"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="14" t="s">
         <v>53</v>
       </c>
@@ -6902,7 +6902,7 @@
       <c r="O25" s="14"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="80" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -6928,7 +6928,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B27" s="84"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
@@ -6952,7 +6952,7 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="80" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -6982,7 +6982,7 @@
       <c r="O28" s="14"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B29" s="84"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
@@ -7010,8 +7010,8 @@
       <c r="O29" s="14"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B30" s="84"/>
-      <c r="C30" s="77" t="s">
+      <c r="B30" s="81"/>
+      <c r="C30" s="83" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -7040,8 +7040,8 @@
       <c r="O30" s="14"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B31" s="84"/>
-      <c r="C31" s="78"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="14"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -7056,8 +7056,8 @@
       <c r="O31" s="14"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B32" s="85"/>
-      <c r="C32" s="79"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="84"/>
       <c r="D32" s="14"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -7072,7 +7072,7 @@
       <c r="O32" s="14"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B33" s="83" t="s">
+      <c r="B33" s="80" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -7098,7 +7098,7 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B34" s="84"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="14" t="s">
         <v>39</v>
       </c>
@@ -7122,7 +7122,7 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B35" s="84"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="14" t="s">
         <v>40</v>
       </c>
@@ -7146,8 +7146,8 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B36" s="84"/>
-      <c r="C36" s="80" t="s">
+      <c r="B36" s="81"/>
+      <c r="C36" s="88" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="14"/>
@@ -7170,8 +7170,8 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B37" s="84"/>
-      <c r="C37" s="81"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="89"/>
       <c r="D37" s="14"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
@@ -7192,8 +7192,8 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B38" s="85"/>
-      <c r="C38" s="82"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
@@ -7282,10 +7282,10 @@
       <c r="O41" s="10"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B42" s="83" t="s">
+      <c r="B42" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="88" t="s">
+      <c r="C42" s="77" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -7316,8 +7316,8 @@
       <c r="O42" s="14"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B43" s="84"/>
-      <c r="C43" s="90"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="79"/>
       <c r="D43" s="14" t="s">
         <v>31</v>
       </c>
@@ -7346,8 +7346,8 @@
       <c r="O43" s="14"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B44" s="84"/>
-      <c r="C44" s="77"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="83"/>
       <c r="D44" s="14" t="s">
         <v>34</v>
       </c>
@@ -7376,8 +7376,8 @@
       <c r="O44" s="14"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B45" s="85"/>
-      <c r="C45" s="79"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="84"/>
       <c r="D45" s="14" t="s">
         <v>31</v>
       </c>
@@ -7406,7 +7406,7 @@
       <c r="O45" s="14"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B46" s="83" t="s">
+      <c r="B46" s="80" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -7428,7 +7428,7 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B47" s="84"/>
+      <c r="B47" s="81"/>
       <c r="C47" s="1" t="s">
         <v>76</v>
       </c>
@@ -7448,7 +7448,7 @@
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B48" s="84"/>
+      <c r="B48" s="81"/>
       <c r="C48" s="1" t="s">
         <v>77</v>
       </c>
@@ -7468,7 +7468,7 @@
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B49" s="84"/>
+      <c r="B49" s="81"/>
       <c r="C49" s="1" t="s">
         <v>78</v>
       </c>
@@ -7488,7 +7488,7 @@
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B50" s="85"/>
+      <c r="B50" s="82"/>
       <c r="C50" s="1" t="s">
         <v>79</v>
       </c>
@@ -7508,10 +7508,10 @@
       </c>
     </row>
     <row r="51" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="83" t="s">
+      <c r="B51" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="88" t="s">
+      <c r="C51" s="77" t="s">
         <v>84</v>
       </c>
       <c r="D51" s="14" t="s">
@@ -7532,8 +7532,8 @@
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B52" s="84"/>
-      <c r="C52" s="89"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="78"/>
       <c r="D52" s="14" t="s">
         <v>86</v>
       </c>
@@ -7552,8 +7552,8 @@
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B53" s="85"/>
-      <c r="C53" s="90"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="79"/>
       <c r="D53" s="14" t="s">
         <v>87</v>
       </c>
@@ -7637,7 +7637,7 @@
     </row>
     <row r="57" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="6"/>
-      <c r="C57" s="91" t="s">
+      <c r="C57" s="86" t="s">
         <v>93</v>
       </c>
       <c r="D57" s="14" t="s">
@@ -7659,7 +7659,7 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B58" s="6"/>
-      <c r="C58" s="92"/>
+      <c r="C58" s="87"/>
       <c r="D58" s="14" t="s">
         <v>95</v>
       </c>
@@ -8085,7 +8085,7 @@
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B80" s="6"/>
-      <c r="C80" s="77" t="s">
+      <c r="C80" s="83" t="s">
         <v>114</v>
       </c>
       <c r="D80" s="14" t="s">
@@ -8107,7 +8107,7 @@
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B81" s="6"/>
-      <c r="C81" s="78"/>
+      <c r="C81" s="85"/>
       <c r="D81" s="14" t="s">
         <v>95</v>
       </c>
@@ -8127,7 +8127,7 @@
     </row>
     <row r="82" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B82" s="6"/>
-      <c r="C82" s="79"/>
+      <c r="C82" s="84"/>
       <c r="D82" s="21" t="s">
         <v>115</v>
       </c>
@@ -8265,7 +8265,7 @@
     </row>
     <row r="89" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="6"/>
-      <c r="C89" s="88" t="s">
+      <c r="C89" s="77" t="s">
         <v>133</v>
       </c>
       <c r="D89" s="24" t="s">
@@ -8287,7 +8287,7 @@
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B90" s="6"/>
-      <c r="C90" s="89"/>
+      <c r="C90" s="78"/>
       <c r="D90" s="24" t="s">
         <v>136</v>
       </c>
@@ -8307,7 +8307,7 @@
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B91" s="6"/>
-      <c r="C91" s="89"/>
+      <c r="C91" s="78"/>
       <c r="D91" s="24" t="s">
         <v>135</v>
       </c>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B92" s="6"/>
-      <c r="C92" s="90"/>
+      <c r="C92" s="79"/>
       <c r="D92" s="28" t="s">
         <v>137</v>
       </c>
@@ -8586,15 +8586,6 @@
   </sheetData>
   <autoFilter ref="I2:I47" xr:uid="{6EBC6241-952D-451D-ACB1-930264AC8260}"/>
   <mergeCells count="19">
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="C57:C58"/>
     <mergeCell ref="C18:C25"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="C36:C38"/>
@@ -8605,6 +8596,15 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="C57:C58"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.スケジュール/スケジュール.xlsx
+++ b/2.スケジュール/スケジュール.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\GitHub\Rootstock_SC\2.スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E760874-3195-4E51-8DE1-058AC89D7C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433DCD4F-AEE6-42A4-ACEA-B38FDEAD0200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC3888E-2072-4F01-B82D-11B88CE59715}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="807">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -3284,6 +3284,97 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VAT Classを調べる</t>
+    <rPh sb="10" eb="11">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AppLauncher（7つ）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SendMail</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>受注</t>
+  </si>
+  <si>
+    <t>出荷</t>
+  </si>
+  <si>
+    <t>生産計画・製造</t>
+  </si>
+  <si>
+    <t>調達</t>
+  </si>
+  <si>
+    <t>在庫・棚卸</t>
+  </si>
+  <si>
+    <t>マスタ</t>
+  </si>
+  <si>
+    <t>請求書</t>
+  </si>
+  <si>
+    <t>PO RecieptのUpload機能</t>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>QA No85と森下さんのメールを確認</t>
+    <rPh sb="8" eb="10">
+      <t>モリシタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・コメントと黄色い所を確認
+・サイト、在庫ロケーションIDを更新</t>
+    <rPh sb="6" eb="8">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トコロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No60と同じ</t>
+    <rPh sb="5" eb="6">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北川さんのメールを確認
+Rootforms発注書メール自動送信_V1_0.docx</t>
+    <rPh sb="0" eb="2">
+      <t>キタガワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3418,7 +3509,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3463,7 +3554,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3540,7 +3637,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3706,9 +3803,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3723,9 +3817,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3745,12 +3836,6 @@
     <xf numFmtId="38" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3761,15 +3846,48 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3782,42 +3900,45 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3826,7 +3947,7 @@
     <cellStyle name="桁区切り" xfId="2" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
     <dxf>
       <font>
         <color auto="1"/>
@@ -3852,9 +3973,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3866,12 +3990,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4211,28 +4356,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7929DC-B531-419A-8BB3-4B492C6A9455}">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
+      <selection pane="bottomRight" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="63" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="63" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="61" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="61" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="64" customWidth="1"/>
-    <col min="7" max="9" width="12.375" style="64" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="65" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="65" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.625" style="65" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="62" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="62" customWidth="1"/>
+    <col min="7" max="9" width="12.375" style="62" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="63" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="63" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="63" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" style="63" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35" style="47" customWidth="1"/>
     <col min="15" max="15" width="17.125" style="47" customWidth="1"/>
     <col min="16" max="16384" width="8.625" style="47"/>
@@ -4286,14 +4431,14 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="72">
+      <c r="A2" s="68">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="70" t="s">
         <v>711</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="70" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="48" t="s">
@@ -4308,14 +4453,15 @@
       </c>
       <c r="H2" s="49"/>
       <c r="I2" s="51" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J2" s="52">
-        <v>45089</v>
+        <v>45103</v>
       </c>
       <c r="K2" s="53"/>
       <c r="L2" s="52">
-        <v>45090</v>
+        <f>J2+3</f>
+        <v>45106</v>
       </c>
       <c r="M2" s="53"/>
       <c r="N2" s="54" t="s">
@@ -4324,12 +4470,12 @@
       <c r="O2" s="54"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="72">
+      <c r="A3" s="68">
         <f t="shared" ref="A3:A52" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="48" t="s">
         <v>717</v>
       </c>
@@ -4342,14 +4488,15 @@
       </c>
       <c r="H3" s="49"/>
       <c r="I3" s="51" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J3" s="52">
-        <v>45089</v>
+        <v>45103</v>
       </c>
       <c r="K3" s="53"/>
       <c r="L3" s="52">
-        <v>45090</v>
+        <f t="shared" ref="L3:L14" si="1">J3+3</f>
+        <v>45106</v>
       </c>
       <c r="M3" s="53"/>
       <c r="N3" s="54" t="s">
@@ -4358,12 +4505,12 @@
       <c r="O3" s="54"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4" s="72">
+      <c r="A4" s="68">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="48" t="s">
         <v>718</v>
       </c>
@@ -4375,29 +4522,30 @@
         <v>60</v>
       </c>
       <c r="H4" s="49"/>
-      <c r="I4" s="55" t="s">
-        <v>763</v>
+      <c r="I4" s="99" t="s">
+        <v>762</v>
       </c>
       <c r="J4" s="52">
-        <v>45089</v>
+        <v>45103</v>
       </c>
       <c r="K4" s="53"/>
       <c r="L4" s="52">
-        <v>45090</v>
+        <f t="shared" si="1"/>
+        <v>45106</v>
       </c>
       <c r="M4" s="53"/>
-      <c r="N4" s="56" t="s">
+      <c r="N4" s="55" t="s">
         <v>782</v>
       </c>
       <c r="O4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A5" s="72">
+      <c r="A5" s="68">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="48" t="s">
         <v>719</v>
       </c>
@@ -4413,11 +4561,12 @@
         <v>762</v>
       </c>
       <c r="J5" s="52">
-        <v>45089</v>
+        <v>45103</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="52">
-        <v>45090</v>
+        <f t="shared" si="1"/>
+        <v>45106</v>
       </c>
       <c r="M5" s="53"/>
       <c r="N5" s="54" t="s">
@@ -4426,12 +4575,12 @@
       <c r="O5" s="54"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A6" s="72">
+      <c r="A6" s="68">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="56" t="s">
         <v>713</v>
       </c>
       <c r="D6" s="48"/>
@@ -4447,11 +4596,12 @@
         <v>762</v>
       </c>
       <c r="J6" s="52">
-        <v>45089</v>
+        <v>45103</v>
       </c>
       <c r="K6" s="53"/>
       <c r="L6" s="52">
-        <v>45090</v>
+        <f t="shared" si="1"/>
+        <v>45106</v>
       </c>
       <c r="M6" s="53"/>
       <c r="N6" s="54" t="s">
@@ -4460,15 +4610,15 @@
       <c r="O6" s="54"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A7" s="72">
+      <c r="A7" s="68">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73" t="s">
+      <c r="B7" s="70"/>
+      <c r="C7" s="70" t="s">
         <v>715</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="57" t="s">
         <v>720</v>
       </c>
       <c r="E7" s="49">
@@ -4483,11 +4633,12 @@
         <v>762</v>
       </c>
       <c r="J7" s="52">
-        <v>45089</v>
+        <v>45103</v>
       </c>
       <c r="K7" s="52"/>
       <c r="L7" s="52">
-        <v>45090</v>
+        <f t="shared" si="1"/>
+        <v>45106</v>
       </c>
       <c r="M7" s="52"/>
       <c r="N7" s="54" t="s">
@@ -4496,13 +4647,13 @@
       <c r="O7" s="54"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A8" s="72">
+      <c r="A8" s="68">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="59" t="s">
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="58" t="s">
         <v>721</v>
       </c>
       <c r="E8" s="49">
@@ -4517,11 +4668,12 @@
         <v>762</v>
       </c>
       <c r="J8" s="52">
-        <v>45089</v>
+        <v>45103</v>
       </c>
       <c r="K8" s="52"/>
       <c r="L8" s="52">
-        <v>45090</v>
+        <f t="shared" si="1"/>
+        <v>45106</v>
       </c>
       <c r="M8" s="52"/>
       <c r="N8" s="54" t="s">
@@ -4530,15 +4682,15 @@
       <c r="O8" s="54"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" s="72">
+      <c r="A9" s="68">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="57" t="s">
+      <c r="B9" s="70"/>
+      <c r="C9" s="56" t="s">
         <v>714</v>
       </c>
-      <c r="D9" s="59"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="49">
         <v>100</v>
       </c>
@@ -4551,11 +4703,12 @@
         <v>762</v>
       </c>
       <c r="J9" s="52">
-        <v>45089</v>
+        <v>45103</v>
       </c>
       <c r="K9" s="52"/>
       <c r="L9" s="52">
-        <v>45090</v>
+        <f t="shared" si="1"/>
+        <v>45106</v>
       </c>
       <c r="M9" s="52"/>
       <c r="N9" s="54" t="s">
@@ -4564,12 +4717,12 @@
       <c r="O9" s="54"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="72">
+      <c r="A10" s="68">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73" t="s">
+      <c r="B10" s="70"/>
+      <c r="C10" s="70" t="s">
         <v>712</v>
       </c>
       <c r="D10" s="48" t="s">
@@ -4587,11 +4740,12 @@
         <v>762</v>
       </c>
       <c r="J10" s="52">
-        <v>45089</v>
+        <v>45103</v>
       </c>
       <c r="K10" s="52"/>
       <c r="L10" s="52">
-        <v>45090</v>
+        <f t="shared" si="1"/>
+        <v>45106</v>
       </c>
       <c r="M10" s="52"/>
       <c r="N10" s="54" t="s">
@@ -4600,13 +4754,13 @@
       <c r="O10" s="54"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="72">
+      <c r="A11" s="68">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="59" t="s">
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="58" t="s">
         <v>722</v>
       </c>
       <c r="E11" s="49">
@@ -4621,11 +4775,12 @@
         <v>762</v>
       </c>
       <c r="J11" s="52">
-        <v>45089</v>
+        <v>45103</v>
       </c>
       <c r="K11" s="52"/>
       <c r="L11" s="52">
-        <v>45090</v>
+        <f t="shared" si="1"/>
+        <v>45106</v>
       </c>
       <c r="M11" s="52"/>
       <c r="N11" s="54" t="s">
@@ -4634,13 +4789,13 @@
       <c r="O11" s="54"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="72">
+      <c r="A12" s="68">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="59" t="s">
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="58" t="s">
         <v>723</v>
       </c>
       <c r="E12" s="49">
@@ -4655,11 +4810,12 @@
         <v>762</v>
       </c>
       <c r="J12" s="52">
-        <v>45089</v>
+        <v>45103</v>
       </c>
       <c r="K12" s="52"/>
       <c r="L12" s="52">
-        <v>45090</v>
+        <f t="shared" si="1"/>
+        <v>45106</v>
       </c>
       <c r="M12" s="52"/>
       <c r="N12" s="54" t="s">
@@ -4668,12 +4824,12 @@
       <c r="O12" s="54"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="72">
+      <c r="A13" s="68">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73" t="s">
+      <c r="B13" s="70"/>
+      <c r="C13" s="70" t="s">
         <v>724</v>
       </c>
       <c r="D13" s="48" t="s">
@@ -4691,11 +4847,12 @@
         <v>762</v>
       </c>
       <c r="J13" s="52">
-        <v>45089</v>
+        <v>45103</v>
       </c>
       <c r="K13" s="52"/>
       <c r="L13" s="52">
-        <v>45090</v>
+        <f t="shared" si="1"/>
+        <v>45106</v>
       </c>
       <c r="M13" s="52"/>
       <c r="N13" s="54" t="s">
@@ -4704,12 +4861,12 @@
       <c r="O13" s="54"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="72">
+      <c r="A14" s="68">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="48" t="s">
         <v>726</v>
       </c>
@@ -4725,11 +4882,12 @@
         <v>762</v>
       </c>
       <c r="J14" s="52">
-        <v>45089</v>
+        <v>45103</v>
       </c>
       <c r="K14" s="52"/>
       <c r="L14" s="52">
-        <v>45090</v>
+        <f t="shared" si="1"/>
+        <v>45106</v>
       </c>
       <c r="M14" s="52"/>
       <c r="N14" s="54" t="s">
@@ -4738,184 +4896,200 @@
       <c r="O14" s="54"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="72">
+      <c r="A15" s="68">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="70" t="s">
         <v>727</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="56" t="s">
         <v>716</v>
       </c>
       <c r="D15" s="48"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
+      <c r="E15" s="71">
+        <v>100</v>
+      </c>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
       <c r="I15" s="51" t="s">
         <v>762</v>
       </c>
       <c r="J15" s="52">
         <v>45079</v>
       </c>
-      <c r="K15" s="52"/>
+      <c r="K15" s="52">
+        <v>45092</v>
+      </c>
       <c r="L15" s="52">
         <v>45079</v>
       </c>
-      <c r="M15" s="52"/>
+      <c r="M15" s="52">
+        <v>45094</v>
+      </c>
       <c r="N15" s="54"/>
       <c r="O15" s="54"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A16" s="72">
+      <c r="A16" s="68">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="57" t="s">
+      <c r="B16" s="70"/>
+      <c r="C16" s="56" t="s">
         <v>729</v>
       </c>
       <c r="D16" s="48"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="E16" s="71">
+        <v>80</v>
+      </c>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
       <c r="I16" s="51" t="s">
         <v>762</v>
       </c>
       <c r="J16" s="52">
         <v>45082</v>
       </c>
-      <c r="K16" s="52"/>
+      <c r="K16" s="52">
+        <v>45092</v>
+      </c>
       <c r="L16" s="52">
-        <v>45082</v>
+        <v>45106</v>
       </c>
       <c r="M16" s="52"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="60"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="59"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="72">
+      <c r="A17" s="68">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="57" t="s">
+      <c r="B17" s="70"/>
+      <c r="C17" s="56" t="s">
         <v>730</v>
       </c>
       <c r="D17" s="48"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
       <c r="I17" s="51" t="s">
         <v>762</v>
       </c>
       <c r="J17" s="52">
-        <v>45082</v>
+        <v>45103</v>
       </c>
       <c r="K17" s="52"/>
       <c r="L17" s="52">
-        <v>45082</v>
+        <v>45103</v>
       </c>
       <c r="M17" s="52"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="60"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="59"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="72">
+      <c r="A18" s="68">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="57" t="s">
+      <c r="B18" s="70"/>
+      <c r="C18" s="56" t="s">
         <v>731</v>
       </c>
       <c r="D18" s="48"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="E18" s="71">
+        <v>100</v>
+      </c>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
       <c r="I18" s="51" t="s">
         <v>762</v>
       </c>
       <c r="J18" s="52">
         <v>45083</v>
       </c>
-      <c r="K18" s="52"/>
+      <c r="K18" s="52">
+        <v>45097</v>
+      </c>
       <c r="L18" s="52">
         <v>45083</v>
       </c>
-      <c r="M18" s="52"/>
+      <c r="M18" s="52">
+        <v>45097</v>
+      </c>
       <c r="N18" s="54"/>
       <c r="O18" s="54"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="72">
+      <c r="A19" s="68">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="57" t="s">
+      <c r="B19" s="70"/>
+      <c r="C19" s="56" t="s">
         <v>750</v>
       </c>
       <c r="D19" s="48"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
       <c r="I19" s="51" t="s">
         <v>762</v>
       </c>
       <c r="J19" s="52">
-        <v>45083</v>
+        <v>45104</v>
       </c>
       <c r="K19" s="52"/>
       <c r="L19" s="52">
-        <v>45083</v>
+        <v>45105</v>
       </c>
       <c r="M19" s="52"/>
       <c r="N19" s="54"/>
       <c r="O19" s="54"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A20" s="72">
+      <c r="A20" s="68">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="56" t="s">
         <v>728</v>
       </c>
-      <c r="C20" s="57"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="48"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
       <c r="I20" s="51" t="s">
         <v>762</v>
       </c>
       <c r="J20" s="52">
-        <v>45089</v>
+        <v>45104</v>
       </c>
       <c r="K20" s="52"/>
       <c r="L20" s="52">
-        <v>45093</v>
+        <v>45105</v>
       </c>
       <c r="M20" s="52"/>
       <c r="N20" s="54"/>
       <c r="O20" s="54"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="72">
+      <c r="A21" s="68">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="57"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="48"/>
       <c r="E21" s="49"/>
       <c r="F21" s="49"/>
@@ -4925,7 +5099,7 @@
         <v>762</v>
       </c>
       <c r="J21" s="52">
-        <v>45089</v>
+        <v>45103</v>
       </c>
       <c r="K21" s="52"/>
       <c r="L21" s="52">
@@ -4936,142 +5110,142 @@
       <c r="O21" s="54"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="72">
+      <c r="A22" s="68">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="89" t="s">
         <v>732</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="90" t="s">
         <v>734</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49">
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92">
         <v>80</v>
       </c>
-      <c r="H22" s="49"/>
-      <c r="I22" s="51" t="s">
+      <c r="H22" s="92"/>
+      <c r="I22" s="93" t="s">
         <v>762</v>
       </c>
-      <c r="J22" s="52">
+      <c r="J22" s="94">
         <v>45092</v>
       </c>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52">
+      <c r="K22" s="94"/>
+      <c r="L22" s="94">
         <v>45092</v>
       </c>
-      <c r="M22" s="52"/>
-      <c r="N22" s="54" t="s">
+      <c r="M22" s="94"/>
+      <c r="N22" s="91" t="s">
         <v>783</v>
       </c>
       <c r="O22" s="54"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="72">
+      <c r="A23" s="68">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="57" t="s">
+      <c r="B23" s="89"/>
+      <c r="C23" s="90" t="s">
         <v>735</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49">
+      <c r="D23" s="91"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92">
         <v>80</v>
       </c>
-      <c r="H23" s="49"/>
-      <c r="I23" s="51" t="s">
+      <c r="H23" s="92"/>
+      <c r="I23" s="93" t="s">
         <v>762</v>
       </c>
-      <c r="J23" s="52">
+      <c r="J23" s="94">
         <v>45092</v>
       </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="52">
+      <c r="K23" s="95"/>
+      <c r="L23" s="94">
         <v>45092</v>
       </c>
-      <c r="M23" s="53"/>
-      <c r="N23" s="54" t="s">
+      <c r="M23" s="95"/>
+      <c r="N23" s="91" t="s">
         <v>783</v>
       </c>
       <c r="O23" s="54"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A24" s="72">
+      <c r="A24" s="68">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="57" t="s">
+      <c r="B24" s="89"/>
+      <c r="C24" s="90" t="s">
         <v>736</v>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49">
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92">
         <v>60</v>
       </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="51" t="s">
+      <c r="H24" s="92"/>
+      <c r="I24" s="93" t="s">
         <v>762</v>
       </c>
-      <c r="J24" s="52">
+      <c r="J24" s="94">
         <v>45092</v>
       </c>
-      <c r="K24" s="53"/>
-      <c r="L24" s="52">
+      <c r="K24" s="95"/>
+      <c r="L24" s="94">
         <v>45092</v>
       </c>
-      <c r="M24" s="53"/>
-      <c r="N24" s="54" t="s">
+      <c r="M24" s="95"/>
+      <c r="N24" s="91" t="s">
         <v>783</v>
       </c>
       <c r="O24" s="54"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="72">
+      <c r="A25" s="68">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="75"/>
-      <c r="C25" s="57" t="s">
+      <c r="B25" s="89"/>
+      <c r="C25" s="90" t="s">
         <v>733</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="51" t="s">
+      <c r="D25" s="91"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93" t="s">
         <v>762</v>
       </c>
-      <c r="J25" s="52">
+      <c r="J25" s="94">
         <v>45092</v>
       </c>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52">
+      <c r="K25" s="94"/>
+      <c r="L25" s="94">
         <v>45092</v>
       </c>
-      <c r="M25" s="52"/>
-      <c r="N25" s="54" t="s">
+      <c r="M25" s="94"/>
+      <c r="N25" s="91" t="s">
         <v>783</v>
       </c>
       <c r="O25" s="54"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="72">
+      <c r="A26" s="68">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="70" t="s">
         <v>737</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="72" t="s">
         <v>738</v>
       </c>
       <c r="D26" s="48" t="s">
@@ -5098,12 +5272,12 @@
       <c r="O26" s="54"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="72">
+      <c r="A27" s="68">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="74"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="48" t="s">
         <v>744</v>
       </c>
@@ -5130,16 +5304,16 @@
       <c r="M27" s="52">
         <v>45079</v>
       </c>
-      <c r="N27" s="56"/>
+      <c r="N27" s="55"/>
       <c r="O27" s="54"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="72">
+      <c r="A28" s="68">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="74" t="s">
+      <c r="B28" s="70"/>
+      <c r="C28" s="72" t="s">
         <v>739</v>
       </c>
       <c r="D28" s="48" t="s">
@@ -5166,12 +5340,12 @@
       <c r="O28" s="54"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="72">
+      <c r="A29" s="68">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="74"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="48" t="s">
         <v>744</v>
       </c>
@@ -5204,12 +5378,12 @@
       <c r="O29" s="54"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="72">
+      <c r="A30" s="68">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="73"/>
-      <c r="C30" s="74" t="s">
+      <c r="B30" s="70"/>
+      <c r="C30" s="72" t="s">
         <v>740</v>
       </c>
       <c r="D30" s="48" t="s">
@@ -5236,12 +5410,12 @@
       <c r="O30" s="54"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="72">
+      <c r="A31" s="68">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="73"/>
-      <c r="C31" s="74"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="48" t="s">
         <v>744</v>
       </c>
@@ -5274,12 +5448,12 @@
       <c r="O31" s="54"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A32" s="72">
+      <c r="A32" s="68">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="73"/>
-      <c r="C32" s="74" t="s">
+      <c r="B32" s="70"/>
+      <c r="C32" s="72" t="s">
         <v>741</v>
       </c>
       <c r="D32" s="48" t="s">
@@ -5306,23 +5480,23 @@
       <c r="O32" s="54"/>
     </row>
     <row r="33" spans="1:15" ht="24" x14ac:dyDescent="0.4">
-      <c r="A33" s="72">
+      <c r="A33" s="68">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="73"/>
-      <c r="C33" s="74"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="48" t="s">
         <v>744</v>
       </c>
       <c r="E33" s="49"/>
       <c r="F33" s="49"/>
       <c r="G33" s="49">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H33" s="49"/>
-      <c r="I33" s="61" t="s">
-        <v>763</v>
+      <c r="I33" s="51" t="s">
+        <v>762</v>
       </c>
       <c r="J33" s="52">
         <v>45077</v>
@@ -5333,19 +5507,21 @@
       <c r="L33" s="52">
         <v>45077</v>
       </c>
-      <c r="M33" s="52"/>
-      <c r="N33" s="56" t="s">
+      <c r="M33" s="52">
+        <v>45092</v>
+      </c>
+      <c r="N33" s="55" t="s">
         <v>791</v>
       </c>
       <c r="O33" s="54"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A34" s="72">
+      <c r="A34" s="68">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73" t="s">
+      <c r="B34" s="70"/>
+      <c r="C34" s="70" t="s">
         <v>742</v>
       </c>
       <c r="D34" s="48" t="s">
@@ -5368,12 +5544,12 @@
       <c r="O34" s="54"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A35" s="72">
+      <c r="A35" s="68">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="48" t="s">
         <v>744</v>
       </c>
@@ -5394,11 +5570,11 @@
       <c r="O35" s="54"/>
     </row>
     <row r="36" spans="1:15" ht="60" x14ac:dyDescent="0.4">
-      <c r="A36" s="72">
+      <c r="A36" s="68">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="73"/>
+      <c r="B36" s="70"/>
       <c r="C36" s="48" t="s">
         <v>787</v>
       </c>
@@ -5406,11 +5582,11 @@
       <c r="E36" s="49"/>
       <c r="F36" s="49"/>
       <c r="G36" s="49">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H36" s="49"/>
-      <c r="I36" s="61" t="s">
-        <v>763</v>
+      <c r="I36" s="51" t="s">
+        <v>762</v>
       </c>
       <c r="J36" s="52">
         <v>45078</v>
@@ -5421,21 +5597,23 @@
       <c r="L36" s="52">
         <v>45078</v>
       </c>
-      <c r="M36" s="52"/>
-      <c r="N36" s="56" t="s">
+      <c r="M36" s="52">
+        <v>45092</v>
+      </c>
+      <c r="N36" s="55" t="s">
         <v>790</v>
       </c>
       <c r="O36" s="54"/>
     </row>
     <row r="37" spans="1:15" ht="24" x14ac:dyDescent="0.4">
-      <c r="A37" s="72">
+      <c r="A37" s="68">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="73" t="s">
+      <c r="B37" s="70" t="s">
         <v>745</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="56" t="s">
         <v>749</v>
       </c>
       <c r="D37" s="48"/>
@@ -5454,18 +5632,18 @@
       <c r="K37" s="53"/>
       <c r="L37" s="52"/>
       <c r="M37" s="53"/>
-      <c r="N37" s="56" t="s">
+      <c r="N37" s="55" t="s">
         <v>789</v>
       </c>
       <c r="O37" s="54"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A38" s="72">
+      <c r="A38" s="68">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="73"/>
-      <c r="C38" s="57" t="s">
+      <c r="B38" s="70"/>
+      <c r="C38" s="56" t="s">
         <v>746</v>
       </c>
       <c r="D38" s="48"/>
@@ -5486,12 +5664,12 @@
       <c r="O38" s="54"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A39" s="72">
+      <c r="A39" s="68">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="73"/>
-      <c r="C39" s="57" t="s">
+      <c r="B39" s="70"/>
+      <c r="C39" s="56" t="s">
         <v>747</v>
       </c>
       <c r="D39" s="48"/>
@@ -5512,12 +5690,12 @@
       <c r="O39" s="54"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A40" s="72">
+      <c r="A40" s="68">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="73"/>
-      <c r="C40" s="57" t="s">
+      <c r="B40" s="70"/>
+      <c r="C40" s="56" t="s">
         <v>748</v>
       </c>
       <c r="D40" s="48"/>
@@ -5540,23 +5718,25 @@
         <v>45075</v>
       </c>
       <c r="M40" s="53"/>
-      <c r="N40" s="56" t="s">
+      <c r="N40" s="55" t="s">
         <v>775</v>
       </c>
       <c r="O40" s="54"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A41" s="72">
+      <c r="A41" s="68">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="70" t="s">
         <v>751</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="56" t="s">
         <v>752</v>
       </c>
-      <c r="D41" s="48"/>
+      <c r="D41" s="48" t="s">
+        <v>805</v>
+      </c>
       <c r="E41" s="49">
         <v>100</v>
       </c>
@@ -5576,21 +5756,21 @@
         <v>45082</v>
       </c>
       <c r="M41" s="53"/>
-      <c r="N41" s="56" t="s">
+      <c r="N41" s="55" t="s">
         <v>774</v>
       </c>
       <c r="O41" s="54"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A42" s="72">
+      <c r="A42" s="68">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="73"/>
-      <c r="C42" s="57" t="s">
+      <c r="B42" s="70"/>
+      <c r="C42" s="56" t="s">
         <v>753</v>
       </c>
-      <c r="D42" s="59"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="49">
         <v>100</v>
       </c>
@@ -5610,15 +5790,15 @@
       <c r="O42" s="54"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A43" s="72">
+      <c r="A43" s="68">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="73"/>
-      <c r="C43" s="57" t="s">
+      <c r="B43" s="70"/>
+      <c r="C43" s="56" t="s">
         <v>754</v>
       </c>
-      <c r="D43" s="59"/>
+      <c r="D43" s="58"/>
       <c r="E43" s="49">
         <v>100</v>
       </c>
@@ -5640,15 +5820,17 @@
       <c r="O43" s="54"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A44" s="72">
+      <c r="A44" s="68">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="73"/>
-      <c r="C44" s="57" t="s">
+      <c r="B44" s="70"/>
+      <c r="C44" s="56" t="s">
         <v>755</v>
       </c>
-      <c r="D44" s="48"/>
+      <c r="D44" s="48" t="s">
+        <v>805</v>
+      </c>
       <c r="E44" s="49">
         <v>100</v>
       </c>
@@ -5668,18 +5850,18 @@
         <v>45082</v>
       </c>
       <c r="M44" s="52"/>
-      <c r="N44" s="56" t="s">
+      <c r="N44" s="55" t="s">
         <v>773</v>
       </c>
       <c r="O44" s="54"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A45" s="72">
+      <c r="A45" s="68">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="73"/>
-      <c r="C45" s="57" t="s">
+      <c r="B45" s="70"/>
+      <c r="C45" s="56" t="s">
         <v>756</v>
       </c>
       <c r="D45" s="48"/>
@@ -5702,12 +5884,12 @@
       <c r="O45" s="54"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A46" s="72">
+      <c r="A46" s="68">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="73"/>
-      <c r="C46" s="57" t="s">
+      <c r="B46" s="70"/>
+      <c r="C46" s="56" t="s">
         <v>757</v>
       </c>
       <c r="D46" s="48"/>
@@ -5730,12 +5912,12 @@
       <c r="O46" s="54"/>
     </row>
     <row r="47" spans="1:15" ht="24" x14ac:dyDescent="0.4">
-      <c r="A47" s="72">
+      <c r="A47" s="68">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="73"/>
-      <c r="C47" s="57" t="s">
+      <c r="B47" s="70"/>
+      <c r="C47" s="56" t="s">
         <v>758</v>
       </c>
       <c r="D47" s="48"/>
@@ -5754,23 +5936,25 @@
       <c r="K47" s="52"/>
       <c r="L47" s="52"/>
       <c r="M47" s="52"/>
-      <c r="N47" s="56" t="s">
+      <c r="N47" s="55" t="s">
         <v>766</v>
       </c>
       <c r="O47" s="54"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A48" s="72">
+    <row r="48" spans="1:15" ht="48" x14ac:dyDescent="0.4">
+      <c r="A48" s="68">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="56" t="s">
         <v>759</v>
       </c>
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="56" t="s">
         <v>760</v>
       </c>
-      <c r="D48" s="48"/>
+      <c r="D48" s="58" t="s">
+        <v>804</v>
+      </c>
       <c r="E48" s="50"/>
       <c r="F48" s="50"/>
       <c r="G48" s="49">
@@ -5785,26 +5969,28 @@
       </c>
       <c r="K48" s="52"/>
       <c r="L48" s="52">
-        <v>45083</v>
+        <v>45105</v>
       </c>
       <c r="M48" s="53"/>
-      <c r="N48" s="56" t="s">
+      <c r="N48" s="55" t="s">
         <v>761</v>
       </c>
       <c r="O48" s="54"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A49" s="72">
+    <row r="49" spans="1:15" ht="24" x14ac:dyDescent="0.4">
+      <c r="A49" s="68">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="75" t="s">
+      <c r="B49" s="69" t="s">
         <v>779</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="56" t="s">
         <v>776</v>
       </c>
-      <c r="D49" s="48"/>
+      <c r="D49" s="58" t="s">
+        <v>803</v>
+      </c>
       <c r="E49" s="49"/>
       <c r="F49" s="49"/>
       <c r="G49" s="49"/>
@@ -5813,31 +5999,29 @@
         <v>762</v>
       </c>
       <c r="J49" s="52">
-        <v>45076</v>
+        <v>45100</v>
       </c>
       <c r="K49" s="52"/>
       <c r="L49" s="52">
-        <v>45086</v>
+        <v>45103</v>
       </c>
       <c r="M49" s="53"/>
       <c r="N49" s="54"/>
       <c r="O49" s="54"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A50" s="72">
+    <row r="50" spans="1:15" ht="24" x14ac:dyDescent="0.4">
+      <c r="A50" s="68">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="75"/>
+      <c r="B50" s="69"/>
       <c r="C50" s="57" t="s">
         <v>780</v>
       </c>
       <c r="D50" s="48"/>
       <c r="E50" s="49"/>
       <c r="F50" s="49"/>
-      <c r="G50" s="49">
-        <v>20</v>
-      </c>
+      <c r="G50" s="49"/>
       <c r="H50" s="49"/>
       <c r="I50" s="51" t="s">
         <v>762</v>
@@ -5850,18 +6034,18 @@
         <v>45086</v>
       </c>
       <c r="M50" s="53"/>
-      <c r="N50" s="56"/>
+      <c r="N50" s="55"/>
       <c r="O50" s="54"/>
     </row>
     <row r="51" spans="1:15" ht="24" x14ac:dyDescent="0.4">
-      <c r="A51" s="72">
+      <c r="A51" s="68">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="57" t="s">
         <v>778</v>
       </c>
-      <c r="C51" s="57"/>
+      <c r="C51" s="56"/>
       <c r="D51" s="48"/>
       <c r="E51" s="49"/>
       <c r="F51" s="49"/>
@@ -5869,8 +6053,8 @@
         <v>100</v>
       </c>
       <c r="H51" s="49"/>
-      <c r="I51" s="61" t="s">
-        <v>763</v>
+      <c r="I51" s="51" t="s">
+        <v>764</v>
       </c>
       <c r="J51" s="52">
         <v>45077</v>
@@ -5884,178 +6068,262 @@
       <c r="M51" s="52">
         <v>45077</v>
       </c>
-      <c r="N51" s="56" t="s">
+      <c r="N51" s="55" t="s">
         <v>777</v>
       </c>
       <c r="O51" s="54"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A52" s="72">
+      <c r="A52" s="68">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
+      <c r="B52" s="56" t="s">
+        <v>792</v>
+      </c>
+      <c r="C52" s="56"/>
       <c r="D52" s="48"/>
       <c r="E52" s="49"/>
       <c r="F52" s="49"/>
       <c r="G52" s="49"/>
       <c r="H52" s="49"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="52"/>
+      <c r="I52" s="100" t="s">
+        <v>763</v>
+      </c>
+      <c r="J52" s="52">
+        <v>45098</v>
+      </c>
       <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
+      <c r="L52" s="52">
+        <v>45099</v>
+      </c>
       <c r="M52" s="53"/>
       <c r="N52" s="54"/>
       <c r="O52" s="54"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B53" s="66"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="68"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="69"/>
-      <c r="L53" s="69"/>
-      <c r="M53" s="70"/>
-      <c r="N53" s="71"/>
-      <c r="O53" s="71"/>
+      <c r="B53" s="96" t="s">
+        <v>793</v>
+      </c>
+      <c r="C53" s="64" t="s">
+        <v>795</v>
+      </c>
+      <c r="D53" s="60"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="51" t="s">
+        <v>762</v>
+      </c>
+      <c r="J53" s="52">
+        <v>45097</v>
+      </c>
+      <c r="K53" s="53"/>
+      <c r="L53" s="52">
+        <v>45106</v>
+      </c>
+      <c r="M53" s="66"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="67"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="54"/>
+      <c r="B54" s="97"/>
+      <c r="C54" s="64" t="s">
+        <v>796</v>
+      </c>
+      <c r="D54" s="60"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="51" t="s">
+        <v>762</v>
+      </c>
+      <c r="J54" s="52">
+        <v>45097</v>
+      </c>
+      <c r="K54" s="53"/>
+      <c r="L54" s="52">
+        <v>45106</v>
+      </c>
+      <c r="M54" s="66"/>
+      <c r="N54" s="67"/>
+      <c r="O54" s="67"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
+      <c r="B55" s="97"/>
+      <c r="C55" s="64" t="s">
+        <v>797</v>
+      </c>
+      <c r="D55" s="60"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="51" t="s">
+        <v>762</v>
+      </c>
+      <c r="J55" s="52">
+        <v>45097</v>
+      </c>
+      <c r="K55" s="53"/>
+      <c r="L55" s="52">
+        <v>45106</v>
+      </c>
+      <c r="M55" s="66"/>
+      <c r="N55" s="67"/>
+      <c r="O55" s="67"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="54"/>
-      <c r="O56" s="54"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="64" t="s">
+        <v>798</v>
+      </c>
+      <c r="D56" s="60"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="51" t="s">
+        <v>762</v>
+      </c>
+      <c r="J56" s="52">
+        <v>45097</v>
+      </c>
+      <c r="K56" s="53"/>
+      <c r="L56" s="52">
+        <v>45106</v>
+      </c>
+      <c r="M56" s="66"/>
+      <c r="N56" s="67"/>
+      <c r="O56" s="67"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="52"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="54"/>
+      <c r="B57" s="97"/>
+      <c r="C57" s="64" t="s">
+        <v>799</v>
+      </c>
+      <c r="D57" s="60"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="51" t="s">
+        <v>762</v>
+      </c>
+      <c r="J57" s="52">
+        <v>45097</v>
+      </c>
+      <c r="K57" s="53"/>
+      <c r="L57" s="52">
+        <v>45106</v>
+      </c>
+      <c r="M57" s="66"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="67"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="54"/>
+      <c r="B58" s="97"/>
+      <c r="C58" s="64" t="s">
+        <v>800</v>
+      </c>
+      <c r="D58" s="60"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="51" t="s">
+        <v>762</v>
+      </c>
+      <c r="J58" s="52">
+        <v>45097</v>
+      </c>
+      <c r="K58" s="53"/>
+      <c r="L58" s="52">
+        <v>45106</v>
+      </c>
+      <c r="M58" s="66"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="67"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B59" s="57"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="64" t="s">
+        <v>801</v>
+      </c>
+      <c r="D59" s="60"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="51" t="s">
+        <v>762</v>
+      </c>
+      <c r="J59" s="52">
+        <v>45097</v>
+      </c>
+      <c r="K59" s="53"/>
+      <c r="L59" s="52">
+        <v>45106</v>
+      </c>
+      <c r="M59" s="66"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="67"/>
+    </row>
+    <row r="60" spans="1:15" ht="24" x14ac:dyDescent="0.4">
+      <c r="B60" s="56" t="s">
+        <v>794</v>
+      </c>
+      <c r="C60" s="56"/>
       <c r="D60" s="48"/>
       <c r="E60" s="49"/>
       <c r="F60" s="49"/>
       <c r="G60" s="49"/>
       <c r="H60" s="49"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="52"/>
+      <c r="I60" s="100" t="s">
+        <v>763</v>
+      </c>
+      <c r="J60" s="52">
+        <v>45100</v>
+      </c>
+      <c r="K60" s="53"/>
+      <c r="L60" s="52">
+        <v>45100</v>
+      </c>
       <c r="M60" s="53"/>
-      <c r="N60" s="54"/>
+      <c r="N60" s="55" t="s">
+        <v>806</v>
+      </c>
       <c r="O60" s="54"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B61" s="57"/>
-      <c r="C61" s="57"/>
+      <c r="B61" s="56" t="s">
+        <v>802</v>
+      </c>
+      <c r="C61" s="56"/>
       <c r="D61" s="48"/>
       <c r="E61" s="49"/>
       <c r="F61" s="49"/>
       <c r="G61" s="49"/>
       <c r="H61" s="49"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="52"/>
+      <c r="I61" s="100" t="s">
+        <v>763</v>
+      </c>
+      <c r="J61" s="52">
+        <v>45100</v>
+      </c>
+      <c r="K61" s="53"/>
+      <c r="L61" s="52">
+        <v>45100</v>
+      </c>
       <c r="M61" s="53"/>
       <c r="N61" s="54"/>
       <c r="O61" s="54"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
       <c r="D62" s="48"/>
       <c r="E62" s="49"/>
       <c r="F62" s="49"/>
@@ -6070,9 +6338,9 @@
       <c r="O62" s="54"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B63" s="57"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="48"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="58"/>
       <c r="E63" s="49"/>
       <c r="F63" s="49"/>
       <c r="G63" s="49"/>
@@ -6085,9 +6353,116 @@
       <c r="N63" s="54"/>
       <c r="O63" s="54"/>
     </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B64" s="56"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="54"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B65" s="56"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="53"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="54"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B66" s="56"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="53"/>
+      <c r="N66" s="54"/>
+      <c r="O66" s="54"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="53"/>
+      <c r="N67" s="54"/>
+      <c r="O67" s="54"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="53"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="54"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="53"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="54"/>
+    </row>
   </sheetData>
   <autoFilter ref="B1:O51" xr:uid="{8E7929DC-B531-419A-8BB3-4B492C6A9455}"/>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B26:B36"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B15:B19"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B41:B47"/>
     <mergeCell ref="E15:H15"/>
@@ -6100,45 +6475,46 @@
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B26:B36"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B2:B14"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B15:B19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="J2:J63">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$J2=TODAY()</formula>
+  <conditionalFormatting sqref="J2:J69">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$J2=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$J2&lt;TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$J2=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L63">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$J2=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$J2&lt;TODAY()</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>$J2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L15 L18:L69">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$J2=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>$J2&lt;TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>$J2=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16:L17">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>$J16=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>$J16&lt;TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>$J16=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:H14 E2:E63 F21:H63" xr:uid="{AE3AF69A-B4F7-4B81-A2BD-52A1686AE65E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:H14 F21:H69 E2:E69" xr:uid="{AE3AF69A-B4F7-4B81-A2BD-52A1686AE65E}">
       <formula1>"20, 40, 60, 80, 100"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I63" xr:uid="{A42C63AA-A747-4737-B92C-155730460CEA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I69" xr:uid="{A42C63AA-A747-4737-B92C-155730460CEA}">
       <formula1>"Low, Medium, High"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6216,7 +6592,7 @@
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="79" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -6240,7 +6616,7 @@
       <c r="O3" s="14"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B4" s="81"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -6266,7 +6642,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B5" s="81"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -6292,7 +6668,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B6" s="81"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -6318,7 +6694,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B7" s="81"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
@@ -6340,7 +6716,7 @@
       <c r="O7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="93" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="82"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
@@ -6372,7 +6748,7 @@
       <c r="O8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -6406,7 +6782,7 @@
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="81"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="1" t="s">
         <v>62</v>
       </c>
@@ -6438,7 +6814,7 @@
       <c r="O10" s="14"/>
     </row>
     <row r="11" spans="2:18" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="82" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -6472,7 +6848,7 @@
       <c r="O11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="92"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
@@ -6504,7 +6880,7 @@
       <c r="O12" s="14"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B13" s="92"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
@@ -6534,7 +6910,7 @@
       <c r="O13" s="14"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="79" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -6566,7 +6942,7 @@
       <c r="O14" s="14"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B15" s="81"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="1" t="s">
         <v>66</v>
       </c>
@@ -6596,7 +6972,7 @@
       <c r="O15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B16" s="81"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
@@ -6628,7 +7004,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B17" s="81"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -6660,8 +7036,8 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="81"/>
-      <c r="C18" s="83" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="73" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -6692,8 +7068,8 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="81"/>
-      <c r="C19" s="85"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="14" t="s">
         <v>47</v>
       </c>
@@ -6722,8 +7098,8 @@
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B20" s="81"/>
-      <c r="C20" s="85"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="14" t="s">
         <v>48</v>
       </c>
@@ -6752,8 +7128,8 @@
       <c r="O20" s="14"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="81"/>
-      <c r="C21" s="85"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="14" t="s">
         <v>49</v>
       </c>
@@ -6782,8 +7158,8 @@
       <c r="O21" s="14"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="81"/>
-      <c r="C22" s="85"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="22" t="s">
         <v>50</v>
       </c>
@@ -6812,8 +7188,8 @@
       <c r="O22" s="14"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="81"/>
-      <c r="C23" s="85"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="14" t="s">
         <v>51</v>
       </c>
@@ -6842,8 +7218,8 @@
       <c r="O23" s="14"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="81"/>
-      <c r="C24" s="85"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="14" t="s">
         <v>52</v>
       </c>
@@ -6872,8 +7248,8 @@
       <c r="O24" s="14"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B25" s="81"/>
-      <c r="C25" s="84"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="14" t="s">
         <v>53</v>
       </c>
@@ -6902,7 +7278,7 @@
       <c r="O25" s="14"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="79" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -6928,7 +7304,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B27" s="81"/>
+      <c r="B27" s="80"/>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
@@ -6952,7 +7328,7 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="79" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -6982,7 +7358,7 @@
       <c r="O28" s="14"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B29" s="81"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
@@ -7010,8 +7386,8 @@
       <c r="O29" s="14"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B30" s="81"/>
-      <c r="C30" s="83" t="s">
+      <c r="B30" s="80"/>
+      <c r="C30" s="73" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -7040,8 +7416,8 @@
       <c r="O30" s="14"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B31" s="81"/>
-      <c r="C31" s="85"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="14"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -7056,8 +7432,8 @@
       <c r="O31" s="14"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B32" s="82"/>
-      <c r="C32" s="84"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="14"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -7072,7 +7448,7 @@
       <c r="O32" s="14"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="79" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -7098,7 +7474,7 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B34" s="81"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="14" t="s">
         <v>39</v>
       </c>
@@ -7122,7 +7498,7 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B35" s="81"/>
+      <c r="B35" s="80"/>
       <c r="C35" s="14" t="s">
         <v>40</v>
       </c>
@@ -7146,8 +7522,8 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B36" s="81"/>
-      <c r="C36" s="88" t="s">
+      <c r="B36" s="80"/>
+      <c r="C36" s="76" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="14"/>
@@ -7170,8 +7546,8 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B37" s="81"/>
-      <c r="C37" s="89"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="77"/>
       <c r="D37" s="14"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
@@ -7192,8 +7568,8 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B38" s="82"/>
-      <c r="C38" s="90"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="78"/>
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
@@ -7282,10 +7658,10 @@
       <c r="O41" s="10"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="77" t="s">
+      <c r="C42" s="84" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -7316,8 +7692,8 @@
       <c r="O42" s="14"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B43" s="81"/>
-      <c r="C43" s="79"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="86"/>
       <c r="D43" s="14" t="s">
         <v>31</v>
       </c>
@@ -7346,8 +7722,8 @@
       <c r="O43" s="14"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B44" s="81"/>
-      <c r="C44" s="83"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="14" t="s">
         <v>34</v>
       </c>
@@ -7376,8 +7752,8 @@
       <c r="O44" s="14"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B45" s="82"/>
-      <c r="C45" s="84"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="75"/>
       <c r="D45" s="14" t="s">
         <v>31</v>
       </c>
@@ -7406,7 +7782,7 @@
       <c r="O45" s="14"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="79" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -7428,7 +7804,7 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B47" s="81"/>
+      <c r="B47" s="80"/>
       <c r="C47" s="1" t="s">
         <v>76</v>
       </c>
@@ -7448,7 +7824,7 @@
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B48" s="81"/>
+      <c r="B48" s="80"/>
       <c r="C48" s="1" t="s">
         <v>77</v>
       </c>
@@ -7468,7 +7844,7 @@
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B49" s="81"/>
+      <c r="B49" s="80"/>
       <c r="C49" s="1" t="s">
         <v>78</v>
       </c>
@@ -7488,7 +7864,7 @@
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B50" s="82"/>
+      <c r="B50" s="81"/>
       <c r="C50" s="1" t="s">
         <v>79</v>
       </c>
@@ -7508,10 +7884,10 @@
       </c>
     </row>
     <row r="51" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="80" t="s">
+      <c r="B51" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="77" t="s">
+      <c r="C51" s="84" t="s">
         <v>84</v>
       </c>
       <c r="D51" s="14" t="s">
@@ -7532,8 +7908,8 @@
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B52" s="81"/>
-      <c r="C52" s="78"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="85"/>
       <c r="D52" s="14" t="s">
         <v>86</v>
       </c>
@@ -7552,8 +7928,8 @@
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B53" s="82"/>
-      <c r="C53" s="79"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="86"/>
       <c r="D53" s="14" t="s">
         <v>87</v>
       </c>
@@ -7637,7 +8013,7 @@
     </row>
     <row r="57" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="6"/>
-      <c r="C57" s="86" t="s">
+      <c r="C57" s="87" t="s">
         <v>93</v>
       </c>
       <c r="D57" s="14" t="s">
@@ -7659,7 +8035,7 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B58" s="6"/>
-      <c r="C58" s="87"/>
+      <c r="C58" s="88"/>
       <c r="D58" s="14" t="s">
         <v>95</v>
       </c>
@@ -8085,7 +8461,7 @@
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B80" s="6"/>
-      <c r="C80" s="83" t="s">
+      <c r="C80" s="73" t="s">
         <v>114</v>
       </c>
       <c r="D80" s="14" t="s">
@@ -8107,7 +8483,7 @@
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B81" s="6"/>
-      <c r="C81" s="85"/>
+      <c r="C81" s="74"/>
       <c r="D81" s="14" t="s">
         <v>95</v>
       </c>
@@ -8127,7 +8503,7 @@
     </row>
     <row r="82" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B82" s="6"/>
-      <c r="C82" s="84"/>
+      <c r="C82" s="75"/>
       <c r="D82" s="21" t="s">
         <v>115</v>
       </c>
@@ -8265,7 +8641,7 @@
     </row>
     <row r="89" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="6"/>
-      <c r="C89" s="77" t="s">
+      <c r="C89" s="84" t="s">
         <v>133</v>
       </c>
       <c r="D89" s="24" t="s">
@@ -8287,7 +8663,7 @@
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B90" s="6"/>
-      <c r="C90" s="78"/>
+      <c r="C90" s="85"/>
       <c r="D90" s="24" t="s">
         <v>136</v>
       </c>
@@ -8307,7 +8683,7 @@
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B91" s="6"/>
-      <c r="C91" s="78"/>
+      <c r="C91" s="85"/>
       <c r="D91" s="24" t="s">
         <v>135</v>
       </c>
@@ -8327,7 +8703,7 @@
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B92" s="6"/>
-      <c r="C92" s="79"/>
+      <c r="C92" s="86"/>
       <c r="D92" s="28" t="s">
         <v>137</v>
       </c>
@@ -8586,6 +8962,15 @@
   </sheetData>
   <autoFilter ref="I2:I47" xr:uid="{6EBC6241-952D-451D-ACB1-930264AC8260}"/>
   <mergeCells count="19">
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="C57:C58"/>
     <mergeCell ref="C18:C25"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="C36:C38"/>
@@ -8596,15 +8981,6 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="C57:C58"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.スケジュール/スケジュール.xlsx
+++ b/2.スケジュール/スケジュール.xlsx
@@ -8,20 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\GitHub\Rootstock_SC\2.スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433DCD4F-AEE6-42A4-ACEA-B38FDEAD0200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AB1B06-9532-4EF6-9566-04DB204B4A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC3888E-2072-4F01-B82D-11B88CE59715}"/>
   </bookViews>
   <sheets>
-    <sheet name="タスク一覧" sheetId="7" r:id="rId1"/>
-    <sheet name="自分メモ" sheetId="1" r:id="rId2"/>
-    <sheet name="GL Account" sheetId="3" r:id="rId3"/>
-    <sheet name="SubLedger Account" sheetId="4" r:id="rId4"/>
-    <sheet name="Template" sheetId="5" r:id="rId5"/>
+    <sheet name="タスク一覧(SC Sandbox)" sheetId="7" r:id="rId1"/>
+    <sheet name="タスク一覧 (SC Prod)" sheetId="8" r:id="rId2"/>
+    <sheet name="タスク一覧 (ITPL New Company)" sheetId="9" r:id="rId3"/>
+    <sheet name="自分メモ" sheetId="1" r:id="rId4"/>
+    <sheet name="GL Account" sheetId="3" r:id="rId5"/>
+    <sheet name="SubLedger Account" sheetId="4" r:id="rId6"/>
+    <sheet name="Template" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">タスク一覧!$B$1:$O$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">自分メモ!$I$2:$I$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'タスク一覧 (ITPL New Company)'!$B$1:$M$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'タスク一覧 (SC Prod)'!$B$1:$L$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'タスク一覧(SC Sandbox)'!$B$1:$L$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">自分メモ!$I$2:$I$47</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="853">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -2789,13 +2793,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>EndUserにアプリの運用マニュアル</t>
-    <rPh sb="14" eb="16">
-      <t>ウンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>帳票作成</t>
     <rPh sb="0" eb="2">
       <t>チョウヒョウ</t>
@@ -2820,22 +2817,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>EndUserごとにAppLauncherをLightingで作成</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>Alliance</t>
-  </si>
-  <si>
-    <t>Corporate</t>
-  </si>
-  <si>
-    <t>Technical</t>
-  </si>
-  <si>
     <t>帳票を作成</t>
     <rPh sb="0" eb="2">
       <t>チョウヒョウ</t>
@@ -2951,10 +2932,6 @@
     <rPh sb="14" eb="15">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データImport</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3167,36 +3144,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>不要</t>
-    <rPh sb="0" eb="2">
-      <t>フヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>補助勘定のタイプ(SpaceCoolSandbox)</t>
-    <rPh sb="0" eb="2">
-      <t>ホジョ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンジョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SC Prodの環境の設定の予定</t>
-    <rPh sb="8" eb="10">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">Delete LocationID  1～４ </t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3220,16 +3167,312 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>VAT Classを調べる</t>
+    <rPh sb="10" eb="11">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AppLauncher（7つ）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SendMail</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>受注</t>
+  </si>
+  <si>
+    <t>出荷</t>
+  </si>
+  <si>
+    <t>生産計画・製造</t>
+  </si>
+  <si>
+    <t>調達</t>
+  </si>
+  <si>
+    <t>在庫・棚卸</t>
+  </si>
+  <si>
+    <t>マスタ</t>
+  </si>
+  <si>
+    <t>請求書</t>
+  </si>
+  <si>
+    <t>PO RecieptのUpload機能</t>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データImportの使う方</t>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・データをマッチングする方法</t>
+    <rPh sb="12" eb="14">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・データImport ツールを設定する
+・データを作成する方法</t>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SO出荷依頼書
+</t>
+    <rPh sb="2" eb="4">
+      <t>シュッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">JPN
+</t>
+    </r>
     <r>
       <rPr>
-        <strike/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Meiryo UI"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>SCの環境に空欄をまだ追加していない</t>
+      <t>・内部コメントでロット情報を取得して備考欄に表示します
+・又はロット情報項目を明細画面に追加して備考欄に表示します</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・Free用のヘッダとマッチングするためRSの請求ヘッダオブジェクトに項目を追加します。
+・レポートを作成します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・請求のExportデータを作成</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Routing</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SO注文書</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SO出荷依頼書</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AppLauncher</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・簡単なテンプレートなどを作成</t>
+    <rPh sb="1" eb="3">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・環境を設定
+・MailのBodyを作成</t>
+    <rPh sb="1" eb="3">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テンプレートを作成してキャプチャを撮って、帳票の作成方法を作成していますがデータをマッチングする方法を残っています。</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アプリケーションランチャーのマニュアル.xlsxファイルを作成しました。このファイルに基づいてAppで作成できます</t>
+    <rPh sb="29" eb="31">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RSシステム設定Step一覧ファイルを作成しました、ファイルに基づいて環境を設定できます。</t>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>QA No85と森下さんのメールを確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザープロファイルを作成</t>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アライアンス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コーポレート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テクニカル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>倉庫</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PO Reciept時にUpload機能を使方を確認</t>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シカタ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・VATを登録時に必須な設定を理解
+・VATを設定した後で請求まで流れを確認</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>AppLancher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>/Home</t>
     </r>
     <r>
       <rPr>
@@ -3239,142 +3482,448 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">
-2023/5/26: 100%</t>
+      <t>に注文リストを見えます</t>
     </r>
-    <rPh sb="3" eb="5">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>納品書20230519-289.pdf
-RSのShipped HeaderにSOTotal Amount,　Tax AmountなどがありませんのでSPACECOOLの帳票の（小計、消費税、会計金額）項目にデータが表示されない</t>
+    <rPh sb="16" eb="18">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Inventory Management/Inventory Item By LocationのListViewにPrintViewボタンをクリックすると印刷できます</t>
+    <rPh sb="77" eb="79">
+      <t>インサツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RSCommunityのケース#00056370 の回答をもらったらDummyサイトを削除すれば削除します</t>
+    <rPh sb="26" eb="28">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Flowのガイドを勉強した後で運用します</t>
+    <rPh sb="9" eb="11">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ウンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>二時間</t>
     <rPh sb="0" eb="3">
-      <t>ノウヒンショ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>チョウヒョウ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>20230517-064.pdf
-消費税と配送費を込まない⇒QA92を追加しました</t>
-    <rPh sb="17" eb="20">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ハイソウヒ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VAT Classを調べる</t>
-    <rPh sb="10" eb="11">
-      <t>シラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AppLauncher（7つ）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SendMail</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>受注</t>
-  </si>
-  <si>
-    <t>出荷</t>
-  </si>
-  <si>
-    <t>生産計画・製造</t>
-  </si>
-  <si>
-    <t>調達</t>
-  </si>
-  <si>
-    <t>在庫・棚卸</t>
-  </si>
-  <si>
-    <t>マスタ</t>
-  </si>
-  <si>
-    <t>請求書</t>
-  </si>
-  <si>
-    <t>PO RecieptのUpload機能</t>
-    <rPh sb="17" eb="19">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>QA No85と森下さんのメールを確認</t>
-    <rPh sb="8" eb="10">
-      <t>モリシタ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
+      <t>ニジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・ディビジョンマスタシートにメインサイトを確認
+・組織部門シートに勘定科目を更新
+・サイトマスタシートに番号と明細を更新
+・在庫ロケーションIDシートに番号と明細列を更新
+・在庫ロケーションNoシートにロケーションIDによって更新
+・在庫コモディティ コードシートに勘定科目とロケーションを更新
+・仕入先クラスシートにリードタイムと勘定科目を確認
+・仕入先マスタ(Vendor)シートに番号を入力
+・仕入先住所 シートに入力していない情報を更新
+・仕入先連絡先 シートに入力していない情報を更新
+・製造部門シートに在庫サイトを更新
+・工順マスタ(Routing)シートに在庫サイトを更新
+・PO管理レコードシートに注文書 明細追加許可行数を確認
+・エンジニアリング品目マスタシートに在庫を更新
+・製品グループシートに勘定科目を更新
+・製品シートを更新
+</t>
+    <rPh sb="21" eb="23">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・コメントと黄色い所を確認
-・サイト、在庫ロケーションIDを更新</t>
-    <rPh sb="6" eb="8">
-      <t>キイロ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>トコロ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
+    <rPh sb="33" eb="37">
+      <t>カンジョウカモク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="133" eb="137">
+      <t>カンジョウカモク</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="149" eb="152">
+      <t>シイレサキ</t>
+    </rPh>
+    <rPh sb="166" eb="170">
+      <t>カンジョウカモク</t>
+    </rPh>
+    <rPh sb="171" eb="173">
       <t>カクニン</t>
     </rPh>
-    <rPh sb="19" eb="21">
+    <rPh sb="193" eb="195">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="210" eb="212">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="217" eb="219">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="257" eb="259">
       <t>ザイコ</t>
     </rPh>
-    <rPh sb="30" eb="32">
+    <rPh sb="263" eb="265">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>No60と同じ</t>
+    <rPh sb="285" eb="287">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="291" eb="293">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="320" eb="322">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="341" eb="343">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="344" eb="346">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="358" eb="362">
+      <t>カンジョウカモク</t>
+    </rPh>
+    <rPh sb="363" eb="365">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="373" eb="375">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四時間</t>
+    <rPh sb="0" eb="3">
+      <t>ヨンジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No60と同じ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>SendMail機能を動けるのを確認</t>
+    </r>
     <rPh sb="5" eb="6">
       <t>オナ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>北川さんのメールを確認
-Rootforms発注書メール自動送信_V1_0.docx</t>
+    <rPh sb="16" eb="18">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No60と同じ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>SendMail機能を動けるのを確認</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・環境を設定
+・メールのフォマードを作成
+・機能を動けるのを確認</t>
+    <rPh sb="1" eb="3">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>\GitHub\Rootstock_SC\4.ドキュメント\業務フロー
+RSマスタ＆システム設定項目一覧.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">北川さんのメールを確認
+</t>
     <rPh sb="0" eb="2">
       <t>キタガワ</t>
     </rPh>
     <rPh sb="9" eb="11">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レポート
+（RootStockのレポート）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>帳票を作成
+（RootForm）</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>\GitHub\Rootstock_SC\1.マニュアル\09.メール送信設定
+Rootforms発注書メール自動送信_V1_0.docx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GitHub\Rootstock_SC\1.マニュアル\04.環境の設定
+RSシステム設定Step一覧.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GitHub\Rootstock_SC\1.マニュアル\05.帳票作成
+帳票のマニュアル.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GitHub\Rootstock_SC\1.マニュアル\07.AppLancher作成
+アプリケーションランチャーのマニュアル.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RSシステム設定Step一覧.xlsx
+RSマスタ＆システム設定項目一覧.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下のファイルに基づいてシステムをセット
+1.GitHub\Rootstock_SC\1.マニュアル\04.環境の設定
+RSシステム設定Step一覧.xlsx
+2.GitHub\Rootstock_SC\4.ドキュメント\業務フロー
+RSマスタ＆システム設定項目一覧.xlsx</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GitHub\Rootstock_SC\4.ドキュメント\業務フロー
+新業務フロー_詳細業務.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザープロファイル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アライアンス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コーポレート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テクニカル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メール送信を設定方法</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Chatterを設定方法</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロファイルとユーザーを設定方法</t>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システムとマスタを設定</t>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・SOヘッダにChatterタブを設定</t>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・権限を設定</t>
+    <rPh sb="1" eb="3">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・プロファイルを作成する方法
+・ユーザーを登録する方法</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GitHub\Rootstock_SC\1.マニュアル\09.メール送信設定
+Rootforms発注書メール自動送信_V1_0.docx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Chatter機能</t>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GitHub\Rootstock_SC\1.マニュアル\11.Chatterの設定
+Chatter表示設定.pptx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レポート/インターフェース</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・メニューを作成しました。
+・ライトニングモードをチェック</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3383,7 +3932,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3508,6 +4057,26 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -3554,13 +4123,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3637,7 +4206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3845,50 +4414,56 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3900,45 +4475,48 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="13" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3947,7 +4525,103 @@
     <cellStyle name="桁区切り" xfId="2" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -4356,36 +5030,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7929DC-B531-419A-8BB3-4B492C6A9455}">
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F56" sqref="F56"/>
+      <selection pane="bottomRight" activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="61" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="61" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="62" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="62" customWidth="1"/>
-    <col min="7" max="9" width="12.375" style="62" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="63" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="63" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.625" style="63" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" style="63" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35" style="47" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="47" customWidth="1"/>
-    <col min="16" max="16384" width="8.625" style="47"/>
+    <col min="2" max="3" width="21.875" style="61" customWidth="1"/>
+    <col min="4" max="4" width="39.75" style="47" customWidth="1"/>
+    <col min="5" max="6" width="12.375" style="62" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="63" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="63" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="63" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="63" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35" style="47" customWidth="1"/>
+    <col min="12" max="12" width="54.5" style="47" customWidth="1"/>
+    <col min="13" max="16384" width="8.625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="44" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>0</v>
@@ -4397,48 +5068,39 @@
         <v>1</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>710</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="I1" s="46" t="s">
         <v>123</v>
       </c>
+      <c r="G1" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>57</v>
+      </c>
       <c r="J1" s="45" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.4">
       <c r="A2" s="68">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="80" t="s">
         <v>711</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="80" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="48" t="s">
@@ -4447,139 +5109,99 @@
       <c r="E2" s="49">
         <v>100</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50">
-        <v>100</v>
-      </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J2" s="52">
-        <v>45103</v>
-      </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52">
-        <f>J2+3</f>
-        <v>45106</v>
-      </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="54" t="s">
-        <v>783</v>
-      </c>
-      <c r="O2" s="54"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F2" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="55" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A3" s="68">
-        <f t="shared" ref="A3:A52" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A67" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="48" t="s">
         <v>717</v>
       </c>
       <c r="E3" s="49">
         <v>100</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50">
-        <v>100</v>
-      </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J3" s="52">
-        <v>45103</v>
-      </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="52">
-        <f t="shared" ref="L3:L14" si="1">J3+3</f>
-        <v>45106</v>
-      </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="54" t="s">
-        <v>783</v>
-      </c>
-      <c r="O3" s="54"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F3" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="55" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A4" s="68">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="48" t="s">
         <v>718</v>
       </c>
       <c r="E4" s="49">
         <v>100</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49">
-        <v>60</v>
-      </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="99" t="s">
-        <v>762</v>
-      </c>
-      <c r="J4" s="52">
-        <v>45103</v>
-      </c>
-      <c r="K4" s="53"/>
-      <c r="L4" s="52">
-        <f t="shared" si="1"/>
-        <v>45106</v>
-      </c>
-      <c r="M4" s="53"/>
-      <c r="N4" s="55" t="s">
-        <v>782</v>
-      </c>
-      <c r="O4" s="54"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F4" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="55" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A5" s="68">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
       <c r="D5" s="48" t="s">
         <v>719</v>
       </c>
       <c r="E5" s="49">
         <v>100</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="50">
-        <v>100</v>
-      </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J5" s="52">
-        <v>45103</v>
-      </c>
-      <c r="K5" s="53"/>
-      <c r="L5" s="52">
-        <f t="shared" si="1"/>
-        <v>45106</v>
-      </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="54" t="s">
-        <v>783</v>
-      </c>
-      <c r="O5" s="54"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F5" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="55" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A6" s="68">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="56" t="s">
         <v>713</v>
       </c>
@@ -4587,35 +5209,25 @@
       <c r="E6" s="49">
         <v>100</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50">
-        <v>100</v>
-      </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J6" s="52">
-        <v>45103</v>
-      </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="52">
-        <f t="shared" si="1"/>
-        <v>45106</v>
-      </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="54" t="s">
-        <v>783</v>
-      </c>
-      <c r="O6" s="54"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F6" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="55" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A7" s="68">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80" t="s">
         <v>715</v>
       </c>
       <c r="D7" s="57" t="s">
@@ -4624,105 +5236,77 @@
       <c r="E7" s="49">
         <v>100</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50">
-        <v>100</v>
-      </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J7" s="52">
-        <v>45103</v>
-      </c>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52">
-        <f t="shared" si="1"/>
-        <v>45106</v>
-      </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="54" t="s">
-        <v>783</v>
-      </c>
-      <c r="O7" s="54"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F7" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="55" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A8" s="68">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="58" t="s">
         <v>721</v>
       </c>
       <c r="E8" s="49">
         <v>100</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50">
-        <v>100</v>
-      </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J8" s="52">
-        <v>45103</v>
-      </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52">
-        <f t="shared" si="1"/>
-        <v>45106</v>
-      </c>
-      <c r="M8" s="52"/>
-      <c r="N8" s="54" t="s">
-        <v>783</v>
-      </c>
-      <c r="O8" s="54"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F8" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="55" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A9" s="68">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="56" t="s">
         <v>714</v>
       </c>
-      <c r="D9" s="58"/>
+      <c r="D9" s="58" t="s">
+        <v>798</v>
+      </c>
       <c r="E9" s="49">
         <v>100</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="50">
-        <v>100</v>
-      </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J9" s="52">
-        <v>45103</v>
-      </c>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52">
-        <f t="shared" si="1"/>
-        <v>45106</v>
-      </c>
-      <c r="M9" s="52"/>
-      <c r="N9" s="54" t="s">
-        <v>783</v>
-      </c>
-      <c r="O9" s="54"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F9" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="55" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A10" s="68">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="80" t="s">
         <v>712</v>
       </c>
       <c r="D10" s="48" t="s">
@@ -4731,105 +5315,75 @@
       <c r="E10" s="49">
         <v>100</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50">
-        <v>100</v>
-      </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J10" s="52">
-        <v>45103</v>
-      </c>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52">
-        <f t="shared" si="1"/>
-        <v>45106</v>
-      </c>
-      <c r="M10" s="52"/>
-      <c r="N10" s="54" t="s">
-        <v>783</v>
-      </c>
-      <c r="O10" s="54"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F10" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="55" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A11" s="68">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="58" t="s">
         <v>722</v>
       </c>
       <c r="E11" s="49">
         <v>100</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50">
-        <v>100</v>
-      </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J11" s="52">
-        <v>45103</v>
-      </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52">
-        <f t="shared" si="1"/>
-        <v>45106</v>
-      </c>
-      <c r="M11" s="52"/>
-      <c r="N11" s="54" t="s">
-        <v>783</v>
-      </c>
-      <c r="O11" s="54"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F11" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="55" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A12" s="68">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="58" t="s">
         <v>723</v>
       </c>
       <c r="E12" s="49">
         <v>100</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50">
-        <v>100</v>
-      </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J12" s="52">
-        <v>45103</v>
-      </c>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52">
-        <f t="shared" si="1"/>
-        <v>45106</v>
-      </c>
-      <c r="M12" s="52"/>
-      <c r="N12" s="54" t="s">
-        <v>783</v>
-      </c>
-      <c r="O12" s="54"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F12" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="55" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A13" s="68">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70" t="s">
+      <c r="B13" s="80"/>
+      <c r="C13" s="80" t="s">
         <v>724</v>
       </c>
       <c r="D13" s="48" t="s">
@@ -4838,1683 +5392,1664 @@
       <c r="E13" s="49">
         <v>100</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50">
-        <v>100</v>
-      </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J13" s="52">
-        <v>45103</v>
-      </c>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52">
-        <f t="shared" si="1"/>
-        <v>45106</v>
-      </c>
-      <c r="M13" s="52"/>
-      <c r="N13" s="54" t="s">
-        <v>783</v>
-      </c>
-      <c r="O13" s="54"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F13" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="55" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A14" s="68">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="48" t="s">
         <v>726</v>
       </c>
       <c r="E14" s="49">
         <v>100</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50">
-        <v>100</v>
-      </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J14" s="52">
-        <v>45103</v>
-      </c>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52">
-        <f t="shared" si="1"/>
-        <v>45106</v>
-      </c>
-      <c r="M14" s="52"/>
-      <c r="N14" s="54" t="s">
-        <v>783</v>
-      </c>
-      <c r="O14" s="54"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F14" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="55" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A15" s="68">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="80" t="s">
         <v>727</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>716</v>
+        <v>844</v>
       </c>
       <c r="D15" s="48"/>
-      <c r="E15" s="71">
+      <c r="E15" s="49">
         <v>100</v>
       </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="51" t="s">
-        <v>762</v>
+      <c r="F15" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G15" s="52">
+        <v>45079</v>
+      </c>
+      <c r="H15" s="52">
+        <v>45092</v>
+      </c>
+      <c r="I15" s="52">
+        <v>45079</v>
       </c>
       <c r="J15" s="52">
-        <v>45079</v>
-      </c>
-      <c r="K15" s="52">
-        <v>45092</v>
-      </c>
-      <c r="L15" s="52">
-        <v>45079</v>
-      </c>
-      <c r="M15" s="52">
         <v>45094</v>
       </c>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K15" s="55" t="s">
+        <v>806</v>
+      </c>
+      <c r="L15" s="55" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="36" x14ac:dyDescent="0.4">
       <c r="A16" s="68">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="70"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="56" t="s">
-        <v>729</v>
-      </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="71">
+        <v>728</v>
+      </c>
+      <c r="D16" s="72" t="s">
+        <v>792</v>
+      </c>
+      <c r="E16" s="49">
         <v>80</v>
       </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J16" s="52">
+      <c r="F16" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G16" s="52">
         <v>45082</v>
       </c>
-      <c r="K16" s="52">
+      <c r="H16" s="52">
         <v>45092</v>
       </c>
-      <c r="L16" s="52">
+      <c r="I16" s="52">
         <v>45106</v>
       </c>
-      <c r="M16" s="52"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="59"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="J16" s="52"/>
+      <c r="K16" s="55" t="s">
+        <v>804</v>
+      </c>
+      <c r="L16" s="55" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="68">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="70"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="56" t="s">
-        <v>730</v>
-      </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J17" s="52">
+        <v>729</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>802</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G17" s="52">
         <v>45103</v>
       </c>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52">
+      <c r="H17" s="52"/>
+      <c r="I17" s="52">
         <v>45103</v>
       </c>
-      <c r="M17" s="52"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="59"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="J17" s="52"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="59"/>
+    </row>
+    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A18" s="68">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="70"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="56" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D18" s="48"/>
-      <c r="E18" s="71">
+      <c r="E18" s="49">
         <v>100</v>
       </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="51" t="s">
-        <v>762</v>
+      <c r="F18" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G18" s="52">
+        <v>45083</v>
+      </c>
+      <c r="H18" s="52">
+        <v>45097</v>
+      </c>
+      <c r="I18" s="52">
+        <v>45083</v>
       </c>
       <c r="J18" s="52">
-        <v>45083</v>
-      </c>
-      <c r="K18" s="52">
         <v>45097</v>
       </c>
-      <c r="L18" s="52">
-        <v>45083</v>
-      </c>
-      <c r="M18" s="52">
-        <v>45097</v>
-      </c>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K18" s="55" t="s">
+        <v>805</v>
+      </c>
+      <c r="L18" s="55" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A19" s="68">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="70"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="56" t="s">
-        <v>750</v>
-      </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J19" s="52">
+        <v>791</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>793</v>
+      </c>
+      <c r="E19" s="49"/>
+      <c r="F19" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G19" s="52">
         <v>45104</v>
       </c>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52">
+      <c r="H19" s="52"/>
+      <c r="I19" s="52">
         <v>45105</v>
       </c>
-      <c r="M19" s="52"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="J19" s="52"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="55"/>
+    </row>
+    <row r="20" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A20" s="68">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="56" t="s">
-        <v>728</v>
-      </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J20" s="52">
-        <v>45104</v>
-      </c>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52">
-        <v>45105</v>
-      </c>
-      <c r="M20" s="52"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B20" s="80"/>
+      <c r="C20" s="56" t="s">
+        <v>841</v>
+      </c>
+      <c r="D20" s="73"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="55" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A21" s="68">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J21" s="52">
-        <v>45103</v>
-      </c>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52">
-        <v>45091</v>
-      </c>
-      <c r="M21" s="52"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B21" s="80"/>
+      <c r="C21" s="56" t="s">
+        <v>842</v>
+      </c>
+      <c r="D21" s="73"/>
+      <c r="E21" s="49">
+        <v>100</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="55" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A22" s="68">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="89" t="s">
-        <v>732</v>
-      </c>
-      <c r="C22" s="90" t="s">
-        <v>734</v>
-      </c>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92">
-        <v>80</v>
-      </c>
-      <c r="H22" s="92"/>
-      <c r="I22" s="93" t="s">
-        <v>762</v>
-      </c>
-      <c r="J22" s="94">
-        <v>45092</v>
-      </c>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94">
-        <v>45092</v>
-      </c>
-      <c r="M22" s="94"/>
-      <c r="N22" s="91" t="s">
-        <v>783</v>
-      </c>
-      <c r="O22" s="54"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B22" s="80"/>
+      <c r="C22" s="56" t="s">
+        <v>843</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>847</v>
+      </c>
+      <c r="E22" s="49"/>
+      <c r="F22" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G22" s="52">
+        <v>45104</v>
+      </c>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52">
+        <v>45105</v>
+      </c>
+      <c r="J22" s="52"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="55"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="68">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="89"/>
-      <c r="C23" s="90" t="s">
-        <v>735</v>
-      </c>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92">
-        <v>80</v>
-      </c>
-      <c r="H23" s="92"/>
-      <c r="I23" s="93" t="s">
-        <v>762</v>
-      </c>
-      <c r="J23" s="94">
-        <v>45092</v>
-      </c>
-      <c r="K23" s="95"/>
-      <c r="L23" s="94">
-        <v>45092</v>
-      </c>
-      <c r="M23" s="95"/>
-      <c r="N23" s="91" t="s">
-        <v>783</v>
-      </c>
-      <c r="O23" s="54"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B23" s="80" t="s">
+        <v>837</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>838</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>846</v>
+      </c>
+      <c r="E23" s="49">
+        <v>100</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="68">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="90" t="s">
-        <v>736</v>
-      </c>
-      <c r="D24" s="91"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92">
-        <v>60</v>
-      </c>
-      <c r="H24" s="92"/>
-      <c r="I24" s="93" t="s">
-        <v>762</v>
-      </c>
-      <c r="J24" s="94">
-        <v>45092</v>
-      </c>
-      <c r="K24" s="95"/>
-      <c r="L24" s="94">
-        <v>45092</v>
-      </c>
-      <c r="M24" s="95"/>
-      <c r="N24" s="91" t="s">
-        <v>783</v>
-      </c>
-      <c r="O24" s="54"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B24" s="80"/>
+      <c r="C24" s="56" t="s">
+        <v>839</v>
+      </c>
+      <c r="D24" s="78" t="s">
+        <v>846</v>
+      </c>
+      <c r="E24" s="49">
+        <v>100</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="68">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="89"/>
-      <c r="C25" s="90" t="s">
-        <v>733</v>
-      </c>
-      <c r="D25" s="91"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="93" t="s">
-        <v>762</v>
-      </c>
-      <c r="J25" s="94">
-        <v>45092</v>
-      </c>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94">
-        <v>45092</v>
-      </c>
-      <c r="M25" s="94"/>
-      <c r="N25" s="91" t="s">
-        <v>783</v>
-      </c>
-      <c r="O25" s="54"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B25" s="80"/>
+      <c r="C25" s="56" t="s">
+        <v>840</v>
+      </c>
+      <c r="D25" s="78" t="s">
+        <v>846</v>
+      </c>
+      <c r="E25" s="49">
+        <v>100</v>
+      </c>
+      <c r="F25" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="59"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="68">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="70" t="s">
-        <v>737</v>
-      </c>
-      <c r="C26" s="72" t="s">
-        <v>738</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>743</v>
+      <c r="B26" s="80"/>
+      <c r="C26" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>846</v>
       </c>
       <c r="E26" s="49">
         <v>100</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="50">
-        <v>100</v>
-      </c>
-      <c r="H26" s="49"/>
-      <c r="I26" s="51" t="s">
-        <v>764</v>
-      </c>
+      <c r="F26" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
       <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="54" t="s">
-        <v>767</v>
-      </c>
-      <c r="O26" s="54"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="68">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="48" t="s">
-        <v>744</v>
+      <c r="B27" s="56" t="s">
+        <v>849</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="58" t="s">
+        <v>845</v>
       </c>
       <c r="E27" s="49">
         <v>100</v>
       </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49">
-        <v>100</v>
-      </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="51" t="s">
-        <v>764</v>
-      </c>
-      <c r="J27" s="52">
-        <v>45079</v>
-      </c>
-      <c r="K27" s="52">
-        <v>45079</v>
-      </c>
-      <c r="L27" s="52">
-        <v>45079</v>
-      </c>
-      <c r="M27" s="52">
-        <v>45079</v>
-      </c>
-      <c r="N27" s="55"/>
-      <c r="O27" s="54"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F27" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="54"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="68">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="72" t="s">
-        <v>739</v>
+      <c r="B28" s="81" t="s">
+        <v>829</v>
+      </c>
+      <c r="C28" s="79" t="s">
+        <v>732</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E28" s="49">
         <v>100</v>
       </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="50">
-        <v>100</v>
-      </c>
-      <c r="H28" s="49"/>
-      <c r="I28" s="51" t="s">
-        <v>764</v>
-      </c>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="54" t="s">
-        <v>767</v>
-      </c>
-      <c r="O28" s="54"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F28" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="54" t="s">
+        <v>760</v>
+      </c>
+      <c r="L28" s="54"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="68">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="72"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="48" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E29" s="49">
         <v>100</v>
       </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49">
-        <v>100</v>
-      </c>
-      <c r="H29" s="49"/>
-      <c r="I29" s="51" t="s">
-        <v>762</v>
+      <c r="F29" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G29" s="52">
+        <v>45079</v>
+      </c>
+      <c r="H29" s="52">
+        <v>45079</v>
+      </c>
+      <c r="I29" s="52">
+        <v>45079</v>
       </c>
       <c r="J29" s="52">
         <v>45079</v>
       </c>
-      <c r="K29" s="52">
-        <v>45079</v>
-      </c>
-      <c r="L29" s="52">
-        <v>45079</v>
-      </c>
-      <c r="M29" s="52">
-        <v>45079</v>
-      </c>
-      <c r="N29" s="54" t="s">
-        <v>768</v>
-      </c>
-      <c r="O29" s="54"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K29" s="55"/>
+      <c r="L29" s="54"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="68">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="72" t="s">
-        <v>740</v>
+      <c r="B30" s="80"/>
+      <c r="C30" s="85" t="s">
+        <v>794</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E30" s="49">
         <v>100</v>
       </c>
-      <c r="F30" s="49"/>
-      <c r="G30" s="50">
-        <v>100</v>
-      </c>
-      <c r="H30" s="49"/>
-      <c r="I30" s="51" t="s">
-        <v>764</v>
-      </c>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="54" t="s">
-        <v>767</v>
-      </c>
-      <c r="O30" s="54"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F30" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="54" t="s">
+        <v>760</v>
+      </c>
+      <c r="L30" s="54"/>
+    </row>
+    <row r="31" spans="1:12" ht="36" x14ac:dyDescent="0.4">
       <c r="A31" s="68">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="48" t="s">
-        <v>744</v>
+      <c r="B31" s="80"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="58" t="s">
+        <v>795</v>
       </c>
       <c r="E31" s="49">
-        <v>100</v>
-      </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49">
-        <v>100</v>
-      </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="51" t="s">
-        <v>762</v>
+        <v>80</v>
+      </c>
+      <c r="F31" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G31" s="52">
+        <v>45079</v>
+      </c>
+      <c r="H31" s="52">
+        <v>45079</v>
+      </c>
+      <c r="I31" s="52">
+        <v>45079</v>
       </c>
       <c r="J31" s="52">
         <v>45079</v>
       </c>
-      <c r="K31" s="52">
-        <v>45079</v>
-      </c>
-      <c r="L31" s="52">
-        <v>45079</v>
-      </c>
-      <c r="M31" s="52">
-        <v>45079</v>
-      </c>
-      <c r="N31" s="54" t="s">
-        <v>768</v>
-      </c>
-      <c r="O31" s="54"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K31" s="54" t="s">
+        <v>761</v>
+      </c>
+      <c r="L31" s="54"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="68">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="72" t="s">
-        <v>741</v>
+      <c r="B32" s="80"/>
+      <c r="C32" s="79" t="s">
+        <v>734</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E32" s="49">
         <v>100</v>
       </c>
-      <c r="F32" s="49"/>
-      <c r="G32" s="50">
-        <v>100</v>
-      </c>
-      <c r="H32" s="49"/>
-      <c r="I32" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="54" t="s">
-        <v>767</v>
-      </c>
-      <c r="O32" s="54"/>
-    </row>
-    <row r="33" spans="1:15" ht="24" x14ac:dyDescent="0.4">
+      <c r="F32" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="54" t="s">
+        <v>760</v>
+      </c>
+      <c r="L32" s="54"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="68">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="72"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="48" t="s">
-        <v>744</v>
-      </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49">
+        <v>738</v>
+      </c>
+      <c r="E33" s="49">
         <v>100</v>
       </c>
-      <c r="H33" s="49"/>
-      <c r="I33" s="51" t="s">
-        <v>762</v>
+      <c r="F33" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G33" s="52">
+        <v>45079</v>
+      </c>
+      <c r="H33" s="52">
+        <v>45079</v>
+      </c>
+      <c r="I33" s="52">
+        <v>45079</v>
       </c>
       <c r="J33" s="52">
-        <v>45077</v>
-      </c>
-      <c r="K33" s="52">
-        <v>45077</v>
-      </c>
-      <c r="L33" s="52">
-        <v>45077</v>
-      </c>
-      <c r="M33" s="52">
-        <v>45092</v>
-      </c>
-      <c r="N33" s="55" t="s">
-        <v>791</v>
-      </c>
-      <c r="O33" s="54"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+        <v>45079</v>
+      </c>
+      <c r="K33" s="54" t="s">
+        <v>761</v>
+      </c>
+      <c r="L33" s="54"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="68">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70" t="s">
-        <v>742</v>
+      <c r="B34" s="80"/>
+      <c r="C34" s="79" t="s">
+        <v>735</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>743</v>
-      </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="51" t="s">
-        <v>764</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="E34" s="49">
+        <v>100</v>
+      </c>
+      <c r="F34" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
       <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="54" t="s">
-        <v>781</v>
-      </c>
-      <c r="O34" s="54"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K34" s="54" t="s">
+        <v>760</v>
+      </c>
+      <c r="L34" s="54"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="68">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="79"/>
       <c r="D35" s="48" t="s">
-        <v>744</v>
-      </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="51" t="s">
-        <v>764</v>
-      </c>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="54" t="s">
-        <v>781</v>
-      </c>
-      <c r="O35" s="54"/>
-    </row>
-    <row r="36" spans="1:15" ht="60" x14ac:dyDescent="0.4">
+        <v>738</v>
+      </c>
+      <c r="E35" s="49">
+        <v>100</v>
+      </c>
+      <c r="F35" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G35" s="52">
+        <v>45077</v>
+      </c>
+      <c r="H35" s="52">
+        <v>45077</v>
+      </c>
+      <c r="I35" s="52">
+        <v>45077</v>
+      </c>
+      <c r="J35" s="52">
+        <v>45092</v>
+      </c>
+      <c r="K35" s="77"/>
+      <c r="L35" s="54"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="68">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="70"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="48" t="s">
-        <v>787</v>
-      </c>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49">
+        <v>777</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>738</v>
+      </c>
+      <c r="E36" s="49">
         <v>100</v>
       </c>
-      <c r="H36" s="49"/>
-      <c r="I36" s="51" t="s">
-        <v>762</v>
+      <c r="F36" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G36" s="52">
+        <v>45078</v>
+      </c>
+      <c r="H36" s="52">
+        <v>45078</v>
+      </c>
+      <c r="I36" s="52">
+        <v>45078</v>
       </c>
       <c r="J36" s="52">
-        <v>45078</v>
-      </c>
-      <c r="K36" s="52">
-        <v>45078</v>
-      </c>
-      <c r="L36" s="52">
-        <v>45078</v>
-      </c>
-      <c r="M36" s="52">
         <v>45092</v>
       </c>
-      <c r="N36" s="55" t="s">
-        <v>790</v>
-      </c>
-      <c r="O36" s="54"/>
-    </row>
-    <row r="37" spans="1:15" ht="24" x14ac:dyDescent="0.4">
+      <c r="K36" s="77"/>
+      <c r="L36" s="54"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="68">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="70" t="s">
-        <v>745</v>
+      <c r="B37" s="81" t="s">
+        <v>828</v>
       </c>
       <c r="C37" s="56" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="49">
         <v>100</v>
       </c>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50">
-        <v>100</v>
-      </c>
-      <c r="H37" s="49"/>
-      <c r="I37" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J37" s="52"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="55" t="s">
-        <v>789</v>
-      </c>
-      <c r="O37" s="54"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F37" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G37" s="52">
+        <v>45072</v>
+      </c>
+      <c r="H37" s="52">
+        <v>45072</v>
+      </c>
+      <c r="I37" s="52">
+        <v>45072</v>
+      </c>
+      <c r="J37" s="52">
+        <v>45072</v>
+      </c>
+      <c r="K37" s="55"/>
+      <c r="L37" s="54"/>
+    </row>
+    <row r="38" spans="1:12" ht="36" x14ac:dyDescent="0.4">
       <c r="A38" s="68">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="70"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="56" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="D38" s="48"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="50">
+      <c r="E38" s="49">
         <v>100</v>
       </c>
-      <c r="H38" s="49"/>
-      <c r="I38" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J38" s="52"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F38" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G38" s="52"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="55" t="s">
+        <v>816</v>
+      </c>
+      <c r="L38" s="54"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="68">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="70"/>
+      <c r="B39" s="80"/>
       <c r="C39" s="56" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="D39" s="48"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="50">
+      <c r="E39" s="49">
         <v>100</v>
       </c>
-      <c r="H39" s="49"/>
-      <c r="I39" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J39" s="52"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F39" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G39" s="52"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="54" t="s">
+        <v>815</v>
+      </c>
+      <c r="L39" s="54"/>
+    </row>
+    <row r="40" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="68">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="56" t="s">
-        <v>748</v>
-      </c>
-      <c r="D40" s="48"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49">
-        <v>80</v>
-      </c>
-      <c r="H40" s="49"/>
-      <c r="I40" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J40" s="52">
+      <c r="B40" s="80"/>
+      <c r="C40" s="57" t="s">
+        <v>742</v>
+      </c>
+      <c r="D40" s="73" t="s">
+        <v>796</v>
+      </c>
+      <c r="E40" s="49">
+        <v>60</v>
+      </c>
+      <c r="F40" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G40" s="52">
         <v>45075</v>
       </c>
-      <c r="K40" s="52">
+      <c r="H40" s="52">
         <v>45075</v>
       </c>
-      <c r="L40" s="52">
+      <c r="I40" s="52">
         <v>45075</v>
       </c>
-      <c r="M40" s="53"/>
-      <c r="N40" s="55" t="s">
-        <v>775</v>
-      </c>
-      <c r="O40" s="54"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="J40" s="53"/>
+      <c r="K40" s="55" t="s">
+        <v>768</v>
+      </c>
+      <c r="L40" s="54"/>
+    </row>
+    <row r="41" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A41" s="68">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="70" t="s">
-        <v>751</v>
+      <c r="B41" s="80" t="s">
+        <v>744</v>
       </c>
       <c r="C41" s="56" t="s">
-        <v>752</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>805</v>
+        <v>745</v>
+      </c>
+      <c r="D41" s="58" t="s">
+        <v>823</v>
       </c>
       <c r="E41" s="49">
-        <v>100</v>
-      </c>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49">
         <v>80</v>
       </c>
-      <c r="H41" s="49"/>
-      <c r="I41" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J41" s="52">
+      <c r="F41" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G41" s="52">
         <v>45082</v>
       </c>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52">
+      <c r="H41" s="52"/>
+      <c r="I41" s="52">
         <v>45082</v>
       </c>
-      <c r="M41" s="53"/>
-      <c r="N41" s="55" t="s">
-        <v>774</v>
-      </c>
-      <c r="O41" s="54"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="J41" s="53"/>
+      <c r="K41" s="55" t="s">
+        <v>767</v>
+      </c>
+      <c r="L41" s="55" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A42" s="68">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="70"/>
+      <c r="B42" s="80"/>
       <c r="C42" s="56" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="D42" s="58"/>
       <c r="E42" s="49">
         <v>100</v>
       </c>
-      <c r="F42" s="49"/>
-      <c r="G42" s="50">
-        <v>100</v>
-      </c>
-      <c r="H42" s="49"/>
-      <c r="I42" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F42" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="55" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A43" s="68">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="70"/>
+      <c r="B43" s="80"/>
       <c r="C43" s="56" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="D43" s="58"/>
       <c r="E43" s="49">
         <v>100</v>
       </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="50">
-        <v>100</v>
-      </c>
-      <c r="H43" s="49"/>
-      <c r="I43" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J43" s="52"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="54" t="s">
-        <v>765</v>
-      </c>
-      <c r="O43" s="54"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F43" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G43" s="52"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="54" t="s">
+        <v>758</v>
+      </c>
+      <c r="L43" s="55" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A44" s="68">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="70"/>
+      <c r="B44" s="80"/>
       <c r="C44" s="56" t="s">
+        <v>748</v>
+      </c>
+      <c r="D44" s="58" t="s">
+        <v>824</v>
+      </c>
+      <c r="E44" s="49">
+        <v>80</v>
+      </c>
+      <c r="F44" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="D44" s="48" t="s">
-        <v>805</v>
-      </c>
-      <c r="E44" s="49">
-        <v>100</v>
-      </c>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49">
-        <v>80</v>
-      </c>
-      <c r="H44" s="49"/>
-      <c r="I44" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J44" s="52">
+      <c r="G44" s="52">
         <v>45082</v>
       </c>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52">
+      <c r="H44" s="52"/>
+      <c r="I44" s="52">
         <v>45082</v>
       </c>
-      <c r="M44" s="52"/>
-      <c r="N44" s="55" t="s">
-        <v>773</v>
-      </c>
-      <c r="O44" s="54"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="J44" s="52"/>
+      <c r="K44" s="55" t="s">
+        <v>766</v>
+      </c>
+      <c r="L44" s="55" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A45" s="68">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="70"/>
+      <c r="B45" s="80"/>
       <c r="C45" s="56" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="D45" s="48"/>
       <c r="E45" s="49">
         <v>100</v>
       </c>
-      <c r="F45" s="49"/>
-      <c r="G45" s="50">
-        <v>100</v>
-      </c>
-      <c r="H45" s="49"/>
-      <c r="I45" s="51" t="s">
-        <v>762</v>
-      </c>
+      <c r="F45" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
       <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K45" s="54"/>
+      <c r="L45" s="55" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A46" s="68">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="70"/>
+      <c r="B46" s="80"/>
       <c r="C46" s="56" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="D46" s="48"/>
       <c r="E46" s="49">
         <v>100</v>
       </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="50">
-        <v>100</v>
-      </c>
-      <c r="H46" s="49"/>
-      <c r="I46" s="51" t="s">
-        <v>762</v>
-      </c>
+      <c r="F46" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
       <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
-    </row>
-    <row r="47" spans="1:15" ht="24" x14ac:dyDescent="0.4">
+      <c r="K46" s="54"/>
+      <c r="L46" s="55" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A47" s="68">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="70"/>
+      <c r="B47" s="80"/>
       <c r="C47" s="56" t="s">
-        <v>758</v>
-      </c>
-      <c r="D47" s="48"/>
+        <v>751</v>
+      </c>
+      <c r="D47" s="72" t="s">
+        <v>797</v>
+      </c>
       <c r="E47" s="49">
-        <v>100</v>
-      </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="50">
-        <v>100</v>
-      </c>
-      <c r="H47" s="49"/>
-      <c r="I47" s="51" t="s">
-        <v>762</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F47" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
       <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="55" t="s">
-        <v>766</v>
-      </c>
-      <c r="O47" s="54"/>
-    </row>
-    <row r="48" spans="1:15" ht="48" x14ac:dyDescent="0.4">
+      <c r="K47" s="55" t="s">
+        <v>759</v>
+      </c>
+      <c r="L47" s="55" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="211.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="68">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>760</v>
-      </c>
-      <c r="D48" s="58" t="s">
-        <v>804</v>
-      </c>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="49">
+        <v>753</v>
+      </c>
+      <c r="D48" s="73" t="s">
+        <v>820</v>
+      </c>
+      <c r="E48" s="49">
         <v>80</v>
       </c>
-      <c r="H48" s="49"/>
-      <c r="I48" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J48" s="52">
+      <c r="F48" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G48" s="52">
         <v>45083</v>
       </c>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52">
+      <c r="H48" s="52"/>
+      <c r="I48" s="52">
         <v>45105</v>
       </c>
-      <c r="M48" s="53"/>
-      <c r="N48" s="55" t="s">
-        <v>761</v>
-      </c>
-      <c r="O48" s="54"/>
-    </row>
-    <row r="49" spans="1:15" ht="24" x14ac:dyDescent="0.4">
+      <c r="J48" s="53"/>
+      <c r="K48" s="55" t="s">
+        <v>754</v>
+      </c>
+      <c r="L48" s="55" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="68">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="69" t="s">
-        <v>779</v>
+      <c r="B49" s="81" t="s">
+        <v>772</v>
       </c>
       <c r="C49" s="56" t="s">
-        <v>776</v>
-      </c>
-      <c r="D49" s="58" t="s">
-        <v>803</v>
-      </c>
+        <v>769</v>
+      </c>
+      <c r="D49" s="58"/>
       <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J49" s="52">
+      <c r="F49" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G49" s="52">
         <v>45100</v>
       </c>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52">
+      <c r="H49" s="52"/>
+      <c r="I49" s="52">
         <v>45103</v>
       </c>
-      <c r="M49" s="53"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="54"/>
-    </row>
-    <row r="50" spans="1:15" ht="24" x14ac:dyDescent="0.4">
+      <c r="J49" s="53"/>
+      <c r="K49" s="54" t="s">
+        <v>807</v>
+      </c>
+      <c r="L49" s="54"/>
+    </row>
+    <row r="50" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A50" s="68">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="69"/>
+      <c r="B50" s="81"/>
       <c r="C50" s="57" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="D50" s="48"/>
       <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J50" s="52">
-        <v>45076</v>
-      </c>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52">
-        <v>45086</v>
-      </c>
-      <c r="M50" s="53"/>
-      <c r="N50" s="55"/>
-      <c r="O50" s="54"/>
-    </row>
-    <row r="51" spans="1:15" ht="24" x14ac:dyDescent="0.4">
+      <c r="F50" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G50" s="52">
+        <v>45103</v>
+      </c>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52">
+        <v>45106</v>
+      </c>
+      <c r="J50" s="53"/>
+      <c r="K50" s="55" t="s">
+        <v>818</v>
+      </c>
+      <c r="L50" s="54"/>
+    </row>
+    <row r="51" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A51" s="68">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" s="57" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="C51" s="56"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49">
-        <v>100</v>
-      </c>
-      <c r="H51" s="49"/>
-      <c r="I51" s="51" t="s">
-        <v>764</v>
-      </c>
-      <c r="J51" s="52">
+      <c r="D51" s="73" t="s">
+        <v>817</v>
+      </c>
+      <c r="E51" s="49">
+        <v>80</v>
+      </c>
+      <c r="F51" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G51" s="52">
+        <v>45099</v>
+      </c>
+      <c r="H51" s="52">
         <v>45077</v>
       </c>
-      <c r="K51" s="52">
-        <v>45077</v>
-      </c>
-      <c r="L51" s="52">
-        <v>45077</v>
-      </c>
-      <c r="M51" s="52">
-        <v>45077</v>
-      </c>
-      <c r="N51" s="55" t="s">
-        <v>777</v>
-      </c>
-      <c r="O51" s="54"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="I51" s="52">
+        <v>45099</v>
+      </c>
+      <c r="J51" s="52"/>
+      <c r="K51" s="55" t="s">
+        <v>770</v>
+      </c>
+      <c r="L51" s="54"/>
+    </row>
+    <row r="52" spans="1:12" ht="24" x14ac:dyDescent="0.4">
       <c r="A52" s="68">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" s="56" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="C52" s="56"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="100" t="s">
-        <v>763</v>
-      </c>
-      <c r="J52" s="52">
+      <c r="D52" s="73" t="s">
+        <v>814</v>
+      </c>
+      <c r="E52" s="49">
+        <v>80</v>
+      </c>
+      <c r="F52" s="70" t="s">
+        <v>756</v>
+      </c>
+      <c r="G52" s="52">
         <v>45098</v>
       </c>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52">
+      <c r="H52" s="52">
         <v>45099</v>
       </c>
-      <c r="M52" s="53"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B53" s="96" t="s">
-        <v>793</v>
+      <c r="I52" s="52">
+        <v>45099</v>
+      </c>
+      <c r="J52" s="53"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+    </row>
+    <row r="53" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="68">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="82" t="s">
+        <v>780</v>
       </c>
       <c r="C53" s="64" t="s">
-        <v>795</v>
-      </c>
-      <c r="D53" s="60"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J53" s="52">
+        <v>782</v>
+      </c>
+      <c r="D53" s="102" t="s">
+        <v>852</v>
+      </c>
+      <c r="E53" s="65">
+        <v>100</v>
+      </c>
+      <c r="F53" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G53" s="52">
         <v>45097</v>
       </c>
-      <c r="K53" s="53"/>
-      <c r="L53" s="52">
-        <v>45106</v>
-      </c>
-      <c r="M53" s="66"/>
-      <c r="N53" s="67"/>
-      <c r="O53" s="67"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B54" s="97"/>
+      <c r="H53" s="52">
+        <v>45098</v>
+      </c>
+      <c r="I53" s="52">
+        <v>45100</v>
+      </c>
+      <c r="J53" s="103">
+        <v>45105</v>
+      </c>
+      <c r="K53" s="67"/>
+      <c r="L53" s="67"/>
+    </row>
+    <row r="54" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="68">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="83"/>
       <c r="C54" s="64" t="s">
-        <v>796</v>
-      </c>
-      <c r="D54" s="60"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J54" s="52">
+        <v>783</v>
+      </c>
+      <c r="D54" s="102" t="s">
+        <v>852</v>
+      </c>
+      <c r="E54" s="65">
+        <v>100</v>
+      </c>
+      <c r="F54" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G54" s="52">
         <v>45097</v>
       </c>
-      <c r="K54" s="53"/>
-      <c r="L54" s="52">
-        <v>45106</v>
-      </c>
-      <c r="M54" s="66"/>
-      <c r="N54" s="67"/>
-      <c r="O54" s="67"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B55" s="97"/>
+      <c r="H54" s="52">
+        <v>45098</v>
+      </c>
+      <c r="I54" s="52">
+        <v>45100</v>
+      </c>
+      <c r="J54" s="103">
+        <v>45105</v>
+      </c>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+    </row>
+    <row r="55" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="68">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="83"/>
       <c r="C55" s="64" t="s">
-        <v>797</v>
-      </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J55" s="52">
+        <v>784</v>
+      </c>
+      <c r="D55" s="102" t="s">
+        <v>852</v>
+      </c>
+      <c r="E55" s="65">
+        <v>100</v>
+      </c>
+      <c r="F55" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G55" s="52">
         <v>45097</v>
       </c>
-      <c r="K55" s="53"/>
-      <c r="L55" s="52">
-        <v>45106</v>
-      </c>
-      <c r="M55" s="66"/>
-      <c r="N55" s="67"/>
-      <c r="O55" s="67"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B56" s="97"/>
+      <c r="H55" s="52">
+        <v>45098</v>
+      </c>
+      <c r="I55" s="52">
+        <v>45100</v>
+      </c>
+      <c r="J55" s="103">
+        <v>45105</v>
+      </c>
+      <c r="K55" s="67"/>
+      <c r="L55" s="67"/>
+    </row>
+    <row r="56" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="68">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="83"/>
       <c r="C56" s="64" t="s">
-        <v>798</v>
-      </c>
-      <c r="D56" s="60"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J56" s="52">
+        <v>785</v>
+      </c>
+      <c r="D56" s="102" t="s">
+        <v>852</v>
+      </c>
+      <c r="E56" s="65">
+        <v>100</v>
+      </c>
+      <c r="F56" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G56" s="52">
         <v>45097</v>
       </c>
-      <c r="K56" s="53"/>
-      <c r="L56" s="52">
-        <v>45106</v>
-      </c>
-      <c r="M56" s="66"/>
-      <c r="N56" s="67"/>
-      <c r="O56" s="67"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B57" s="97"/>
+      <c r="H56" s="52">
+        <v>45098</v>
+      </c>
+      <c r="I56" s="52">
+        <v>45100</v>
+      </c>
+      <c r="J56" s="103">
+        <v>45105</v>
+      </c>
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
+    </row>
+    <row r="57" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="68">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="83"/>
       <c r="C57" s="64" t="s">
-        <v>799</v>
-      </c>
-      <c r="D57" s="60"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J57" s="52">
+        <v>786</v>
+      </c>
+      <c r="D57" s="102" t="s">
+        <v>852</v>
+      </c>
+      <c r="E57" s="65">
+        <v>100</v>
+      </c>
+      <c r="F57" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G57" s="52">
         <v>45097</v>
       </c>
-      <c r="K57" s="53"/>
-      <c r="L57" s="52">
-        <v>45106</v>
-      </c>
-      <c r="M57" s="66"/>
-      <c r="N57" s="67"/>
-      <c r="O57" s="67"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B58" s="97"/>
+      <c r="H57" s="52">
+        <v>45098</v>
+      </c>
+      <c r="I57" s="52">
+        <v>45100</v>
+      </c>
+      <c r="J57" s="103">
+        <v>45105</v>
+      </c>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+    </row>
+    <row r="58" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="68">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="83"/>
       <c r="C58" s="64" t="s">
-        <v>800</v>
-      </c>
-      <c r="D58" s="60"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J58" s="52">
+        <v>787</v>
+      </c>
+      <c r="D58" s="102" t="s">
+        <v>852</v>
+      </c>
+      <c r="E58" s="65">
+        <v>100</v>
+      </c>
+      <c r="F58" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G58" s="52">
         <v>45097</v>
       </c>
-      <c r="K58" s="53"/>
-      <c r="L58" s="52">
-        <v>45106</v>
-      </c>
-      <c r="M58" s="66"/>
-      <c r="N58" s="67"/>
-      <c r="O58" s="67"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B59" s="98"/>
+      <c r="H58" s="52">
+        <v>45098</v>
+      </c>
+      <c r="I58" s="52">
+        <v>45100</v>
+      </c>
+      <c r="J58" s="103">
+        <v>45105</v>
+      </c>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+    </row>
+    <row r="59" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="68">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="84"/>
       <c r="C59" s="64" t="s">
-        <v>801</v>
-      </c>
-      <c r="D59" s="60"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="J59" s="52">
+        <v>788</v>
+      </c>
+      <c r="D59" s="102" t="s">
+        <v>852</v>
+      </c>
+      <c r="E59" s="65">
+        <v>100</v>
+      </c>
+      <c r="F59" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G59" s="52">
         <v>45097</v>
       </c>
-      <c r="K59" s="53"/>
-      <c r="L59" s="52">
-        <v>45106</v>
-      </c>
-      <c r="M59" s="66"/>
-      <c r="N59" s="67"/>
-      <c r="O59" s="67"/>
-    </row>
-    <row r="60" spans="1:15" ht="24" x14ac:dyDescent="0.4">
+      <c r="H59" s="52">
+        <v>45098</v>
+      </c>
+      <c r="I59" s="52">
+        <v>45100</v>
+      </c>
+      <c r="J59" s="103">
+        <v>45105</v>
+      </c>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+    </row>
+    <row r="60" spans="1:12" ht="36" x14ac:dyDescent="0.4">
+      <c r="A60" s="68">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
       <c r="B60" s="56" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="C60" s="56"/>
-      <c r="D60" s="48"/>
+      <c r="D60" s="73" t="s">
+        <v>825</v>
+      </c>
       <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="100" t="s">
-        <v>763</v>
+      <c r="F60" s="70" t="s">
+        <v>756</v>
+      </c>
+      <c r="G60" s="52">
+        <v>45100</v>
+      </c>
+      <c r="H60" s="52">
+        <v>45100</v>
+      </c>
+      <c r="I60" s="52">
+        <v>45100</v>
       </c>
       <c r="J60" s="52">
+        <v>45105</v>
+      </c>
+      <c r="K60" s="55" t="s">
+        <v>827</v>
+      </c>
+      <c r="L60" s="55" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A61" s="68">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="56" t="s">
+        <v>789</v>
+      </c>
+      <c r="C61" s="56"/>
+      <c r="D61" s="73" t="s">
+        <v>813</v>
+      </c>
+      <c r="E61" s="49">
+        <v>100</v>
+      </c>
+      <c r="F61" s="70" t="s">
+        <v>756</v>
+      </c>
+      <c r="G61" s="52">
         <v>45100</v>
       </c>
-      <c r="K60" s="53"/>
-      <c r="L60" s="52">
+      <c r="H61" s="52">
         <v>45100</v>
       </c>
-      <c r="M60" s="53"/>
-      <c r="N60" s="55" t="s">
-        <v>806</v>
-      </c>
-      <c r="O60" s="54"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B61" s="56" t="s">
-        <v>802</v>
-      </c>
-      <c r="C61" s="56"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="100" t="s">
-        <v>763</v>
+      <c r="I61" s="52">
+        <v>45100</v>
       </c>
       <c r="J61" s="52">
-        <v>45100</v>
-      </c>
-      <c r="K61" s="53"/>
-      <c r="L61" s="52">
-        <v>45100</v>
-      </c>
-      <c r="M61" s="53"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+        <v>45103</v>
+      </c>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+    </row>
+    <row r="62" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="68">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
       <c r="B62" s="56"/>
       <c r="C62" s="56"/>
       <c r="D62" s="48"/>
       <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="51"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="53"/>
-      <c r="N62" s="54"/>
-      <c r="O62" s="54"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F62" s="51"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+    </row>
+    <row r="63" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="68">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
       <c r="B63" s="56"/>
       <c r="C63" s="56"/>
       <c r="D63" s="58"/>
       <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="54"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F63" s="51"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="54"/>
+    </row>
+    <row r="64" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="68">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
       <c r="B64" s="56"/>
       <c r="C64" s="56"/>
       <c r="D64" s="48"/>
       <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="51"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="53"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="F64" s="51"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="54"/>
+    </row>
+    <row r="65" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="68">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
       <c r="B65" s="56"/>
       <c r="C65" s="56"/>
       <c r="D65" s="48"/>
       <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="53"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="54"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="F65" s="51"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="54"/>
+    </row>
+    <row r="66" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="68">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
       <c r="B66" s="56"/>
       <c r="C66" s="56"/>
       <c r="D66" s="48"/>
       <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="52"/>
-      <c r="K66" s="52"/>
-      <c r="L66" s="52"/>
-      <c r="M66" s="53"/>
-      <c r="N66" s="54"/>
-      <c r="O66" s="54"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="F66" s="51"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="54"/>
+      <c r="L66" s="54"/>
+    </row>
+    <row r="67" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="68">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
       <c r="D67" s="48"/>
       <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="51"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="52"/>
-      <c r="L67" s="52"/>
-      <c r="M67" s="53"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="F67" s="51"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54"/>
+    </row>
+    <row r="68" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="68">
+        <f t="shared" ref="A68:A69" si="1">ROW()-1</f>
+        <v>67</v>
+      </c>
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
       <c r="D68" s="48"/>
       <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="51"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="52"/>
-      <c r="L68" s="52"/>
-      <c r="M68" s="53"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="54"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="F68" s="51"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="54"/>
+    </row>
+    <row r="69" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="68">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
       <c r="D69" s="48"/>
       <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="52"/>
-      <c r="M69" s="53"/>
-      <c r="N69" s="54"/>
-      <c r="O69" s="54"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="54"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:O51" xr:uid="{8E7929DC-B531-419A-8BB3-4B492C6A9455}"/>
-  <mergeCells count="23">
+  <autoFilter ref="B1:L51" xr:uid="{8E7929DC-B531-419A-8BB3-4B492C6A9455}"/>
+  <mergeCells count="16">
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="B37:B40"/>
     <mergeCell ref="B53:B59"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B26:B36"/>
-    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B28:B36"/>
     <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="B2:B14"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B23:B26"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B41:B47"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="J2:J69">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>$J2=""</formula>
+  <conditionalFormatting sqref="I26 I28:I69 I18:I22 G2:G69">
+    <cfRule type="expression" dxfId="20" priority="16">
+      <formula>$G2=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>$J2&lt;TODAY()</formula>
+    <cfRule type="expression" dxfId="19" priority="17">
+      <formula>$G2&lt;TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
-      <formula>$J2=TODAY()</formula>
+    <cfRule type="expression" dxfId="18" priority="18">
+      <formula>$G2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L15 L18:L69">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$J2=""</formula>
+  <conditionalFormatting sqref="I23 I2:I15">
+    <cfRule type="expression" dxfId="17" priority="13">
+      <formula>$G2=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>$J2&lt;TODAY()</formula>
+    <cfRule type="expression" dxfId="16" priority="14">
+      <formula>$G2&lt;TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
-      <formula>$J2=TODAY()</formula>
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>$G2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16:L17">
+  <conditionalFormatting sqref="I24:I25">
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>$G24=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>$G24&lt;TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$G24=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="expression" dxfId="11" priority="4">
+      <formula>$G27=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="5">
+      <formula>$G27&lt;TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>$G27=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I17">
     <cfRule type="expression" dxfId="8" priority="1">
-      <formula>$J16=""</formula>
+      <formula>$G16=""</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="2">
-      <formula>$J16&lt;TODAY()</formula>
+      <formula>$G16&lt;TODAY()</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="3">
-      <formula>$J16=TODAY()</formula>
+      <formula>$G16=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:H14 F21:H69 E2:E69" xr:uid="{AE3AF69A-B4F7-4B81-A2BD-52A1686AE65E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E69" xr:uid="{AE3AF69A-B4F7-4B81-A2BD-52A1686AE65E}">
       <formula1>"20, 40, 60, 80, 100"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I69" xr:uid="{A42C63AA-A747-4737-B92C-155730460CEA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F69" xr:uid="{A42C63AA-A747-4737-B92C-155730460CEA}">
       <formula1>"Low, Medium, High"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6524,6 +7059,2643 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4075CA63-3640-45D5-AEDC-D7DD43C490C7}">
+  <dimension ref="A1:L53"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="61" customWidth="1"/>
+    <col min="3" max="3" width="29" style="61" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="47" customWidth="1"/>
+    <col min="5" max="6" width="12.375" style="62" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="63" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="63" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="63" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="63" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35" style="47" customWidth="1"/>
+    <col min="12" max="12" width="17.125" style="47" customWidth="1"/>
+    <col min="13" max="16384" width="8.625" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="44" t="s">
+        <v>778</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="68">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>711</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>716</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G2" s="52">
+        <v>45103</v>
+      </c>
+      <c r="H2" s="53"/>
+      <c r="I2" s="52">
+        <f>G2+1</f>
+        <v>45104</v>
+      </c>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="68">
+        <f t="shared" ref="A3:A53" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="48" t="s">
+        <v>717</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G3" s="52">
+        <v>45103</v>
+      </c>
+      <c r="H3" s="53"/>
+      <c r="I3" s="52">
+        <f t="shared" ref="I3:I14" si="1">G3+1</f>
+        <v>45104</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="68">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="48" t="s">
+        <v>718</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="69" t="s">
+        <v>755</v>
+      </c>
+      <c r="G4" s="52">
+        <v>45103</v>
+      </c>
+      <c r="H4" s="53"/>
+      <c r="I4" s="52">
+        <f t="shared" si="1"/>
+        <v>45104</v>
+      </c>
+      <c r="J4" s="53"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="54"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="68">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="48" t="s">
+        <v>719</v>
+      </c>
+      <c r="E5" s="49"/>
+      <c r="F5" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G5" s="52">
+        <v>45103</v>
+      </c>
+      <c r="H5" s="53"/>
+      <c r="I5" s="52">
+        <f t="shared" si="1"/>
+        <v>45104</v>
+      </c>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="68">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="80"/>
+      <c r="C6" s="56" t="s">
+        <v>713</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G6" s="52">
+        <v>45103</v>
+      </c>
+      <c r="H6" s="53"/>
+      <c r="I6" s="52">
+        <f t="shared" si="1"/>
+        <v>45104</v>
+      </c>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="68">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80" t="s">
+        <v>715</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>720</v>
+      </c>
+      <c r="E7" s="49"/>
+      <c r="F7" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G7" s="52">
+        <v>45103</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52">
+        <f t="shared" si="1"/>
+        <v>45104</v>
+      </c>
+      <c r="J7" s="52"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="68">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="58" t="s">
+        <v>721</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G8" s="52">
+        <v>45103</v>
+      </c>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52">
+        <f t="shared" si="1"/>
+        <v>45104</v>
+      </c>
+      <c r="J8" s="52"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="68">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="80"/>
+      <c r="C9" s="56" t="s">
+        <v>714</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>798</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G9" s="52">
+        <v>45103</v>
+      </c>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52">
+        <f t="shared" si="1"/>
+        <v>45104</v>
+      </c>
+      <c r="J9" s="52"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="68">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80" t="s">
+        <v>712</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G10" s="52">
+        <v>45103</v>
+      </c>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52">
+        <f t="shared" si="1"/>
+        <v>45104</v>
+      </c>
+      <c r="J10" s="52"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="68">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="58" t="s">
+        <v>722</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G11" s="52">
+        <v>45103</v>
+      </c>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52">
+        <f t="shared" si="1"/>
+        <v>45104</v>
+      </c>
+      <c r="J11" s="52"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="68">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="58" t="s">
+        <v>723</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G12" s="52">
+        <v>45103</v>
+      </c>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52">
+        <f t="shared" si="1"/>
+        <v>45104</v>
+      </c>
+      <c r="J12" s="52"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="68">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80" t="s">
+        <v>724</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>725</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="F13" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G13" s="52">
+        <v>45103</v>
+      </c>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52">
+        <f t="shared" si="1"/>
+        <v>45104</v>
+      </c>
+      <c r="J13" s="52"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="68">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="48" t="s">
+        <v>726</v>
+      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G14" s="52">
+        <v>45103</v>
+      </c>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52">
+        <f t="shared" si="1"/>
+        <v>45104</v>
+      </c>
+      <c r="J14" s="52"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="68">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>808</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>809</v>
+      </c>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G15" s="52">
+        <v>45105</v>
+      </c>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52">
+        <v>45105</v>
+      </c>
+      <c r="J15" s="52"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="68">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="83"/>
+      <c r="C16" s="64" t="s">
+        <v>810</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G16" s="52">
+        <v>45105</v>
+      </c>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52">
+        <v>45105</v>
+      </c>
+      <c r="J16" s="52"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="68">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="83"/>
+      <c r="C17" s="64" t="s">
+        <v>811</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G17" s="52">
+        <v>45105</v>
+      </c>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52">
+        <v>45105</v>
+      </c>
+      <c r="J17" s="52"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="68">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="84"/>
+      <c r="C18" s="64" t="s">
+        <v>812</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G18" s="52">
+        <v>45105</v>
+      </c>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52">
+        <v>45105</v>
+      </c>
+      <c r="J18" s="52"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="68">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>801</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>782</v>
+      </c>
+      <c r="D19" s="60"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G19" s="52">
+        <v>45106</v>
+      </c>
+      <c r="H19" s="53"/>
+      <c r="I19" s="52">
+        <f t="shared" ref="I19:I25" si="2">G19</f>
+        <v>45106</v>
+      </c>
+      <c r="J19" s="66"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" s="68">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="83"/>
+      <c r="C20" s="64" t="s">
+        <v>783</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G20" s="52">
+        <v>45106</v>
+      </c>
+      <c r="H20" s="53"/>
+      <c r="I20" s="52">
+        <f t="shared" si="2"/>
+        <v>45106</v>
+      </c>
+      <c r="J20" s="66"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="68">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="83"/>
+      <c r="C21" s="64" t="s">
+        <v>784</v>
+      </c>
+      <c r="D21" s="60"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G21" s="52">
+        <v>45106</v>
+      </c>
+      <c r="H21" s="53"/>
+      <c r="I21" s="52">
+        <f t="shared" si="2"/>
+        <v>45106</v>
+      </c>
+      <c r="J21" s="66"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="68">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="83"/>
+      <c r="C22" s="64" t="s">
+        <v>785</v>
+      </c>
+      <c r="D22" s="60"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G22" s="52">
+        <v>45106</v>
+      </c>
+      <c r="H22" s="53"/>
+      <c r="I22" s="52">
+        <f t="shared" si="2"/>
+        <v>45106</v>
+      </c>
+      <c r="J22" s="66"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="83"/>
+      <c r="C23" s="64" t="s">
+        <v>786</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G23" s="52">
+        <v>45106</v>
+      </c>
+      <c r="H23" s="53"/>
+      <c r="I23" s="52">
+        <f t="shared" si="2"/>
+        <v>45106</v>
+      </c>
+      <c r="J23" s="66"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="68">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="83"/>
+      <c r="C24" s="64" t="s">
+        <v>787</v>
+      </c>
+      <c r="D24" s="60"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G24" s="52">
+        <v>45106</v>
+      </c>
+      <c r="H24" s="53"/>
+      <c r="I24" s="52">
+        <f t="shared" si="2"/>
+        <v>45106</v>
+      </c>
+      <c r="J24" s="66"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" s="68">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="84"/>
+      <c r="C25" s="64" t="s">
+        <v>788</v>
+      </c>
+      <c r="D25" s="60"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G25" s="52">
+        <v>45106</v>
+      </c>
+      <c r="H25" s="53"/>
+      <c r="I25" s="52">
+        <f t="shared" si="2"/>
+        <v>45106</v>
+      </c>
+      <c r="J25" s="66"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="68">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="56"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G26" s="52">
+        <v>45110</v>
+      </c>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52">
+        <v>45110</v>
+      </c>
+      <c r="J26" s="53"/>
+      <c r="K26" s="55" t="s">
+        <v>819</v>
+      </c>
+      <c r="L26" s="54"/>
+    </row>
+    <row r="27" spans="1:12" ht="24" x14ac:dyDescent="0.4">
+      <c r="A27" s="68">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>781</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="58" t="s">
+        <v>803</v>
+      </c>
+      <c r="E27" s="49"/>
+      <c r="F27" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G27" s="52">
+        <v>45111</v>
+      </c>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52">
+        <v>45111</v>
+      </c>
+      <c r="J27" s="53"/>
+      <c r="K27" s="55" t="s">
+        <v>819</v>
+      </c>
+      <c r="L27" s="54"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" s="68">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>744</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>745</v>
+      </c>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G28" s="52">
+        <v>45112</v>
+      </c>
+      <c r="H28" s="53"/>
+      <c r="I28" s="52">
+        <v>45112</v>
+      </c>
+      <c r="J28" s="53"/>
+      <c r="K28" s="55" t="s">
+        <v>819</v>
+      </c>
+      <c r="L28" s="54"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29" s="68">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="80"/>
+      <c r="C29" s="56" t="s">
+        <v>746</v>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G29" s="52">
+        <v>45113</v>
+      </c>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52">
+        <v>45113</v>
+      </c>
+      <c r="J29" s="53"/>
+      <c r="K29" s="55" t="s">
+        <v>819</v>
+      </c>
+      <c r="L29" s="54"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30" s="68">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="80"/>
+      <c r="C30" s="56" t="s">
+        <v>747</v>
+      </c>
+      <c r="D30" s="58"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G30" s="52">
+        <v>45114</v>
+      </c>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52">
+        <v>45114</v>
+      </c>
+      <c r="J30" s="53"/>
+      <c r="K30" s="55" t="s">
+        <v>819</v>
+      </c>
+      <c r="L30" s="54"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" s="68">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="80"/>
+      <c r="C31" s="56" t="s">
+        <v>748</v>
+      </c>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G31" s="52">
+        <v>45115</v>
+      </c>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52">
+        <v>45115</v>
+      </c>
+      <c r="J31" s="52"/>
+      <c r="K31" s="55" t="s">
+        <v>819</v>
+      </c>
+      <c r="L31" s="54"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32" s="68">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="80"/>
+      <c r="C32" s="56" t="s">
+        <v>749</v>
+      </c>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G32" s="52">
+        <v>45116</v>
+      </c>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52">
+        <v>45116</v>
+      </c>
+      <c r="J32" s="52"/>
+      <c r="K32" s="55" t="s">
+        <v>819</v>
+      </c>
+      <c r="L32" s="54"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33" s="68">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="80"/>
+      <c r="C33" s="56" t="s">
+        <v>750</v>
+      </c>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G33" s="52">
+        <v>45119</v>
+      </c>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52">
+        <v>45119</v>
+      </c>
+      <c r="J33" s="52"/>
+      <c r="K33" s="55" t="s">
+        <v>819</v>
+      </c>
+      <c r="L33" s="54"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A34" s="68">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="80"/>
+      <c r="C34" s="56" t="s">
+        <v>751</v>
+      </c>
+      <c r="D34" s="48"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G34" s="52">
+        <v>45120</v>
+      </c>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52">
+        <v>45120</v>
+      </c>
+      <c r="J34" s="52"/>
+      <c r="K34" s="55" t="s">
+        <v>819</v>
+      </c>
+      <c r="L34" s="54"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A35" s="68">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="60" t="s">
+        <v>799</v>
+      </c>
+      <c r="D35" s="48"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G35" s="52">
+        <v>45121</v>
+      </c>
+      <c r="H35" s="53"/>
+      <c r="I35" s="52">
+        <v>45121</v>
+      </c>
+      <c r="J35" s="52"/>
+      <c r="K35" s="55" t="s">
+        <v>821</v>
+      </c>
+      <c r="L35" s="54"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A36" s="68">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="80"/>
+      <c r="C36" s="48" t="s">
+        <v>800</v>
+      </c>
+      <c r="D36" s="48"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G36" s="52">
+        <v>45122</v>
+      </c>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52">
+        <v>45122</v>
+      </c>
+      <c r="J36" s="52"/>
+      <c r="K36" s="55" t="s">
+        <v>821</v>
+      </c>
+      <c r="L36" s="54"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A37" s="68">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="80"/>
+      <c r="C37" s="48" t="s">
+        <v>734</v>
+      </c>
+      <c r="D37" s="48"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G37" s="52">
+        <v>45123</v>
+      </c>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52">
+        <v>45123</v>
+      </c>
+      <c r="J37" s="53"/>
+      <c r="K37" s="55" t="s">
+        <v>821</v>
+      </c>
+      <c r="L37" s="54"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A38" s="68">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="80"/>
+      <c r="C38" s="48" t="s">
+        <v>735</v>
+      </c>
+      <c r="D38" s="48"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G38" s="52">
+        <v>45124</v>
+      </c>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52">
+        <v>45124</v>
+      </c>
+      <c r="J38" s="52"/>
+      <c r="K38" s="55" t="s">
+        <v>821</v>
+      </c>
+      <c r="L38" s="54"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A39" s="68">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="80"/>
+      <c r="C39" s="48" t="s">
+        <v>777</v>
+      </c>
+      <c r="D39" s="48"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G39" s="52">
+        <v>45125</v>
+      </c>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52">
+        <v>45125</v>
+      </c>
+      <c r="J39" s="52"/>
+      <c r="K39" s="55" t="s">
+        <v>821</v>
+      </c>
+      <c r="L39" s="54"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A40" s="68">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="80" t="s">
+        <v>851</v>
+      </c>
+      <c r="C40" s="56" t="s">
+        <v>743</v>
+      </c>
+      <c r="D40" s="48"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G40" s="52">
+        <v>45126</v>
+      </c>
+      <c r="H40" s="53"/>
+      <c r="I40" s="52">
+        <v>45126</v>
+      </c>
+      <c r="J40" s="53"/>
+      <c r="K40" s="55" t="s">
+        <v>821</v>
+      </c>
+      <c r="L40" s="54"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A41" s="68">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="80"/>
+      <c r="C41" s="56" t="s">
+        <v>740</v>
+      </c>
+      <c r="D41" s="48"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G41" s="52">
+        <v>45127</v>
+      </c>
+      <c r="H41" s="53"/>
+      <c r="I41" s="52">
+        <v>45127</v>
+      </c>
+      <c r="J41" s="53"/>
+      <c r="K41" s="55" t="s">
+        <v>821</v>
+      </c>
+      <c r="L41" s="54"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A42" s="68">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="80"/>
+      <c r="C42" s="56" t="s">
+        <v>741</v>
+      </c>
+      <c r="D42" s="48"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G42" s="52">
+        <v>45128</v>
+      </c>
+      <c r="H42" s="53"/>
+      <c r="I42" s="52">
+        <v>45128</v>
+      </c>
+      <c r="J42" s="53"/>
+      <c r="K42" s="55" t="s">
+        <v>821</v>
+      </c>
+      <c r="L42" s="54"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A43" s="68">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="80"/>
+      <c r="C43" s="56" t="s">
+        <v>742</v>
+      </c>
+      <c r="D43" s="48"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G43" s="52">
+        <v>45129</v>
+      </c>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52">
+        <v>45129</v>
+      </c>
+      <c r="J43" s="53"/>
+      <c r="K43" s="55" t="s">
+        <v>821</v>
+      </c>
+      <c r="L43" s="54"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A44" s="68">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="81" t="s">
+        <v>772</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>769</v>
+      </c>
+      <c r="D44" s="58"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G44" s="52">
+        <v>45130</v>
+      </c>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52">
+        <v>45130</v>
+      </c>
+      <c r="J44" s="53"/>
+      <c r="K44" s="55" t="s">
+        <v>821</v>
+      </c>
+      <c r="L44" s="54"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A45" s="68">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="81"/>
+      <c r="C45" s="57" t="s">
+        <v>773</v>
+      </c>
+      <c r="D45" s="48"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G45" s="52">
+        <v>45131</v>
+      </c>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52">
+        <v>45131</v>
+      </c>
+      <c r="J45" s="53"/>
+      <c r="K45" s="55" t="s">
+        <v>821</v>
+      </c>
+      <c r="L45" s="54"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A46" s="68">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="56" t="s">
+        <v>752</v>
+      </c>
+      <c r="C46" s="56"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G46" s="52">
+        <v>45105</v>
+      </c>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52">
+        <f>G46+1</f>
+        <v>45106</v>
+      </c>
+      <c r="J46" s="53"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="54"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A47" s="68">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A48" s="68">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A49" s="68">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A50" s="68">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A51" s="68">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A52" s="68">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A53" s="68">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:L45" xr:uid="{8E7929DC-B531-419A-8BB3-4B492C6A9455}"/>
+  <mergeCells count="11">
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C14"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="G2:G53 I2:I53">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$G2=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>$G2&lt;TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>$G2=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F53" xr:uid="{BA019D4E-6873-4145-83F5-55D528834C2F}">
+      <formula1>"Low, Medium, High"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E53" xr:uid="{4B1D95F4-C614-45A3-B947-868F8B42EFE7}">
+      <formula1>"20, 40, 60, 80, 100"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A1E2D0-F13C-42F0-ACCB-00083CB8A327}">
+  <dimension ref="A1:M48"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="61" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="61" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="62" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="62" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="62" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="63" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="63" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="63" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="63" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.875" style="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.625" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" s="44" t="s">
+        <v>778</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="68">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>711</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>716</v>
+      </c>
+      <c r="E2" s="49">
+        <v>100</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="68">
+        <f t="shared" ref="A3:A48" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="48" t="s">
+        <v>717</v>
+      </c>
+      <c r="E3" s="49">
+        <v>100</v>
+      </c>
+      <c r="F3" s="49"/>
+      <c r="G3" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="68">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="48" t="s">
+        <v>718</v>
+      </c>
+      <c r="E4" s="49">
+        <v>100</v>
+      </c>
+      <c r="F4" s="49"/>
+      <c r="G4" s="69" t="s">
+        <v>757</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="54"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="68">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="48" t="s">
+        <v>719</v>
+      </c>
+      <c r="E5" s="49">
+        <v>100</v>
+      </c>
+      <c r="F5" s="49"/>
+      <c r="G5" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" s="68">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="80"/>
+      <c r="C6" s="56" t="s">
+        <v>713</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49">
+        <v>100</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="68">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80" t="s">
+        <v>715</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>720</v>
+      </c>
+      <c r="E7" s="49">
+        <v>100</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" s="68">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="58" t="s">
+        <v>721</v>
+      </c>
+      <c r="E8" s="49">
+        <v>100</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="68">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="80"/>
+      <c r="C9" s="56" t="s">
+        <v>714</v>
+      </c>
+      <c r="D9" s="58"/>
+      <c r="E9" s="49">
+        <v>100</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" s="68">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80" t="s">
+        <v>712</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="49">
+        <v>100</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="68">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="58" t="s">
+        <v>722</v>
+      </c>
+      <c r="E11" s="49">
+        <v>100</v>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="68">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="58" t="s">
+        <v>723</v>
+      </c>
+      <c r="E12" s="49">
+        <v>100</v>
+      </c>
+      <c r="F12" s="49"/>
+      <c r="G12" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="68">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80" t="s">
+        <v>724</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>725</v>
+      </c>
+      <c r="E13" s="49">
+        <v>100</v>
+      </c>
+      <c r="F13" s="49"/>
+      <c r="G13" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" s="68">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="48" t="s">
+        <v>726</v>
+      </c>
+      <c r="E14" s="49">
+        <v>100</v>
+      </c>
+      <c r="F14" s="49"/>
+      <c r="G14" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" s="68">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="68">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>781</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" s="68">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>731</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>732</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>737</v>
+      </c>
+      <c r="E17" s="49">
+        <v>100</v>
+      </c>
+      <c r="F17" s="49"/>
+      <c r="G17" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" s="68">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="80"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="48" t="s">
+        <v>738</v>
+      </c>
+      <c r="E18" s="49">
+        <v>100</v>
+      </c>
+      <c r="F18" s="49"/>
+      <c r="G18" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="54"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" s="68">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="80"/>
+      <c r="C19" s="79" t="s">
+        <v>733</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>737</v>
+      </c>
+      <c r="E19" s="49">
+        <v>100</v>
+      </c>
+      <c r="F19" s="49"/>
+      <c r="G19" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" s="68">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="80"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="48" t="s">
+        <v>738</v>
+      </c>
+      <c r="E20" s="49">
+        <v>100</v>
+      </c>
+      <c r="F20" s="49"/>
+      <c r="G20" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="68">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="80"/>
+      <c r="C21" s="79" t="s">
+        <v>734</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>737</v>
+      </c>
+      <c r="E21" s="49">
+        <v>100</v>
+      </c>
+      <c r="F21" s="49"/>
+      <c r="G21" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H21" s="52"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" s="68">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="80"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="48" t="s">
+        <v>738</v>
+      </c>
+      <c r="E22" s="49">
+        <v>100</v>
+      </c>
+      <c r="F22" s="49"/>
+      <c r="G22" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" s="68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="80"/>
+      <c r="C23" s="79" t="s">
+        <v>735</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>737</v>
+      </c>
+      <c r="E23" s="49">
+        <v>100</v>
+      </c>
+      <c r="F23" s="49"/>
+      <c r="G23" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" s="68">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="80"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="48" t="s">
+        <v>738</v>
+      </c>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="54"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" s="68">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80" t="s">
+        <v>736</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>737</v>
+      </c>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="51" t="s">
+        <v>790</v>
+      </c>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" s="68">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="48" t="s">
+        <v>738</v>
+      </c>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" s="68">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="80"/>
+      <c r="C27" s="82" t="s">
+        <v>777</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>737</v>
+      </c>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="54"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" s="68">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="80"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="48" t="s">
+        <v>738</v>
+      </c>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="54"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" s="68">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>739</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>743</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49">
+        <v>100</v>
+      </c>
+      <c r="F29" s="49"/>
+      <c r="G29" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="54"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A30" s="68">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="80"/>
+      <c r="C30" s="48" t="s">
+        <v>740</v>
+      </c>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A31" s="68">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="80"/>
+      <c r="C31" s="56" t="s">
+        <v>741</v>
+      </c>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" s="68">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="80"/>
+      <c r="C32" s="56" t="s">
+        <v>742</v>
+      </c>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="54"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" s="68">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>744</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>745</v>
+      </c>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49">
+        <v>100</v>
+      </c>
+      <c r="F33" s="49"/>
+      <c r="G33" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="54"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A34" s="68">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="80"/>
+      <c r="C34" s="56" t="s">
+        <v>746</v>
+      </c>
+      <c r="D34" s="58"/>
+      <c r="E34" s="49">
+        <v>100</v>
+      </c>
+      <c r="F34" s="49"/>
+      <c r="G34" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" s="68">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="80"/>
+      <c r="C35" s="56" t="s">
+        <v>747</v>
+      </c>
+      <c r="D35" s="58"/>
+      <c r="E35" s="49">
+        <v>100</v>
+      </c>
+      <c r="F35" s="49"/>
+      <c r="G35" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" s="68">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="80"/>
+      <c r="C36" s="56" t="s">
+        <v>748</v>
+      </c>
+      <c r="D36" s="48"/>
+      <c r="E36" s="49">
+        <v>100</v>
+      </c>
+      <c r="F36" s="49"/>
+      <c r="G36" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="54"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" s="68">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="80"/>
+      <c r="C37" s="56" t="s">
+        <v>749</v>
+      </c>
+      <c r="D37" s="48"/>
+      <c r="E37" s="49">
+        <v>100</v>
+      </c>
+      <c r="F37" s="49"/>
+      <c r="G37" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" s="68">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="80"/>
+      <c r="C38" s="56" t="s">
+        <v>750</v>
+      </c>
+      <c r="D38" s="48"/>
+      <c r="E38" s="49">
+        <v>100</v>
+      </c>
+      <c r="F38" s="49"/>
+      <c r="G38" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39" s="68">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="80"/>
+      <c r="C39" s="56" t="s">
+        <v>751</v>
+      </c>
+      <c r="D39" s="48"/>
+      <c r="E39" s="49">
+        <v>100</v>
+      </c>
+      <c r="F39" s="49"/>
+      <c r="G39" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="54"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" s="68">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="56" t="s">
+        <v>752</v>
+      </c>
+      <c r="C40" s="56" t="s">
+        <v>753</v>
+      </c>
+      <c r="D40" s="58"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="54"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" s="68">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" s="68">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" s="68">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" s="68">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" s="68">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" s="68">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A47" s="68">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A48" s="68">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:M40" xr:uid="{8E7929DC-B531-419A-8BB3-4B492C6A9455}"/>
+  <mergeCells count="14">
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B17:B28"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C14"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="H2:H48 J2:J48">
+    <cfRule type="expression" dxfId="2" priority="7">
+      <formula>$H2=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>$H2&lt;TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>$H2=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F48" xr:uid="{BA25CF33-D1FA-4181-8129-2732E0A120EB}">
+      <formula1>"20, 40, 60, 80, 100"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G48" xr:uid="{7D0A4D4A-14A6-42E5-8ABE-23C23E29A42E}">
+      <formula1>"Low, Medium, High"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBC6241-952D-451D-ACB1-930264AC8260}">
   <dimension ref="B2:R106"/>
   <sheetViews>
@@ -6592,7 +9764,7 @@
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -6616,7 +9788,7 @@
       <c r="O3" s="14"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B4" s="80"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -6642,7 +9814,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B5" s="80"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -6668,7 +9840,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B6" s="80"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -6694,7 +9866,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B7" s="80"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
@@ -6716,7 +9888,7 @@
       <c r="O7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="93" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="81"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
@@ -6748,7 +9920,7 @@
       <c r="O8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="89" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -6782,7 +9954,7 @@
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="80"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="1" t="s">
         <v>62</v>
       </c>
@@ -6814,7 +9986,7 @@
       <c r="O10" s="14"/>
     </row>
     <row r="11" spans="2:18" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="100" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -6848,7 +10020,7 @@
       <c r="O11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="83"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
@@ -6880,7 +10052,7 @@
       <c r="O12" s="14"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B13" s="83"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
@@ -6910,7 +10082,7 @@
       <c r="O13" s="14"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="89" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -6942,7 +10114,7 @@
       <c r="O14" s="14"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B15" s="80"/>
+      <c r="B15" s="90"/>
       <c r="C15" s="1" t="s">
         <v>66</v>
       </c>
@@ -6972,7 +10144,7 @@
       <c r="O15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B16" s="80"/>
+      <c r="B16" s="90"/>
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
@@ -7004,7 +10176,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B17" s="80"/>
+      <c r="B17" s="90"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -7036,8 +10208,8 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="80"/>
-      <c r="C18" s="73" t="s">
+      <c r="B18" s="90"/>
+      <c r="C18" s="92" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -7068,8 +10240,8 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="80"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="94"/>
       <c r="D19" s="14" t="s">
         <v>47</v>
       </c>
@@ -7098,8 +10270,8 @@
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B20" s="80"/>
-      <c r="C20" s="74"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="94"/>
       <c r="D20" s="14" t="s">
         <v>48</v>
       </c>
@@ -7128,8 +10300,8 @@
       <c r="O20" s="14"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="80"/>
-      <c r="C21" s="74"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="14" t="s">
         <v>49</v>
       </c>
@@ -7158,8 +10330,8 @@
       <c r="O21" s="14"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="80"/>
-      <c r="C22" s="74"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="94"/>
       <c r="D22" s="22" t="s">
         <v>50</v>
       </c>
@@ -7188,8 +10360,8 @@
       <c r="O22" s="14"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="80"/>
-      <c r="C23" s="74"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="94"/>
       <c r="D23" s="14" t="s">
         <v>51</v>
       </c>
@@ -7218,8 +10390,8 @@
       <c r="O23" s="14"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="80"/>
-      <c r="C24" s="74"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="94"/>
       <c r="D24" s="14" t="s">
         <v>52</v>
       </c>
@@ -7248,8 +10420,8 @@
       <c r="O24" s="14"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B25" s="80"/>
-      <c r="C25" s="75"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="93"/>
       <c r="D25" s="14" t="s">
         <v>53</v>
       </c>
@@ -7278,7 +10450,7 @@
       <c r="O25" s="14"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="89" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -7304,7 +10476,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B27" s="80"/>
+      <c r="B27" s="90"/>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
@@ -7328,7 +10500,7 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B28" s="79" t="s">
+      <c r="B28" s="89" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -7358,7 +10530,7 @@
       <c r="O28" s="14"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B29" s="80"/>
+      <c r="B29" s="90"/>
       <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
@@ -7386,8 +10558,8 @@
       <c r="O29" s="14"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B30" s="80"/>
-      <c r="C30" s="73" t="s">
+      <c r="B30" s="90"/>
+      <c r="C30" s="92" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -7416,8 +10588,8 @@
       <c r="O30" s="14"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B31" s="80"/>
-      <c r="C31" s="74"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="94"/>
       <c r="D31" s="14"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -7432,8 +10604,8 @@
       <c r="O31" s="14"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B32" s="81"/>
-      <c r="C32" s="75"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="93"/>
       <c r="D32" s="14"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -7448,7 +10620,7 @@
       <c r="O32" s="14"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="89" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -7474,7 +10646,7 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B34" s="80"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="14" t="s">
         <v>39</v>
       </c>
@@ -7498,7 +10670,7 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B35" s="80"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="14" t="s">
         <v>40</v>
       </c>
@@ -7522,8 +10694,8 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B36" s="80"/>
-      <c r="C36" s="76" t="s">
+      <c r="B36" s="90"/>
+      <c r="C36" s="97" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="14"/>
@@ -7546,8 +10718,8 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B37" s="80"/>
-      <c r="C37" s="77"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="98"/>
       <c r="D37" s="14"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
@@ -7568,8 +10740,8 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B38" s="81"/>
-      <c r="C38" s="78"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="99"/>
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
@@ -7658,10 +10830,10 @@
       <c r="O41" s="10"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="84" t="s">
+      <c r="C42" s="86" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -7692,8 +10864,8 @@
       <c r="O42" s="14"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B43" s="80"/>
-      <c r="C43" s="86"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="88"/>
       <c r="D43" s="14" t="s">
         <v>31</v>
       </c>
@@ -7722,8 +10894,8 @@
       <c r="O43" s="14"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B44" s="80"/>
-      <c r="C44" s="73"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="92"/>
       <c r="D44" s="14" t="s">
         <v>34</v>
       </c>
@@ -7752,8 +10924,8 @@
       <c r="O44" s="14"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B45" s="81"/>
-      <c r="C45" s="75"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="93"/>
       <c r="D45" s="14" t="s">
         <v>31</v>
       </c>
@@ -7782,7 +10954,7 @@
       <c r="O45" s="14"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="89" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -7804,7 +10976,7 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B47" s="80"/>
+      <c r="B47" s="90"/>
       <c r="C47" s="1" t="s">
         <v>76</v>
       </c>
@@ -7824,7 +10996,7 @@
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B48" s="80"/>
+      <c r="B48" s="90"/>
       <c r="C48" s="1" t="s">
         <v>77</v>
       </c>
@@ -7844,7 +11016,7 @@
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B49" s="80"/>
+      <c r="B49" s="90"/>
       <c r="C49" s="1" t="s">
         <v>78</v>
       </c>
@@ -7864,7 +11036,7 @@
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B50" s="81"/>
+      <c r="B50" s="91"/>
       <c r="C50" s="1" t="s">
         <v>79</v>
       </c>
@@ -7884,10 +11056,10 @@
       </c>
     </row>
     <row r="51" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="79" t="s">
+      <c r="B51" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="84" t="s">
+      <c r="C51" s="86" t="s">
         <v>84</v>
       </c>
       <c r="D51" s="14" t="s">
@@ -7908,8 +11080,8 @@
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B52" s="80"/>
-      <c r="C52" s="85"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="87"/>
       <c r="D52" s="14" t="s">
         <v>86</v>
       </c>
@@ -7928,8 +11100,8 @@
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B53" s="81"/>
-      <c r="C53" s="86"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="88"/>
       <c r="D53" s="14" t="s">
         <v>87</v>
       </c>
@@ -8013,7 +11185,7 @@
     </row>
     <row r="57" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="6"/>
-      <c r="C57" s="87" t="s">
+      <c r="C57" s="95" t="s">
         <v>93</v>
       </c>
       <c r="D57" s="14" t="s">
@@ -8035,7 +11207,7 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B58" s="6"/>
-      <c r="C58" s="88"/>
+      <c r="C58" s="96"/>
       <c r="D58" s="14" t="s">
         <v>95</v>
       </c>
@@ -8266,7 +11438,7 @@
       <c r="M69" s="6"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.4">
@@ -8286,7 +11458,7 @@
       <c r="M70" s="6"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="71" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
@@ -8346,7 +11518,7 @@
       <c r="M73" s="6"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.4">
@@ -8420,7 +11592,7 @@
       <c r="M77" s="6"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="78" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
@@ -8461,7 +11633,7 @@
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B80" s="6"/>
-      <c r="C80" s="73" t="s">
+      <c r="C80" s="92" t="s">
         <v>114</v>
       </c>
       <c r="D80" s="14" t="s">
@@ -8483,7 +11655,7 @@
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B81" s="6"/>
-      <c r="C81" s="74"/>
+      <c r="C81" s="94"/>
       <c r="D81" s="14" t="s">
         <v>95</v>
       </c>
@@ -8503,7 +11675,7 @@
     </row>
     <row r="82" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B82" s="6"/>
-      <c r="C82" s="75"/>
+      <c r="C82" s="93"/>
       <c r="D82" s="21" t="s">
         <v>115</v>
       </c>
@@ -8636,12 +11808,12 @@
       <c r="M88" s="31"/>
       <c r="N88" s="43"/>
       <c r="O88" s="43" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
     </row>
     <row r="89" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="6"/>
-      <c r="C89" s="84" t="s">
+      <c r="C89" s="86" t="s">
         <v>133</v>
       </c>
       <c r="D89" s="24" t="s">
@@ -8658,12 +11830,12 @@
       <c r="M89" s="6"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B90" s="6"/>
-      <c r="C90" s="85"/>
+      <c r="C90" s="87"/>
       <c r="D90" s="24" t="s">
         <v>136</v>
       </c>
@@ -8678,12 +11850,12 @@
       <c r="M90" s="6"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B91" s="6"/>
-      <c r="C91" s="85"/>
+      <c r="C91" s="87"/>
       <c r="D91" s="24" t="s">
         <v>135</v>
       </c>
@@ -8698,12 +11870,12 @@
       <c r="M91" s="6"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B92" s="6"/>
-      <c r="C92" s="86"/>
+      <c r="C92" s="88"/>
       <c r="D92" s="28" t="s">
         <v>137</v>
       </c>
@@ -8736,13 +11908,13 @@
       <c r="M93" s="6"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B94" s="6"/>
       <c r="C94" s="1" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="D94" s="28"/>
       <c r="E94" s="9"/>
@@ -8762,7 +11934,7 @@
     <row r="95" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B95" s="6"/>
       <c r="C95" s="1" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="D95" s="28"/>
       <c r="E95" s="9"/>
@@ -8782,7 +11954,7 @@
     <row r="96" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B96" s="6"/>
       <c r="C96" s="1" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="D96" s="28"/>
       <c r="E96" s="9"/>
@@ -8962,15 +12134,6 @@
   </sheetData>
   <autoFilter ref="I2:I47" xr:uid="{6EBC6241-952D-451D-ACB1-930264AC8260}"/>
   <mergeCells count="19">
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="C57:C58"/>
     <mergeCell ref="C18:C25"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="C36:C38"/>
@@ -8981,13 +12144,22 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="C57:C58"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6544F728-6876-4DC6-84A9-13CA4AE87413}">
   <dimension ref="A1:I241"/>
   <sheetViews>
@@ -14561,7 +17733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5902ED06-4044-4268-BD1B-DE91FEC3CF78}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14576,11 +17748,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A18756-65AB-42E0-9D80-EAE146D8DE1C}">
   <dimension ref="B2:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>

--- a/2.スケジュール/スケジュール.xlsx
+++ b/2.スケジュール/スケジュール.xlsx
@@ -1,31 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\GitHub\Rootstock_SC\2.スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AB1B06-9532-4EF6-9566-04DB204B4A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D300A26F-BB76-4B5E-B7DA-6976E23528BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC3888E-2072-4F01-B82D-11B88CE59715}"/>
+    <workbookView xWindow="-28920" yWindow="-2985" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6CC3888E-2072-4F01-B82D-11B88CE59715}"/>
   </bookViews>
   <sheets>
-    <sheet name="タスク一覧(SC Sandbox)" sheetId="7" r:id="rId1"/>
-    <sheet name="タスク一覧 (SC Prod)" sheetId="8" r:id="rId2"/>
-    <sheet name="タスク一覧 (ITPL New Company)" sheetId="9" r:id="rId3"/>
-    <sheet name="自分メモ" sheetId="1" r:id="rId4"/>
-    <sheet name="GL Account" sheetId="3" r:id="rId5"/>
-    <sheet name="SubLedger Account" sheetId="4" r:id="rId6"/>
-    <sheet name="Template" sheetId="5" r:id="rId7"/>
+    <sheet name="タスク‐一覧" sheetId="11" r:id="rId1"/>
+    <sheet name="タスク一覧(SC Sandbox)" sheetId="7" r:id="rId2"/>
+    <sheet name="SC Sandbox" sheetId="10" r:id="rId3"/>
+    <sheet name="SC Prod" sheetId="8" r:id="rId4"/>
+    <sheet name="ITPL New Company" sheetId="9" r:id="rId5"/>
+    <sheet name="自分メモ" sheetId="1" r:id="rId6"/>
+    <sheet name="GL Account" sheetId="3" r:id="rId7"/>
+    <sheet name="SubLedger Account" sheetId="4" r:id="rId8"/>
+    <sheet name="Template" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'タスク一覧 (ITPL New Company)'!$B$1:$M$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'タスク一覧 (SC Prod)'!$B$1:$L$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'タスク一覧(SC Sandbox)'!$B$1:$L$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">自分メモ!$I$2:$I$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ITPL New Company'!$B$1:$M$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'SC Prod'!$B$1:$L$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SC Sandbox'!$B$1:$L$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'タスク一覧(SC Sandbox)'!$B$1:$L$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">自分メモ!$I$2:$I$47</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="860">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -3526,13 +3529,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>二時間</t>
-    <rPh sb="0" eb="3">
-      <t>ニジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">・ディビジョンマスタシートにメインサイトを確認
 ・組織部門シートに勘定科目を更新
 ・サイトマスタシートに番号と明細を更新
@@ -3646,13 +3642,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>四時間</t>
-    <rPh sb="0" eb="3">
-      <t>ヨンジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ファイル名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -3926,6 +3915,95 @@
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SendMail機能を動けるのを確認</t>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SendMail機能を動けるのを確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>清水さんが担当</t>
+    <rPh sb="0" eb="2">
+      <t>シミズ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システムセットアップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マニュアルを作成します
+RSシステム設定Step一覧.xlsxファイルに各ステップの詳しく画面と動作をキャプチャで作成します。</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RSシステム設定Step一覧.xlsxファイルに各ステップの詳しく画面と動作をキャプチャで作成します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SC様にマスター情報確認用の一覧資料を作成</t>
+    <rPh sb="2" eb="3">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>倉庫ユーザー向け機能制限</t>
   </si>
 </sst>
 </file>
@@ -4206,7 +4284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4444,6 +4522,18 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4466,13 +4556,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4483,14 +4582,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4498,34 +4603,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="桁区切り" xfId="2" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -5029,14 +5209,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5D47C9-8A89-4AEE-9070-3D1315CCA910}">
+  <dimension ref="B3:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>859</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7929DC-B531-419A-8BB3-4B492C6A9455}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K55" sqref="K55"/>
+      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -5089,7 +5309,7 @@
         <v>5</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.4">
@@ -5097,10 +5317,10 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="84" t="s">
         <v>711</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="48" t="s">
@@ -5118,7 +5338,7 @@
       <c r="J2" s="76"/>
       <c r="K2" s="74"/>
       <c r="L2" s="55" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -5126,8 +5346,8 @@
         <f t="shared" ref="A3:A67" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
       <c r="D3" s="48" t="s">
         <v>717</v>
       </c>
@@ -5143,7 +5363,7 @@
       <c r="J3" s="76"/>
       <c r="K3" s="74"/>
       <c r="L3" s="55" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -5151,8 +5371,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="48" t="s">
         <v>718</v>
       </c>
@@ -5168,7 +5388,7 @@
       <c r="J4" s="76"/>
       <c r="K4" s="74"/>
       <c r="L4" s="55" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -5176,8 +5396,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="48" t="s">
         <v>719</v>
       </c>
@@ -5193,7 +5413,7 @@
       <c r="J5" s="76"/>
       <c r="K5" s="74"/>
       <c r="L5" s="55" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -5201,7 +5421,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="56" t="s">
         <v>713</v>
       </c>
@@ -5218,7 +5438,7 @@
       <c r="J6" s="76"/>
       <c r="K6" s="74"/>
       <c r="L6" s="55" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -5226,8 +5446,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80" t="s">
+      <c r="B7" s="84"/>
+      <c r="C7" s="84" t="s">
         <v>715</v>
       </c>
       <c r="D7" s="57" t="s">
@@ -5245,7 +5465,7 @@
       <c r="J7" s="75"/>
       <c r="K7" s="74"/>
       <c r="L7" s="55" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -5253,8 +5473,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="58" t="s">
         <v>721</v>
       </c>
@@ -5270,7 +5490,7 @@
       <c r="J8" s="75"/>
       <c r="K8" s="74"/>
       <c r="L8" s="55" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -5278,7 +5498,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="80"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="56" t="s">
         <v>714</v>
       </c>
@@ -5297,7 +5517,7 @@
       <c r="J9" s="75"/>
       <c r="K9" s="74"/>
       <c r="L9" s="55" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -5305,8 +5525,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="84" t="s">
         <v>712</v>
       </c>
       <c r="D10" s="48" t="s">
@@ -5324,7 +5544,7 @@
       <c r="J10" s="75"/>
       <c r="K10" s="74"/>
       <c r="L10" s="55" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -5332,8 +5552,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="58" t="s">
         <v>722</v>
       </c>
@@ -5349,7 +5569,7 @@
       <c r="J11" s="75"/>
       <c r="K11" s="74"/>
       <c r="L11" s="55" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -5357,8 +5577,8 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="58" t="s">
         <v>723</v>
       </c>
@@ -5374,7 +5594,7 @@
       <c r="J12" s="75"/>
       <c r="K12" s="74"/>
       <c r="L12" s="55" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -5382,8 +5602,8 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80" t="s">
+      <c r="B13" s="84"/>
+      <c r="C13" s="84" t="s">
         <v>724</v>
       </c>
       <c r="D13" s="48" t="s">
@@ -5401,7 +5621,7 @@
       <c r="J13" s="75"/>
       <c r="K13" s="74"/>
       <c r="L13" s="55" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -5409,8 +5629,8 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="48" t="s">
         <v>726</v>
       </c>
@@ -5426,7 +5646,7 @@
       <c r="J14" s="75"/>
       <c r="K14" s="74"/>
       <c r="L14" s="55" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -5434,11 +5654,11 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="84" t="s">
         <v>727</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D15" s="48"/>
       <c r="E15" s="49">
@@ -5463,7 +5683,7 @@
         <v>806</v>
       </c>
       <c r="L15" s="55" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="36" x14ac:dyDescent="0.4">
@@ -5471,7 +5691,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="80"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="56" t="s">
         <v>728</v>
       </c>
@@ -5498,7 +5718,7 @@
         <v>804</v>
       </c>
       <c r="L16" s="55" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
@@ -5506,7 +5726,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="80"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="56" t="s">
         <v>729</v>
       </c>
@@ -5533,7 +5753,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="80"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="56" t="s">
         <v>730</v>
       </c>
@@ -5560,7 +5780,7 @@
         <v>805</v>
       </c>
       <c r="L18" s="55" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -5568,7 +5788,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="80"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="56" t="s">
         <v>791</v>
       </c>
@@ -5595,9 +5815,9 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="80"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="56" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D20" s="73"/>
       <c r="E20" s="49"/>
@@ -5610,7 +5830,7 @@
       <c r="J20" s="52"/>
       <c r="K20" s="54"/>
       <c r="L20" s="55" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -5618,9 +5838,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="80"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="56" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D21" s="73"/>
       <c r="E21" s="49">
@@ -5635,7 +5855,7 @@
       <c r="J21" s="52"/>
       <c r="K21" s="54"/>
       <c r="L21" s="55" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -5643,12 +5863,12 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="80"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="56" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D22" s="73" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="51" t="s">
@@ -5670,14 +5890,14 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="80" t="s">
-        <v>837</v>
+      <c r="B23" s="84" t="s">
+        <v>835</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E23" s="49">
         <v>100</v>
@@ -5697,12 +5917,12 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="80"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="56" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E24" s="49">
         <v>100</v>
@@ -5722,12 +5942,12 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="80"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="56" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D25" s="78" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E25" s="49">
         <v>100</v>
@@ -5747,12 +5967,12 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="80"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="56" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="78" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E26" s="49">
         <v>100</v>
@@ -5773,11 +5993,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C27" s="56"/>
       <c r="D27" s="58" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E27" s="49">
         <v>100</v>
@@ -5797,10 +6017,10 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="81" t="s">
-        <v>829</v>
-      </c>
-      <c r="C28" s="79" t="s">
+      <c r="B28" s="85" t="s">
+        <v>827</v>
+      </c>
+      <c r="C28" s="83" t="s">
         <v>732</v>
       </c>
       <c r="D28" s="48" t="s">
@@ -5826,8 +6046,8 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="80"/>
-      <c r="C29" s="79"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="83"/>
       <c r="D29" s="48" t="s">
         <v>738</v>
       </c>
@@ -5857,8 +6077,8 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="80"/>
-      <c r="C30" s="85" t="s">
+      <c r="B30" s="84"/>
+      <c r="C30" s="89" t="s">
         <v>794</v>
       </c>
       <c r="D30" s="48" t="s">
@@ -5884,8 +6104,8 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="79"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="83"/>
       <c r="D31" s="58" t="s">
         <v>795</v>
       </c>
@@ -5917,8 +6137,8 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="79" t="s">
+      <c r="B32" s="84"/>
+      <c r="C32" s="83" t="s">
         <v>734</v>
       </c>
       <c r="D32" s="48" t="s">
@@ -5944,8 +6164,8 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="79"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="48" t="s">
         <v>738</v>
       </c>
@@ -5977,8 +6197,8 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="79" t="s">
+      <c r="B34" s="84"/>
+      <c r="C34" s="83" t="s">
         <v>735</v>
       </c>
       <c r="D34" s="48" t="s">
@@ -6004,8 +6224,8 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="79"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="83"/>
       <c r="D35" s="48" t="s">
         <v>738</v>
       </c>
@@ -6035,7 +6255,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="80"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="48" t="s">
         <v>777</v>
       </c>
@@ -6068,8 +6288,8 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="81" t="s">
-        <v>828</v>
+      <c r="B37" s="85" t="s">
+        <v>826</v>
       </c>
       <c r="C37" s="56" t="s">
         <v>743</v>
@@ -6101,7 +6321,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="80"/>
+      <c r="B38" s="84"/>
       <c r="C38" s="56" t="s">
         <v>740</v>
       </c>
@@ -6126,7 +6346,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="80"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="56" t="s">
         <v>741</v>
       </c>
@@ -6151,7 +6371,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="80"/>
+      <c r="B40" s="84"/>
       <c r="C40" s="57" t="s">
         <v>742</v>
       </c>
@@ -6184,14 +6404,14 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="84" t="s">
         <v>744</v>
       </c>
       <c r="C41" s="56" t="s">
         <v>745</v>
       </c>
       <c r="D41" s="58" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E41" s="49">
         <v>80</v>
@@ -6211,7 +6431,7 @@
         <v>767</v>
       </c>
       <c r="L41" s="55" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -6219,7 +6439,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="80"/>
+      <c r="B42" s="84"/>
       <c r="C42" s="56" t="s">
         <v>746</v>
       </c>
@@ -6236,7 +6456,7 @@
       <c r="J42" s="53"/>
       <c r="K42" s="54"/>
       <c r="L42" s="55" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -6244,7 +6464,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="80"/>
+      <c r="B43" s="84"/>
       <c r="C43" s="56" t="s">
         <v>747</v>
       </c>
@@ -6263,7 +6483,7 @@
         <v>758</v>
       </c>
       <c r="L43" s="55" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -6271,12 +6491,12 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="80"/>
+      <c r="B44" s="84"/>
       <c r="C44" s="56" t="s">
         <v>748</v>
       </c>
       <c r="D44" s="58" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E44" s="49">
         <v>80</v>
@@ -6296,7 +6516,7 @@
         <v>766</v>
       </c>
       <c r="L44" s="55" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -6304,7 +6524,7 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="80"/>
+      <c r="B45" s="84"/>
       <c r="C45" s="56" t="s">
         <v>749</v>
       </c>
@@ -6321,7 +6541,7 @@
       <c r="J45" s="52"/>
       <c r="K45" s="54"/>
       <c r="L45" s="55" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -6329,7 +6549,7 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="80"/>
+      <c r="B46" s="84"/>
       <c r="C46" s="56" t="s">
         <v>750</v>
       </c>
@@ -6346,7 +6566,7 @@
       <c r="J46" s="52"/>
       <c r="K46" s="54"/>
       <c r="L46" s="55" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -6354,7 +6574,7 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="80"/>
+      <c r="B47" s="84"/>
       <c r="C47" s="56" t="s">
         <v>751</v>
       </c>
@@ -6375,7 +6595,7 @@
         <v>759</v>
       </c>
       <c r="L47" s="55" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="211.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -6390,7 +6610,7 @@
         <v>753</v>
       </c>
       <c r="D48" s="73" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E48" s="49">
         <v>80</v>
@@ -6410,7 +6630,7 @@
         <v>754</v>
       </c>
       <c r="L48" s="55" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -6418,7 +6638,7 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="81" t="s">
+      <c r="B49" s="85" t="s">
         <v>772</v>
       </c>
       <c r="C49" s="56" t="s">
@@ -6447,7 +6667,7 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="81"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="57" t="s">
         <v>773</v>
       </c>
@@ -6538,14 +6758,14 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="82" t="s">
+      <c r="B53" s="86" t="s">
         <v>780</v>
       </c>
       <c r="C53" s="64" t="s">
         <v>782</v>
       </c>
-      <c r="D53" s="102" t="s">
-        <v>852</v>
+      <c r="D53" s="79" t="s">
+        <v>850</v>
       </c>
       <c r="E53" s="65">
         <v>100</v>
@@ -6562,7 +6782,7 @@
       <c r="I53" s="52">
         <v>45100</v>
       </c>
-      <c r="J53" s="103">
+      <c r="J53" s="80">
         <v>45105</v>
       </c>
       <c r="K53" s="67"/>
@@ -6573,12 +6793,12 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="83"/>
+      <c r="B54" s="87"/>
       <c r="C54" s="64" t="s">
         <v>783</v>
       </c>
-      <c r="D54" s="102" t="s">
-        <v>852</v>
+      <c r="D54" s="79" t="s">
+        <v>850</v>
       </c>
       <c r="E54" s="65">
         <v>100</v>
@@ -6595,7 +6815,7 @@
       <c r="I54" s="52">
         <v>45100</v>
       </c>
-      <c r="J54" s="103">
+      <c r="J54" s="80">
         <v>45105</v>
       </c>
       <c r="K54" s="67"/>
@@ -6606,12 +6826,12 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="83"/>
+      <c r="B55" s="87"/>
       <c r="C55" s="64" t="s">
         <v>784</v>
       </c>
-      <c r="D55" s="102" t="s">
-        <v>852</v>
+      <c r="D55" s="79" t="s">
+        <v>850</v>
       </c>
       <c r="E55" s="65">
         <v>100</v>
@@ -6628,7 +6848,7 @@
       <c r="I55" s="52">
         <v>45100</v>
       </c>
-      <c r="J55" s="103">
+      <c r="J55" s="80">
         <v>45105</v>
       </c>
       <c r="K55" s="67"/>
@@ -6639,12 +6859,12 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="83"/>
+      <c r="B56" s="87"/>
       <c r="C56" s="64" t="s">
         <v>785</v>
       </c>
-      <c r="D56" s="102" t="s">
-        <v>852</v>
+      <c r="D56" s="79" t="s">
+        <v>850</v>
       </c>
       <c r="E56" s="65">
         <v>100</v>
@@ -6661,7 +6881,7 @@
       <c r="I56" s="52">
         <v>45100</v>
       </c>
-      <c r="J56" s="103">
+      <c r="J56" s="80">
         <v>45105</v>
       </c>
       <c r="K56" s="67"/>
@@ -6672,12 +6892,12 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="83"/>
+      <c r="B57" s="87"/>
       <c r="C57" s="64" t="s">
         <v>786</v>
       </c>
-      <c r="D57" s="102" t="s">
-        <v>852</v>
+      <c r="D57" s="79" t="s">
+        <v>850</v>
       </c>
       <c r="E57" s="65">
         <v>100</v>
@@ -6694,7 +6914,7 @@
       <c r="I57" s="52">
         <v>45100</v>
       </c>
-      <c r="J57" s="103">
+      <c r="J57" s="80">
         <v>45105</v>
       </c>
       <c r="K57" s="67"/>
@@ -6705,12 +6925,12 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="83"/>
+      <c r="B58" s="87"/>
       <c r="C58" s="64" t="s">
         <v>787</v>
       </c>
-      <c r="D58" s="102" t="s">
-        <v>852</v>
+      <c r="D58" s="79" t="s">
+        <v>850</v>
       </c>
       <c r="E58" s="65">
         <v>100</v>
@@ -6727,7 +6947,7 @@
       <c r="I58" s="52">
         <v>45100</v>
       </c>
-      <c r="J58" s="103">
+      <c r="J58" s="80">
         <v>45105</v>
       </c>
       <c r="K58" s="67"/>
@@ -6738,12 +6958,12 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="84"/>
+      <c r="B59" s="88"/>
       <c r="C59" s="64" t="s">
         <v>788</v>
       </c>
-      <c r="D59" s="102" t="s">
-        <v>852</v>
+      <c r="D59" s="79" t="s">
+        <v>850</v>
       </c>
       <c r="E59" s="65">
         <v>100</v>
@@ -6760,7 +6980,7 @@
       <c r="I59" s="52">
         <v>45100</v>
       </c>
-      <c r="J59" s="103">
+      <c r="J59" s="80">
         <v>45105</v>
       </c>
       <c r="K59" s="67"/>
@@ -6776,7 +6996,7 @@
       </c>
       <c r="C60" s="56"/>
       <c r="D60" s="73" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E60" s="49"/>
       <c r="F60" s="70" t="s">
@@ -6795,10 +7015,10 @@
         <v>45105</v>
       </c>
       <c r="K60" s="55" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="L60" s="55" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
@@ -6991,57 +7211,57 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="I26 I28:I69 I18:I22 G2:G69">
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="32" priority="16">
       <formula>$G2=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="31" priority="17">
       <formula>$G2&lt;TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="30" priority="18">
       <formula>$G2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23 I2:I15">
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="29" priority="13">
       <formula>$G2=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="28" priority="14">
       <formula>$G2&lt;TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="27" priority="15">
       <formula>$G2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:I25">
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>$G24=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="25" priority="11">
       <formula>$G24&lt;TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="24" priority="12">
       <formula>$G24=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>$G27=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="22" priority="5">
       <formula>$G27&lt;TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="21" priority="6">
       <formula>$G27=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I17">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>$G16=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>$G16&lt;TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>$G16=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7058,7 +7278,1498 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714BFFB2-05EB-43DC-A723-DFD8F03F81D7}">
+  <dimension ref="A1:L58"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.875" style="61" customWidth="1"/>
+    <col min="4" max="4" width="39.75" style="47" customWidth="1"/>
+    <col min="5" max="6" width="12.375" style="62" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="63" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="63" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="63" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="63" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35" style="47" customWidth="1"/>
+    <col min="12" max="12" width="54.5" style="47" customWidth="1"/>
+    <col min="13" max="16384" width="8.625" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="44" t="s">
+        <v>778</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="68">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>711</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>716</v>
+      </c>
+      <c r="E2" s="49">
+        <v>100</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="55"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="68">
+        <f t="shared" ref="A3:A56" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="48" t="s">
+        <v>717</v>
+      </c>
+      <c r="E3" s="49">
+        <v>100</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="55"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="68">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="48" t="s">
+        <v>718</v>
+      </c>
+      <c r="E4" s="49">
+        <v>100</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="55"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="68">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="48" t="s">
+        <v>719</v>
+      </c>
+      <c r="E5" s="49">
+        <v>100</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="55"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="68">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="84"/>
+      <c r="C6" s="56" t="s">
+        <v>713</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49">
+        <v>100</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="55"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="68">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84" t="s">
+        <v>715</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>720</v>
+      </c>
+      <c r="E7" s="49">
+        <v>100</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="55"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="68">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="58" t="s">
+        <v>721</v>
+      </c>
+      <c r="E8" s="49">
+        <v>100</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="55"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="68">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="84"/>
+      <c r="C9" s="56" t="s">
+        <v>714</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>798</v>
+      </c>
+      <c r="E9" s="49">
+        <v>100</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="55"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="68">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84" t="s">
+        <v>712</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="49">
+        <v>100</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="55"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="68">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="58" t="s">
+        <v>722</v>
+      </c>
+      <c r="E11" s="49">
+        <v>100</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="55"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="68">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="58" t="s">
+        <v>723</v>
+      </c>
+      <c r="E12" s="49">
+        <v>100</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="55"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="68">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84" t="s">
+        <v>724</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>725</v>
+      </c>
+      <c r="E13" s="49">
+        <v>100</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="55"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="68">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="48" t="s">
+        <v>726</v>
+      </c>
+      <c r="E14" s="49">
+        <v>100</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="55"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="68">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="84" t="s">
+        <v>835</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>809</v>
+      </c>
+      <c r="D15" s="78" t="s">
+        <v>844</v>
+      </c>
+      <c r="E15" s="49">
+        <v>100</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="68">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="84"/>
+      <c r="C16" s="56" t="s">
+        <v>810</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>844</v>
+      </c>
+      <c r="E16" s="49">
+        <v>100</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="68">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="56" t="s">
+        <v>811</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>844</v>
+      </c>
+      <c r="E17" s="49">
+        <v>100</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="59"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="68">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="84"/>
+      <c r="C18" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="78" t="s">
+        <v>844</v>
+      </c>
+      <c r="E18" s="49">
+        <v>100</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="68">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>847</v>
+      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="58" t="s">
+        <v>843</v>
+      </c>
+      <c r="E19" s="49">
+        <v>100</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="54"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" s="68">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="85" t="s">
+        <v>827</v>
+      </c>
+      <c r="C20" s="83" t="s">
+        <v>732</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>737</v>
+      </c>
+      <c r="E20" s="49">
+        <v>100</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="68">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="84"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="48" t="s">
+        <v>738</v>
+      </c>
+      <c r="E21" s="49">
+        <v>100</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="54"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="68">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="84"/>
+      <c r="C22" s="58" t="s">
+        <v>733</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>853</v>
+      </c>
+      <c r="E22" s="49">
+        <v>100</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="84"/>
+      <c r="C23" s="48" t="s">
+        <v>734</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>853</v>
+      </c>
+      <c r="E23" s="49">
+        <v>100</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="68">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="84"/>
+      <c r="C24" s="48" t="s">
+        <v>735</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>853</v>
+      </c>
+      <c r="E24" s="49">
+        <v>100</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" s="68">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="84"/>
+      <c r="C25" s="48" t="s">
+        <v>777</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>738</v>
+      </c>
+      <c r="E25" s="49">
+        <v>100</v>
+      </c>
+      <c r="F25" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="54"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="68">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="85" t="s">
+        <v>826</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>743</v>
+      </c>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49">
+        <v>100</v>
+      </c>
+      <c r="F26" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="54"/>
+    </row>
+    <row r="27" spans="1:12" ht="36" x14ac:dyDescent="0.4">
+      <c r="A27" s="68">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="84"/>
+      <c r="C27" s="56" t="s">
+        <v>740</v>
+      </c>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49">
+        <v>100</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="55" t="s">
+        <v>816</v>
+      </c>
+      <c r="L27" s="54"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" s="68">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="84"/>
+      <c r="C28" s="56" t="s">
+        <v>741</v>
+      </c>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49">
+        <v>100</v>
+      </c>
+      <c r="F28" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G28" s="52"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+    </row>
+    <row r="29" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="68">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="84"/>
+      <c r="C29" s="57" t="s">
+        <v>742</v>
+      </c>
+      <c r="D29" s="73" t="s">
+        <v>796</v>
+      </c>
+      <c r="E29" s="49">
+        <v>80</v>
+      </c>
+      <c r="F29" s="82" t="s">
+        <v>756</v>
+      </c>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="55" t="s">
+        <v>854</v>
+      </c>
+      <c r="L29" s="54"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30" s="68">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="84" t="s">
+        <v>744</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>745</v>
+      </c>
+      <c r="D30" s="81" t="s">
+        <v>851</v>
+      </c>
+      <c r="E30" s="49">
+        <v>100</v>
+      </c>
+      <c r="F30" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" s="68">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="84"/>
+      <c r="C31" s="56" t="s">
+        <v>746</v>
+      </c>
+      <c r="D31" s="81"/>
+      <c r="E31" s="49">
+        <v>100</v>
+      </c>
+      <c r="F31" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="55"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32" s="68">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="84"/>
+      <c r="C32" s="56" t="s">
+        <v>747</v>
+      </c>
+      <c r="D32" s="81"/>
+      <c r="E32" s="49">
+        <v>100</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="55"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33" s="68">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="84"/>
+      <c r="C33" s="56" t="s">
+        <v>748</v>
+      </c>
+      <c r="D33" s="81" t="s">
+        <v>852</v>
+      </c>
+      <c r="E33" s="49">
+        <v>100</v>
+      </c>
+      <c r="F33" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A34" s="68">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="84"/>
+      <c r="C34" s="56" t="s">
+        <v>749</v>
+      </c>
+      <c r="D34" s="48"/>
+      <c r="E34" s="49">
+        <v>100</v>
+      </c>
+      <c r="F34" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="55"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A35" s="68">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="84"/>
+      <c r="C35" s="56" t="s">
+        <v>750</v>
+      </c>
+      <c r="D35" s="48"/>
+      <c r="E35" s="49">
+        <v>100</v>
+      </c>
+      <c r="F35" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="55"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A36" s="68">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="84"/>
+      <c r="C36" s="56" t="s">
+        <v>751</v>
+      </c>
+      <c r="D36" s="72" t="s">
+        <v>797</v>
+      </c>
+      <c r="E36" s="49">
+        <v>80</v>
+      </c>
+      <c r="F36" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+    </row>
+    <row r="37" spans="1:12" ht="211.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="68">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>752</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>753</v>
+      </c>
+      <c r="D37" s="73" t="s">
+        <v>819</v>
+      </c>
+      <c r="E37" s="49">
+        <v>80</v>
+      </c>
+      <c r="F37" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="55" t="s">
+        <v>754</v>
+      </c>
+      <c r="L37" s="55"/>
+    </row>
+    <row r="38" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="68">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="85" t="s">
+        <v>772</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>769</v>
+      </c>
+      <c r="D38" s="58"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G38" s="52">
+        <v>45152</v>
+      </c>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52">
+        <v>45156</v>
+      </c>
+      <c r="J38" s="53"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+    </row>
+    <row r="39" spans="1:12" ht="24" x14ac:dyDescent="0.4">
+      <c r="A39" s="68">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="85"/>
+      <c r="C39" s="57" t="s">
+        <v>773</v>
+      </c>
+      <c r="D39" s="48"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G39" s="52">
+        <v>45152</v>
+      </c>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52">
+        <v>45156</v>
+      </c>
+      <c r="J39" s="53"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="54"/>
+    </row>
+    <row r="40" spans="1:12" ht="24" x14ac:dyDescent="0.4">
+      <c r="A40" s="68">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>771</v>
+      </c>
+      <c r="C40" s="56"/>
+      <c r="D40" s="73" t="s">
+        <v>817</v>
+      </c>
+      <c r="E40" s="49">
+        <v>80</v>
+      </c>
+      <c r="F40" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G40" s="52">
+        <v>45152</v>
+      </c>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52">
+        <v>45156</v>
+      </c>
+      <c r="J40" s="52"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="54"/>
+    </row>
+    <row r="41" spans="1:12" ht="24" x14ac:dyDescent="0.4">
+      <c r="A41" s="68">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="56" t="s">
+        <v>779</v>
+      </c>
+      <c r="C41" s="56"/>
+      <c r="D41" s="73" t="s">
+        <v>814</v>
+      </c>
+      <c r="E41" s="49">
+        <v>80</v>
+      </c>
+      <c r="F41" s="70" t="s">
+        <v>756</v>
+      </c>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+    </row>
+    <row r="42" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="68">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="86" t="s">
+        <v>780</v>
+      </c>
+      <c r="C42" s="64" t="s">
+        <v>782</v>
+      </c>
+      <c r="D42" s="79" t="s">
+        <v>850</v>
+      </c>
+      <c r="E42" s="65">
+        <v>100</v>
+      </c>
+      <c r="F42" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+    </row>
+    <row r="43" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="68">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="87"/>
+      <c r="C43" s="64" t="s">
+        <v>783</v>
+      </c>
+      <c r="D43" s="79" t="s">
+        <v>850</v>
+      </c>
+      <c r="E43" s="65">
+        <v>100</v>
+      </c>
+      <c r="F43" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+    </row>
+    <row r="44" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="68">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="87"/>
+      <c r="C44" s="64" t="s">
+        <v>784</v>
+      </c>
+      <c r="D44" s="79" t="s">
+        <v>850</v>
+      </c>
+      <c r="E44" s="65">
+        <v>100</v>
+      </c>
+      <c r="F44" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+    </row>
+    <row r="45" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="68">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="87"/>
+      <c r="C45" s="64" t="s">
+        <v>785</v>
+      </c>
+      <c r="D45" s="79" t="s">
+        <v>850</v>
+      </c>
+      <c r="E45" s="65">
+        <v>100</v>
+      </c>
+      <c r="F45" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
+    </row>
+    <row r="46" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="68">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="87"/>
+      <c r="C46" s="64" t="s">
+        <v>786</v>
+      </c>
+      <c r="D46" s="79" t="s">
+        <v>850</v>
+      </c>
+      <c r="E46" s="65">
+        <v>100</v>
+      </c>
+      <c r="F46" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
+    </row>
+    <row r="47" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="68">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="87"/>
+      <c r="C47" s="64" t="s">
+        <v>787</v>
+      </c>
+      <c r="D47" s="79" t="s">
+        <v>850</v>
+      </c>
+      <c r="E47" s="65">
+        <v>100</v>
+      </c>
+      <c r="F47" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+    </row>
+    <row r="48" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="68">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="88"/>
+      <c r="C48" s="64" t="s">
+        <v>788</v>
+      </c>
+      <c r="D48" s="79" t="s">
+        <v>850</v>
+      </c>
+      <c r="E48" s="65">
+        <v>100</v>
+      </c>
+      <c r="F48" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+    </row>
+    <row r="49" spans="1:12" ht="36" x14ac:dyDescent="0.4">
+      <c r="A49" s="68">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="56" t="s">
+        <v>781</v>
+      </c>
+      <c r="C49" s="56"/>
+      <c r="D49" s="73" t="s">
+        <v>823</v>
+      </c>
+      <c r="E49" s="49">
+        <v>80</v>
+      </c>
+      <c r="F49" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+    </row>
+    <row r="50" spans="1:12" ht="36" x14ac:dyDescent="0.4">
+      <c r="A50" s="68"/>
+      <c r="B50" s="56" t="s">
+        <v>855</v>
+      </c>
+      <c r="C50" s="56"/>
+      <c r="D50" s="73" t="s">
+        <v>856</v>
+      </c>
+      <c r="E50" s="49"/>
+      <c r="F50" s="82" t="s">
+        <v>756</v>
+      </c>
+      <c r="G50" s="52">
+        <v>45142</v>
+      </c>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52">
+        <v>45149</v>
+      </c>
+      <c r="J50" s="52"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+    </row>
+    <row r="51" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="68">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+    </row>
+    <row r="52" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="68">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="54"/>
+    </row>
+    <row r="53" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="68">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+    </row>
+    <row r="54" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="68">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="56"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+    </row>
+    <row r="55" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="68">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="56"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+    </row>
+    <row r="56" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="68">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="54"/>
+    </row>
+    <row r="57" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="68">
+        <f t="shared" ref="A57:A58" si="1">ROW()-1</f>
+        <v>56</v>
+      </c>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+    </row>
+    <row r="58" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="68">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="54"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:L40" xr:uid="{8E7929DC-B531-419A-8BB3-4B492C6A9455}"/>
+  <mergeCells count="12">
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C14"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="I18 I2:I14 I20:I58 G2:G58">
+    <cfRule type="expression" dxfId="17" priority="13">
+      <formula>$G2=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="14">
+      <formula>$G2&lt;TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>$G2=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>$G15=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>$G15&lt;TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$G15=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I17">
+    <cfRule type="expression" dxfId="11" priority="7">
+      <formula>$G16=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="8">
+      <formula>$G16&lt;TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$G16=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>$G19=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>$G19&lt;TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>$G19=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F58" xr:uid="{EE053D48-6CB1-4C88-8798-88C8BA817AD4}">
+      <formula1>"Low, Medium, High"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E58" xr:uid="{35960E06-0E4B-4143-92D2-A8B8E0C136EA}">
+      <formula1>"20, 40, 60, 80, 100"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4075CA63-3640-45D5-AEDC-D7DD43C490C7}">
   <dimension ref="A1:L53"/>
   <sheetViews>
@@ -7066,7 +8777,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -7128,10 +8839,10 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="84" t="s">
         <v>711</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="48" t="s">
@@ -7141,14 +8852,9 @@
       <c r="F2" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G2" s="52">
-        <v>45103</v>
-      </c>
+      <c r="G2" s="52"/>
       <c r="H2" s="53"/>
-      <c r="I2" s="52">
-        <f>G2+1</f>
-        <v>45104</v>
-      </c>
+      <c r="I2" s="52"/>
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
       <c r="L2" s="54"/>
@@ -7158,8 +8864,8 @@
         <f t="shared" ref="A3:A53" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
       <c r="D3" s="48" t="s">
         <v>717</v>
       </c>
@@ -7167,14 +8873,9 @@
       <c r="F3" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G3" s="52">
-        <v>45103</v>
-      </c>
+      <c r="G3" s="52"/>
       <c r="H3" s="53"/>
-      <c r="I3" s="52">
-        <f t="shared" ref="I3:I14" si="1">G3+1</f>
-        <v>45104</v>
-      </c>
+      <c r="I3" s="52"/>
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
       <c r="L3" s="54"/>
@@ -7184,8 +8885,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="48" t="s">
         <v>718</v>
       </c>
@@ -7193,14 +8894,9 @@
       <c r="F4" s="69" t="s">
         <v>755</v>
       </c>
-      <c r="G4" s="52">
-        <v>45103</v>
-      </c>
+      <c r="G4" s="52"/>
       <c r="H4" s="53"/>
-      <c r="I4" s="52">
-        <f t="shared" si="1"/>
-        <v>45104</v>
-      </c>
+      <c r="I4" s="52"/>
       <c r="J4" s="53"/>
       <c r="K4" s="55"/>
       <c r="L4" s="54"/>
@@ -7210,8 +8906,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="48" t="s">
         <v>719</v>
       </c>
@@ -7219,14 +8915,9 @@
       <c r="F5" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G5" s="52">
-        <v>45103</v>
-      </c>
+      <c r="G5" s="52"/>
       <c r="H5" s="53"/>
-      <c r="I5" s="52">
-        <f t="shared" si="1"/>
-        <v>45104</v>
-      </c>
+      <c r="I5" s="52"/>
       <c r="J5" s="53"/>
       <c r="K5" s="54"/>
       <c r="L5" s="54"/>
@@ -7236,7 +8927,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="56" t="s">
         <v>713</v>
       </c>
@@ -7245,14 +8936,9 @@
       <c r="F6" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G6" s="52">
-        <v>45103</v>
-      </c>
+      <c r="G6" s="52"/>
       <c r="H6" s="53"/>
-      <c r="I6" s="52">
-        <f t="shared" si="1"/>
-        <v>45104</v>
-      </c>
+      <c r="I6" s="52"/>
       <c r="J6" s="53"/>
       <c r="K6" s="54"/>
       <c r="L6" s="54"/>
@@ -7262,8 +8948,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80" t="s">
+      <c r="B7" s="84"/>
+      <c r="C7" s="84" t="s">
         <v>715</v>
       </c>
       <c r="D7" s="57" t="s">
@@ -7273,14 +8959,9 @@
       <c r="F7" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G7" s="52">
-        <v>45103</v>
-      </c>
+      <c r="G7" s="52"/>
       <c r="H7" s="52"/>
-      <c r="I7" s="52">
-        <f t="shared" si="1"/>
-        <v>45104</v>
-      </c>
+      <c r="I7" s="52"/>
       <c r="J7" s="52"/>
       <c r="K7" s="54"/>
       <c r="L7" s="54"/>
@@ -7290,8 +8971,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="58" t="s">
         <v>721</v>
       </c>
@@ -7299,14 +8980,9 @@
       <c r="F8" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G8" s="52">
-        <v>45103</v>
-      </c>
+      <c r="G8" s="52"/>
       <c r="H8" s="52"/>
-      <c r="I8" s="52">
-        <f t="shared" si="1"/>
-        <v>45104</v>
-      </c>
+      <c r="I8" s="52"/>
       <c r="J8" s="52"/>
       <c r="K8" s="54"/>
       <c r="L8" s="54"/>
@@ -7316,7 +8992,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="80"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="56" t="s">
         <v>714</v>
       </c>
@@ -7327,14 +9003,9 @@
       <c r="F9" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G9" s="52">
-        <v>45103</v>
-      </c>
+      <c r="G9" s="52"/>
       <c r="H9" s="52"/>
-      <c r="I9" s="52">
-        <f t="shared" si="1"/>
-        <v>45104</v>
-      </c>
+      <c r="I9" s="52"/>
       <c r="J9" s="52"/>
       <c r="K9" s="54"/>
       <c r="L9" s="54"/>
@@ -7344,8 +9015,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="84" t="s">
         <v>712</v>
       </c>
       <c r="D10" s="48" t="s">
@@ -7355,14 +9026,9 @@
       <c r="F10" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G10" s="52">
-        <v>45103</v>
-      </c>
+      <c r="G10" s="52"/>
       <c r="H10" s="52"/>
-      <c r="I10" s="52">
-        <f t="shared" si="1"/>
-        <v>45104</v>
-      </c>
+      <c r="I10" s="52"/>
       <c r="J10" s="52"/>
       <c r="K10" s="54"/>
       <c r="L10" s="54"/>
@@ -7372,8 +9038,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="58" t="s">
         <v>722</v>
       </c>
@@ -7381,14 +9047,9 @@
       <c r="F11" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G11" s="52">
-        <v>45103</v>
-      </c>
+      <c r="G11" s="52"/>
       <c r="H11" s="52"/>
-      <c r="I11" s="52">
-        <f t="shared" si="1"/>
-        <v>45104</v>
-      </c>
+      <c r="I11" s="52"/>
       <c r="J11" s="52"/>
       <c r="K11" s="54"/>
       <c r="L11" s="54"/>
@@ -7398,8 +9059,8 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="58" t="s">
         <v>723</v>
       </c>
@@ -7407,14 +9068,9 @@
       <c r="F12" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G12" s="52">
-        <v>45103</v>
-      </c>
+      <c r="G12" s="52"/>
       <c r="H12" s="52"/>
-      <c r="I12" s="52">
-        <f t="shared" si="1"/>
-        <v>45104</v>
-      </c>
+      <c r="I12" s="52"/>
       <c r="J12" s="52"/>
       <c r="K12" s="54"/>
       <c r="L12" s="54"/>
@@ -7424,8 +9080,8 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80" t="s">
+      <c r="B13" s="84"/>
+      <c r="C13" s="84" t="s">
         <v>724</v>
       </c>
       <c r="D13" s="48" t="s">
@@ -7435,14 +9091,9 @@
       <c r="F13" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G13" s="52">
-        <v>45103</v>
-      </c>
+      <c r="G13" s="52"/>
       <c r="H13" s="52"/>
-      <c r="I13" s="52">
-        <f t="shared" si="1"/>
-        <v>45104</v>
-      </c>
+      <c r="I13" s="52"/>
       <c r="J13" s="52"/>
       <c r="K13" s="54"/>
       <c r="L13" s="54"/>
@@ -7452,8 +9103,8 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="48" t="s">
         <v>726</v>
       </c>
@@ -7461,14 +9112,9 @@
       <c r="F14" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G14" s="52">
-        <v>45103</v>
-      </c>
+      <c r="G14" s="52"/>
       <c r="H14" s="52"/>
-      <c r="I14" s="52">
-        <f t="shared" si="1"/>
-        <v>45104</v>
-      </c>
+      <c r="I14" s="52"/>
       <c r="J14" s="52"/>
       <c r="K14" s="54"/>
       <c r="L14" s="54"/>
@@ -7478,7 +9124,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="86" t="s">
         <v>808</v>
       </c>
       <c r="C15" s="64" t="s">
@@ -7489,13 +9135,9 @@
       <c r="F15" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G15" s="52">
-        <v>45105</v>
-      </c>
+      <c r="G15" s="52"/>
       <c r="H15" s="52"/>
-      <c r="I15" s="52">
-        <v>45105</v>
-      </c>
+      <c r="I15" s="52"/>
       <c r="J15" s="52"/>
       <c r="K15" s="54"/>
       <c r="L15" s="54"/>
@@ -7505,7 +9147,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="83"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="64" t="s">
         <v>810</v>
       </c>
@@ -7514,13 +9156,9 @@
       <c r="F16" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G16" s="52">
-        <v>45105</v>
-      </c>
+      <c r="G16" s="52"/>
       <c r="H16" s="52"/>
-      <c r="I16" s="52">
-        <v>45105</v>
-      </c>
+      <c r="I16" s="52"/>
       <c r="J16" s="52"/>
       <c r="K16" s="54"/>
       <c r="L16" s="54"/>
@@ -7530,7 +9168,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="83"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="64" t="s">
         <v>811</v>
       </c>
@@ -7539,13 +9177,9 @@
       <c r="F17" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G17" s="52">
-        <v>45105</v>
-      </c>
+      <c r="G17" s="52"/>
       <c r="H17" s="52"/>
-      <c r="I17" s="52">
-        <v>45105</v>
-      </c>
+      <c r="I17" s="52"/>
       <c r="J17" s="52"/>
       <c r="K17" s="54"/>
       <c r="L17" s="54"/>
@@ -7555,7 +9189,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="84"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="64" t="s">
         <v>812</v>
       </c>
@@ -7564,13 +9198,9 @@
       <c r="F18" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G18" s="52">
-        <v>45105</v>
-      </c>
+      <c r="G18" s="52"/>
       <c r="H18" s="52"/>
-      <c r="I18" s="52">
-        <v>45105</v>
-      </c>
+      <c r="I18" s="52"/>
       <c r="J18" s="52"/>
       <c r="K18" s="54"/>
       <c r="L18" s="54"/>
@@ -7580,7 +9210,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="86" t="s">
         <v>801</v>
       </c>
       <c r="C19" s="64" t="s">
@@ -7591,14 +9221,9 @@
       <c r="F19" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G19" s="52">
-        <v>45106</v>
-      </c>
+      <c r="G19" s="52"/>
       <c r="H19" s="53"/>
-      <c r="I19" s="52">
-        <f t="shared" ref="I19:I25" si="2">G19</f>
-        <v>45106</v>
-      </c>
+      <c r="I19" s="52"/>
       <c r="J19" s="66"/>
       <c r="K19" s="67"/>
       <c r="L19" s="67"/>
@@ -7608,7 +9233,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="83"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="64" t="s">
         <v>783</v>
       </c>
@@ -7617,14 +9242,9 @@
       <c r="F20" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G20" s="52">
-        <v>45106</v>
-      </c>
+      <c r="G20" s="52"/>
       <c r="H20" s="53"/>
-      <c r="I20" s="52">
-        <f t="shared" si="2"/>
-        <v>45106</v>
-      </c>
+      <c r="I20" s="52"/>
       <c r="J20" s="66"/>
       <c r="K20" s="67"/>
       <c r="L20" s="67"/>
@@ -7634,7 +9254,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="83"/>
+      <c r="B21" s="87"/>
       <c r="C21" s="64" t="s">
         <v>784</v>
       </c>
@@ -7643,14 +9263,9 @@
       <c r="F21" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G21" s="52">
-        <v>45106</v>
-      </c>
+      <c r="G21" s="52"/>
       <c r="H21" s="53"/>
-      <c r="I21" s="52">
-        <f t="shared" si="2"/>
-        <v>45106</v>
-      </c>
+      <c r="I21" s="52"/>
       <c r="J21" s="66"/>
       <c r="K21" s="67"/>
       <c r="L21" s="67"/>
@@ -7660,7 +9275,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="83"/>
+      <c r="B22" s="87"/>
       <c r="C22" s="64" t="s">
         <v>785</v>
       </c>
@@ -7669,14 +9284,9 @@
       <c r="F22" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G22" s="52">
-        <v>45106</v>
-      </c>
+      <c r="G22" s="52"/>
       <c r="H22" s="53"/>
-      <c r="I22" s="52">
-        <f t="shared" si="2"/>
-        <v>45106</v>
-      </c>
+      <c r="I22" s="52"/>
       <c r="J22" s="66"/>
       <c r="K22" s="67"/>
       <c r="L22" s="67"/>
@@ -7686,7 +9296,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="83"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="64" t="s">
         <v>786</v>
       </c>
@@ -7695,14 +9305,9 @@
       <c r="F23" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G23" s="52">
-        <v>45106</v>
-      </c>
+      <c r="G23" s="52"/>
       <c r="H23" s="53"/>
-      <c r="I23" s="52">
-        <f t="shared" si="2"/>
-        <v>45106</v>
-      </c>
+      <c r="I23" s="52"/>
       <c r="J23" s="66"/>
       <c r="K23" s="67"/>
       <c r="L23" s="67"/>
@@ -7712,7 +9317,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="83"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="64" t="s">
         <v>787</v>
       </c>
@@ -7721,14 +9326,9 @@
       <c r="F24" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G24" s="52">
-        <v>45106</v>
-      </c>
+      <c r="G24" s="52"/>
       <c r="H24" s="53"/>
-      <c r="I24" s="52">
-        <f t="shared" si="2"/>
-        <v>45106</v>
-      </c>
+      <c r="I24" s="52"/>
       <c r="J24" s="66"/>
       <c r="K24" s="67"/>
       <c r="L24" s="67"/>
@@ -7738,7 +9338,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="84"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="64" t="s">
         <v>788</v>
       </c>
@@ -7747,14 +9347,9 @@
       <c r="F25" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G25" s="52">
-        <v>45106</v>
-      </c>
+      <c r="G25" s="52"/>
       <c r="H25" s="53"/>
-      <c r="I25" s="52">
-        <f t="shared" si="2"/>
-        <v>45106</v>
-      </c>
+      <c r="I25" s="52"/>
       <c r="J25" s="66"/>
       <c r="K25" s="67"/>
       <c r="L25" s="67"/>
@@ -7773,17 +9368,11 @@
       <c r="F26" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G26" s="52">
-        <v>45110</v>
-      </c>
+      <c r="G26" s="52"/>
       <c r="H26" s="52"/>
-      <c r="I26" s="52">
-        <v>45110</v>
-      </c>
+      <c r="I26" s="52"/>
       <c r="J26" s="53"/>
-      <c r="K26" s="55" t="s">
-        <v>819</v>
-      </c>
+      <c r="K26" s="55"/>
       <c r="L26" s="54"/>
     </row>
     <row r="27" spans="1:12" ht="24" x14ac:dyDescent="0.4">
@@ -7802,17 +9391,11 @@
       <c r="F27" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G27" s="52">
-        <v>45111</v>
-      </c>
+      <c r="G27" s="52"/>
       <c r="H27" s="52"/>
-      <c r="I27" s="52">
-        <v>45111</v>
-      </c>
+      <c r="I27" s="52"/>
       <c r="J27" s="53"/>
-      <c r="K27" s="55" t="s">
-        <v>819</v>
-      </c>
+      <c r="K27" s="55"/>
       <c r="L27" s="54"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
@@ -7820,7 +9403,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="84" t="s">
         <v>744</v>
       </c>
       <c r="C28" s="56" t="s">
@@ -7831,17 +9414,11 @@
       <c r="F28" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G28" s="52">
-        <v>45112</v>
-      </c>
+      <c r="G28" s="52"/>
       <c r="H28" s="53"/>
-      <c r="I28" s="52">
-        <v>45112</v>
-      </c>
+      <c r="I28" s="52"/>
       <c r="J28" s="53"/>
-      <c r="K28" s="55" t="s">
-        <v>819</v>
-      </c>
+      <c r="K28" s="55"/>
       <c r="L28" s="54"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
@@ -7849,7 +9426,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="80"/>
+      <c r="B29" s="84"/>
       <c r="C29" s="56" t="s">
         <v>746</v>
       </c>
@@ -7858,17 +9435,11 @@
       <c r="F29" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G29" s="52">
-        <v>45113</v>
-      </c>
+      <c r="G29" s="52"/>
       <c r="H29" s="52"/>
-      <c r="I29" s="52">
-        <v>45113</v>
-      </c>
+      <c r="I29" s="52"/>
       <c r="J29" s="53"/>
-      <c r="K29" s="55" t="s">
-        <v>819</v>
-      </c>
+      <c r="K29" s="55"/>
       <c r="L29" s="54"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
@@ -7876,7 +9447,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="80"/>
+      <c r="B30" s="84"/>
       <c r="C30" s="56" t="s">
         <v>747</v>
       </c>
@@ -7885,17 +9456,11 @@
       <c r="F30" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G30" s="52">
-        <v>45114</v>
-      </c>
+      <c r="G30" s="52"/>
       <c r="H30" s="52"/>
-      <c r="I30" s="52">
-        <v>45114</v>
-      </c>
+      <c r="I30" s="52"/>
       <c r="J30" s="53"/>
-      <c r="K30" s="55" t="s">
-        <v>819</v>
-      </c>
+      <c r="K30" s="55"/>
       <c r="L30" s="54"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
@@ -7903,7 +9468,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="80"/>
+      <c r="B31" s="84"/>
       <c r="C31" s="56" t="s">
         <v>748</v>
       </c>
@@ -7912,17 +9477,11 @@
       <c r="F31" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G31" s="52">
-        <v>45115</v>
-      </c>
+      <c r="G31" s="52"/>
       <c r="H31" s="52"/>
-      <c r="I31" s="52">
-        <v>45115</v>
-      </c>
+      <c r="I31" s="52"/>
       <c r="J31" s="52"/>
-      <c r="K31" s="55" t="s">
-        <v>819</v>
-      </c>
+      <c r="K31" s="55"/>
       <c r="L31" s="54"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
@@ -7930,7 +9489,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="80"/>
+      <c r="B32" s="84"/>
       <c r="C32" s="56" t="s">
         <v>749</v>
       </c>
@@ -7939,17 +9498,11 @@
       <c r="F32" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G32" s="52">
-        <v>45116</v>
-      </c>
+      <c r="G32" s="52"/>
       <c r="H32" s="52"/>
-      <c r="I32" s="52">
-        <v>45116</v>
-      </c>
+      <c r="I32" s="52"/>
       <c r="J32" s="52"/>
-      <c r="K32" s="55" t="s">
-        <v>819</v>
-      </c>
+      <c r="K32" s="55"/>
       <c r="L32" s="54"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
@@ -7957,7 +9510,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="80"/>
+      <c r="B33" s="84"/>
       <c r="C33" s="56" t="s">
         <v>750</v>
       </c>
@@ -7966,17 +9519,11 @@
       <c r="F33" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G33" s="52">
-        <v>45119</v>
-      </c>
+      <c r="G33" s="52"/>
       <c r="H33" s="52"/>
-      <c r="I33" s="52">
-        <v>45119</v>
-      </c>
+      <c r="I33" s="52"/>
       <c r="J33" s="52"/>
-      <c r="K33" s="55" t="s">
-        <v>819</v>
-      </c>
+      <c r="K33" s="55"/>
       <c r="L33" s="54"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
@@ -7984,7 +9531,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="80"/>
+      <c r="B34" s="84"/>
       <c r="C34" s="56" t="s">
         <v>751</v>
       </c>
@@ -7993,17 +9540,11 @@
       <c r="F34" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G34" s="52">
-        <v>45120</v>
-      </c>
+      <c r="G34" s="52"/>
       <c r="H34" s="52"/>
-      <c r="I34" s="52">
-        <v>45120</v>
-      </c>
+      <c r="I34" s="52"/>
       <c r="J34" s="52"/>
-      <c r="K34" s="55" t="s">
-        <v>819</v>
-      </c>
+      <c r="K34" s="55"/>
       <c r="L34" s="54"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
@@ -8011,7 +9552,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="84" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="60" t="s">
@@ -8022,17 +9563,11 @@
       <c r="F35" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G35" s="52">
-        <v>45121</v>
-      </c>
+      <c r="G35" s="52"/>
       <c r="H35" s="53"/>
-      <c r="I35" s="52">
-        <v>45121</v>
-      </c>
+      <c r="I35" s="52"/>
       <c r="J35" s="52"/>
-      <c r="K35" s="55" t="s">
-        <v>821</v>
-      </c>
+      <c r="K35" s="55"/>
       <c r="L35" s="54"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
@@ -8040,7 +9575,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="80"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="48" t="s">
         <v>800</v>
       </c>
@@ -8049,17 +9584,11 @@
       <c r="F36" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G36" s="52">
-        <v>45122</v>
-      </c>
+      <c r="G36" s="52"/>
       <c r="H36" s="52"/>
-      <c r="I36" s="52">
-        <v>45122</v>
-      </c>
+      <c r="I36" s="52"/>
       <c r="J36" s="52"/>
-      <c r="K36" s="55" t="s">
-        <v>821</v>
-      </c>
+      <c r="K36" s="55"/>
       <c r="L36" s="54"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
@@ -8067,7 +9596,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="80"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="48" t="s">
         <v>734</v>
       </c>
@@ -8076,17 +9605,11 @@
       <c r="F37" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G37" s="52">
-        <v>45123</v>
-      </c>
+      <c r="G37" s="52"/>
       <c r="H37" s="52"/>
-      <c r="I37" s="52">
-        <v>45123</v>
-      </c>
+      <c r="I37" s="52"/>
       <c r="J37" s="53"/>
-      <c r="K37" s="55" t="s">
-        <v>821</v>
-      </c>
+      <c r="K37" s="55"/>
       <c r="L37" s="54"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
@@ -8094,7 +9617,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="80"/>
+      <c r="B38" s="84"/>
       <c r="C38" s="48" t="s">
         <v>735</v>
       </c>
@@ -8103,17 +9626,11 @@
       <c r="F38" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G38" s="52">
-        <v>45124</v>
-      </c>
+      <c r="G38" s="52"/>
       <c r="H38" s="52"/>
-      <c r="I38" s="52">
-        <v>45124</v>
-      </c>
+      <c r="I38" s="52"/>
       <c r="J38" s="52"/>
-      <c r="K38" s="55" t="s">
-        <v>821</v>
-      </c>
+      <c r="K38" s="55"/>
       <c r="L38" s="54"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
@@ -8121,7 +9638,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="80"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="48" t="s">
         <v>777</v>
       </c>
@@ -8130,17 +9647,11 @@
       <c r="F39" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G39" s="52">
-        <v>45125</v>
-      </c>
+      <c r="G39" s="52"/>
       <c r="H39" s="52"/>
-      <c r="I39" s="52">
-        <v>45125</v>
-      </c>
+      <c r="I39" s="52"/>
       <c r="J39" s="52"/>
-      <c r="K39" s="55" t="s">
-        <v>821</v>
-      </c>
+      <c r="K39" s="55"/>
       <c r="L39" s="54"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
@@ -8148,8 +9659,8 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="80" t="s">
-        <v>851</v>
+      <c r="B40" s="84" t="s">
+        <v>849</v>
       </c>
       <c r="C40" s="56" t="s">
         <v>743</v>
@@ -8159,17 +9670,11 @@
       <c r="F40" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G40" s="52">
-        <v>45126</v>
-      </c>
+      <c r="G40" s="52"/>
       <c r="H40" s="53"/>
-      <c r="I40" s="52">
-        <v>45126</v>
-      </c>
+      <c r="I40" s="52"/>
       <c r="J40" s="53"/>
-      <c r="K40" s="55" t="s">
-        <v>821</v>
-      </c>
+      <c r="K40" s="55"/>
       <c r="L40" s="54"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
@@ -8177,7 +9682,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="80"/>
+      <c r="B41" s="84"/>
       <c r="C41" s="56" t="s">
         <v>740</v>
       </c>
@@ -8186,17 +9691,11 @@
       <c r="F41" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G41" s="52">
-        <v>45127</v>
-      </c>
+      <c r="G41" s="52"/>
       <c r="H41" s="53"/>
-      <c r="I41" s="52">
-        <v>45127</v>
-      </c>
+      <c r="I41" s="52"/>
       <c r="J41" s="53"/>
-      <c r="K41" s="55" t="s">
-        <v>821</v>
-      </c>
+      <c r="K41" s="55"/>
       <c r="L41" s="54"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
@@ -8204,7 +9703,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="80"/>
+      <c r="B42" s="84"/>
       <c r="C42" s="56" t="s">
         <v>741</v>
       </c>
@@ -8213,17 +9712,11 @@
       <c r="F42" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G42" s="52">
-        <v>45128</v>
-      </c>
+      <c r="G42" s="52"/>
       <c r="H42" s="53"/>
-      <c r="I42" s="52">
-        <v>45128</v>
-      </c>
+      <c r="I42" s="52"/>
       <c r="J42" s="53"/>
-      <c r="K42" s="55" t="s">
-        <v>821</v>
-      </c>
+      <c r="K42" s="55"/>
       <c r="L42" s="54"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
@@ -8231,7 +9724,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="80"/>
+      <c r="B43" s="84"/>
       <c r="C43" s="56" t="s">
         <v>742</v>
       </c>
@@ -8240,17 +9733,11 @@
       <c r="F43" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G43" s="52">
-        <v>45129</v>
-      </c>
+      <c r="G43" s="52"/>
       <c r="H43" s="52"/>
-      <c r="I43" s="52">
-        <v>45129</v>
-      </c>
+      <c r="I43" s="52"/>
       <c r="J43" s="53"/>
-      <c r="K43" s="55" t="s">
-        <v>821</v>
-      </c>
+      <c r="K43" s="55"/>
       <c r="L43" s="54"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
@@ -8258,7 +9745,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="81" t="s">
+      <c r="B44" s="85" t="s">
         <v>772</v>
       </c>
       <c r="C44" s="56" t="s">
@@ -8269,17 +9756,11 @@
       <c r="F44" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G44" s="52">
-        <v>45130</v>
-      </c>
+      <c r="G44" s="52"/>
       <c r="H44" s="52"/>
-      <c r="I44" s="52">
-        <v>45130</v>
-      </c>
+      <c r="I44" s="52"/>
       <c r="J44" s="53"/>
-      <c r="K44" s="55" t="s">
-        <v>821</v>
-      </c>
+      <c r="K44" s="55"/>
       <c r="L44" s="54"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
@@ -8287,7 +9768,7 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="81"/>
+      <c r="B45" s="85"/>
       <c r="C45" s="57" t="s">
         <v>773</v>
       </c>
@@ -8296,17 +9777,11 @@
       <c r="F45" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G45" s="52">
-        <v>45131</v>
-      </c>
+      <c r="G45" s="52"/>
       <c r="H45" s="52"/>
-      <c r="I45" s="52">
-        <v>45131</v>
-      </c>
+      <c r="I45" s="52"/>
       <c r="J45" s="53"/>
-      <c r="K45" s="55" t="s">
-        <v>821</v>
-      </c>
+      <c r="K45" s="55"/>
       <c r="L45" s="54"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
@@ -8323,14 +9798,9 @@
       <c r="F46" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="G46" s="52">
-        <v>45105</v>
-      </c>
+      <c r="G46" s="52"/>
       <c r="H46" s="52"/>
-      <c r="I46" s="52">
-        <f>G46+1</f>
-        <v>45106</v>
-      </c>
+      <c r="I46" s="52"/>
       <c r="J46" s="53"/>
       <c r="K46" s="55"/>
       <c r="L46" s="54"/>
@@ -8457,17 +9927,17 @@
   </sheetData>
   <autoFilter ref="B1:L45" xr:uid="{8E7929DC-B531-419A-8BB3-4B492C6A9455}"/>
   <mergeCells count="11">
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B35:B39"/>
     <mergeCell ref="B19:B25"/>
     <mergeCell ref="B28:B34"/>
-    <mergeCell ref="B2:B14"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="G2:G53 I2:I53">
@@ -8494,7 +9964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A1E2D0-F13C-42F0-ACCB-00083CB8A327}">
   <dimension ref="A1:M48"/>
   <sheetViews>
@@ -8502,7 +9972,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -8569,10 +10039,10 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="84" t="s">
         <v>711</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="48" t="s">
@@ -8597,8 +10067,8 @@
         <f t="shared" ref="A3:A48" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
       <c r="D3" s="48" t="s">
         <v>717</v>
       </c>
@@ -8621,8 +10091,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="48" t="s">
         <v>718</v>
       </c>
@@ -8645,8 +10115,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="48" t="s">
         <v>719</v>
       </c>
@@ -8669,7 +10139,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="56" t="s">
         <v>713</v>
       </c>
@@ -8693,8 +10163,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80" t="s">
+      <c r="B7" s="84"/>
+      <c r="C7" s="84" t="s">
         <v>715</v>
       </c>
       <c r="D7" s="57" t="s">
@@ -8719,8 +10189,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="58" t="s">
         <v>721</v>
       </c>
@@ -8743,7 +10213,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="80"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="56" t="s">
         <v>714</v>
       </c>
@@ -8767,8 +10237,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="84" t="s">
         <v>712</v>
       </c>
       <c r="D10" s="48" t="s">
@@ -8793,8 +10263,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="58" t="s">
         <v>722</v>
       </c>
@@ -8817,8 +10287,8 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="58" t="s">
         <v>723</v>
       </c>
@@ -8841,8 +10311,8 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80" t="s">
+      <c r="B13" s="84"/>
+      <c r="C13" s="84" t="s">
         <v>724</v>
       </c>
       <c r="D13" s="48" t="s">
@@ -8867,8 +10337,8 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="48" t="s">
         <v>726</v>
       </c>
@@ -8935,10 +10405,10 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="84" t="s">
         <v>731</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="83" t="s">
         <v>732</v>
       </c>
       <c r="D17" s="48" t="s">
@@ -8963,8 +10433,8 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="79"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="83"/>
       <c r="D18" s="48" t="s">
         <v>738</v>
       </c>
@@ -8987,8 +10457,8 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="79" t="s">
+      <c r="B19" s="84"/>
+      <c r="C19" s="83" t="s">
         <v>733</v>
       </c>
       <c r="D19" s="48" t="s">
@@ -9013,8 +10483,8 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="79"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="48" t="s">
         <v>738</v>
       </c>
@@ -9037,8 +10507,8 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="79" t="s">
+      <c r="B21" s="84"/>
+      <c r="C21" s="83" t="s">
         <v>734</v>
       </c>
       <c r="D21" s="48" t="s">
@@ -9063,8 +10533,8 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="79"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="48" t="s">
         <v>738</v>
       </c>
@@ -9087,8 +10557,8 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="80"/>
-      <c r="C23" s="79" t="s">
+      <c r="B23" s="84"/>
+      <c r="C23" s="83" t="s">
         <v>735</v>
       </c>
       <c r="D23" s="48" t="s">
@@ -9113,8 +10583,8 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="79"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="48" t="s">
         <v>738</v>
       </c>
@@ -9135,8 +10605,8 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80" t="s">
+      <c r="B25" s="84"/>
+      <c r="C25" s="84" t="s">
         <v>736</v>
       </c>
       <c r="D25" s="48" t="s">
@@ -9159,8 +10629,8 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
       <c r="D26" s="48" t="s">
         <v>738</v>
       </c>
@@ -9181,8 +10651,8 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="82" t="s">
+      <c r="B27" s="84"/>
+      <c r="C27" s="86" t="s">
         <v>777</v>
       </c>
       <c r="D27" s="48" t="s">
@@ -9205,8 +10675,8 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="84"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="88"/>
       <c r="D28" s="48" t="s">
         <v>738</v>
       </c>
@@ -9227,7 +10697,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="84" t="s">
         <v>739</v>
       </c>
       <c r="C29" s="56" t="s">
@@ -9253,7 +10723,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="80"/>
+      <c r="B30" s="84"/>
       <c r="C30" s="48" t="s">
         <v>740</v>
       </c>
@@ -9275,7 +10745,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="80"/>
+      <c r="B31" s="84"/>
       <c r="C31" s="56" t="s">
         <v>741</v>
       </c>
@@ -9297,7 +10767,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="80"/>
+      <c r="B32" s="84"/>
       <c r="C32" s="56" t="s">
         <v>742</v>
       </c>
@@ -9319,7 +10789,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="84" t="s">
         <v>744</v>
       </c>
       <c r="C33" s="56" t="s">
@@ -9345,7 +10815,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="80"/>
+      <c r="B34" s="84"/>
       <c r="C34" s="56" t="s">
         <v>746</v>
       </c>
@@ -9369,7 +10839,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="80"/>
+      <c r="B35" s="84"/>
       <c r="C35" s="56" t="s">
         <v>747</v>
       </c>
@@ -9393,7 +10863,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="80"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="56" t="s">
         <v>748</v>
       </c>
@@ -9417,7 +10887,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="80"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="56" t="s">
         <v>749</v>
       </c>
@@ -9441,7 +10911,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="80"/>
+      <c r="B38" s="84"/>
       <c r="C38" s="56" t="s">
         <v>750</v>
       </c>
@@ -9465,7 +10935,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="80"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="56" t="s">
         <v>751</v>
       </c>
@@ -9655,6 +11125,11 @@
   </sheetData>
   <autoFilter ref="B1:M40" xr:uid="{8E7929DC-B531-419A-8BB3-4B492C6A9455}"/>
   <mergeCells count="14">
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B33:B39"/>
     <mergeCell ref="C27:C28"/>
@@ -9664,11 +11139,6 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B2:B14"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="H2:H48 J2:J48">
@@ -9695,7 +11165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBC6241-952D-451D-ACB1-930264AC8260}">
   <dimension ref="B2:R106"/>
   <sheetViews>
@@ -9764,7 +11234,7 @@
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="96" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -9788,7 +11258,7 @@
       <c r="O3" s="14"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B4" s="90"/>
+      <c r="B4" s="97"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -9814,7 +11284,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B5" s="90"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -9840,7 +11310,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B6" s="90"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -9866,7 +11336,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B7" s="90"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
@@ -9888,7 +11358,7 @@
       <c r="O7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="93" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="91"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
@@ -9920,7 +11390,7 @@
       <c r="O8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="96" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -9954,7 +11424,7 @@
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="90"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="1" t="s">
         <v>62</v>
       </c>
@@ -9986,7 +11456,7 @@
       <c r="O10" s="14"/>
     </row>
     <row r="11" spans="2:18" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="99" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -10020,7 +11490,7 @@
       <c r="O11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="101"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
@@ -10052,7 +11522,7 @@
       <c r="O12" s="14"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B13" s="101"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
@@ -10082,7 +11552,7 @@
       <c r="O13" s="14"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="96" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -10114,7 +11584,7 @@
       <c r="O14" s="14"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B15" s="90"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="1" t="s">
         <v>66</v>
       </c>
@@ -10144,7 +11614,7 @@
       <c r="O15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B16" s="90"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
@@ -10176,7 +11646,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B17" s="90"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
@@ -10208,8 +11678,8 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="90"/>
-      <c r="C18" s="92" t="s">
+      <c r="B18" s="97"/>
+      <c r="C18" s="90" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -10240,8 +11710,8 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="90"/>
-      <c r="C19" s="94"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="14" t="s">
         <v>47</v>
       </c>
@@ -10270,8 +11740,8 @@
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B20" s="90"/>
-      <c r="C20" s="94"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="14" t="s">
         <v>48</v>
       </c>
@@ -10300,8 +11770,8 @@
       <c r="O20" s="14"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="90"/>
-      <c r="C21" s="94"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="14" t="s">
         <v>49</v>
       </c>
@@ -10330,8 +11800,8 @@
       <c r="O21" s="14"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="90"/>
-      <c r="C22" s="94"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="91"/>
       <c r="D22" s="22" t="s">
         <v>50</v>
       </c>
@@ -10360,8 +11830,8 @@
       <c r="O22" s="14"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="90"/>
-      <c r="C23" s="94"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="14" t="s">
         <v>51</v>
       </c>
@@ -10390,8 +11860,8 @@
       <c r="O23" s="14"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="90"/>
-      <c r="C24" s="94"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="91"/>
       <c r="D24" s="14" t="s">
         <v>52</v>
       </c>
@@ -10420,8 +11890,8 @@
       <c r="O24" s="14"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B25" s="90"/>
-      <c r="C25" s="93"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="14" t="s">
         <v>53</v>
       </c>
@@ -10450,7 +11920,7 @@
       <c r="O25" s="14"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="96" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -10476,7 +11946,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B27" s="90"/>
+      <c r="B27" s="97"/>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
@@ -10500,7 +11970,7 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="96" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -10530,7 +12000,7 @@
       <c r="O28" s="14"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B29" s="90"/>
+      <c r="B29" s="97"/>
       <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
@@ -10558,8 +12028,8 @@
       <c r="O29" s="14"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B30" s="90"/>
-      <c r="C30" s="92" t="s">
+      <c r="B30" s="97"/>
+      <c r="C30" s="90" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -10588,8 +12058,8 @@
       <c r="O30" s="14"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B31" s="90"/>
-      <c r="C31" s="94"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="14"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -10604,8 +12074,8 @@
       <c r="O31" s="14"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B32" s="91"/>
-      <c r="C32" s="93"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="92"/>
       <c r="D32" s="14"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -10620,7 +12090,7 @@
       <c r="O32" s="14"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="96" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -10646,7 +12116,7 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B34" s="90"/>
+      <c r="B34" s="97"/>
       <c r="C34" s="14" t="s">
         <v>39</v>
       </c>
@@ -10670,7 +12140,7 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B35" s="90"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="14" t="s">
         <v>40</v>
       </c>
@@ -10694,8 +12164,8 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B36" s="90"/>
-      <c r="C36" s="97" t="s">
+      <c r="B36" s="97"/>
+      <c r="C36" s="93" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="14"/>
@@ -10718,8 +12188,8 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B37" s="90"/>
-      <c r="C37" s="98"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="94"/>
       <c r="D37" s="14"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
@@ -10740,8 +12210,8 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B38" s="91"/>
-      <c r="C38" s="99"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="95"/>
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
@@ -10830,10 +12300,10 @@
       <c r="O41" s="10"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B42" s="89" t="s">
+      <c r="B42" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="86" t="s">
+      <c r="C42" s="101" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -10864,8 +12334,8 @@
       <c r="O42" s="14"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B43" s="90"/>
-      <c r="C43" s="88"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="14" t="s">
         <v>31</v>
       </c>
@@ -10894,8 +12364,8 @@
       <c r="O43" s="14"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B44" s="90"/>
-      <c r="C44" s="92"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="90"/>
       <c r="D44" s="14" t="s">
         <v>34</v>
       </c>
@@ -10924,8 +12394,8 @@
       <c r="O44" s="14"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B45" s="91"/>
-      <c r="C45" s="93"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="92"/>
       <c r="D45" s="14" t="s">
         <v>31</v>
       </c>
@@ -10954,7 +12424,7 @@
       <c r="O45" s="14"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B46" s="89" t="s">
+      <c r="B46" s="96" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -10976,7 +12446,7 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B47" s="90"/>
+      <c r="B47" s="97"/>
       <c r="C47" s="1" t="s">
         <v>76</v>
       </c>
@@ -10996,7 +12466,7 @@
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B48" s="90"/>
+      <c r="B48" s="97"/>
       <c r="C48" s="1" t="s">
         <v>77</v>
       </c>
@@ -11016,7 +12486,7 @@
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B49" s="90"/>
+      <c r="B49" s="97"/>
       <c r="C49" s="1" t="s">
         <v>78</v>
       </c>
@@ -11036,7 +12506,7 @@
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B50" s="91"/>
+      <c r="B50" s="98"/>
       <c r="C50" s="1" t="s">
         <v>79</v>
       </c>
@@ -11056,10 +12526,10 @@
       </c>
     </row>
     <row r="51" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="89" t="s">
+      <c r="B51" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="86" t="s">
+      <c r="C51" s="101" t="s">
         <v>84</v>
       </c>
       <c r="D51" s="14" t="s">
@@ -11080,8 +12550,8 @@
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B52" s="90"/>
-      <c r="C52" s="87"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="102"/>
       <c r="D52" s="14" t="s">
         <v>86</v>
       </c>
@@ -11100,8 +12570,8 @@
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B53" s="91"/>
-      <c r="C53" s="88"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="14" t="s">
         <v>87</v>
       </c>
@@ -11185,7 +12655,7 @@
     </row>
     <row r="57" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="6"/>
-      <c r="C57" s="95" t="s">
+      <c r="C57" s="104" t="s">
         <v>93</v>
       </c>
       <c r="D57" s="14" t="s">
@@ -11207,7 +12677,7 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B58" s="6"/>
-      <c r="C58" s="96"/>
+      <c r="C58" s="105"/>
       <c r="D58" s="14" t="s">
         <v>95</v>
       </c>
@@ -11633,7 +13103,7 @@
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B80" s="6"/>
-      <c r="C80" s="92" t="s">
+      <c r="C80" s="90" t="s">
         <v>114</v>
       </c>
       <c r="D80" s="14" t="s">
@@ -11655,7 +13125,7 @@
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B81" s="6"/>
-      <c r="C81" s="94"/>
+      <c r="C81" s="91"/>
       <c r="D81" s="14" t="s">
         <v>95</v>
       </c>
@@ -11675,7 +13145,7 @@
     </row>
     <row r="82" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B82" s="6"/>
-      <c r="C82" s="93"/>
+      <c r="C82" s="92"/>
       <c r="D82" s="21" t="s">
         <v>115</v>
       </c>
@@ -11813,7 +13283,7 @@
     </row>
     <row r="89" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="6"/>
-      <c r="C89" s="86" t="s">
+      <c r="C89" s="101" t="s">
         <v>133</v>
       </c>
       <c r="D89" s="24" t="s">
@@ -11835,7 +13305,7 @@
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B90" s="6"/>
-      <c r="C90" s="87"/>
+      <c r="C90" s="102"/>
       <c r="D90" s="24" t="s">
         <v>136</v>
       </c>
@@ -11855,7 +13325,7 @@
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B91" s="6"/>
-      <c r="C91" s="87"/>
+      <c r="C91" s="102"/>
       <c r="D91" s="24" t="s">
         <v>135</v>
       </c>
@@ -11875,7 +13345,7 @@
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B92" s="6"/>
-      <c r="C92" s="88"/>
+      <c r="C92" s="103"/>
       <c r="D92" s="28" t="s">
         <v>137</v>
       </c>
@@ -12134,6 +13604,15 @@
   </sheetData>
   <autoFilter ref="I2:I47" xr:uid="{6EBC6241-952D-451D-ACB1-930264AC8260}"/>
   <mergeCells count="19">
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="C57:C58"/>
     <mergeCell ref="C18:C25"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="C36:C38"/>
@@ -12144,22 +13623,13 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="C57:C58"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6544F728-6876-4DC6-84A9-13CA4AE87413}">
   <dimension ref="A1:I241"/>
   <sheetViews>
@@ -17733,7 +19203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5902ED06-4044-4268-BD1B-DE91FEC3CF78}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -17748,7 +19218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A18756-65AB-42E0-9D80-EAE146D8DE1C}">
   <dimension ref="B2:C44"/>
   <sheetViews>
